--- a/RR/excel/GenericFlow/NewsFeedDelete.xlsx
+++ b/RR/excel/GenericFlow/NewsFeedDelete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choug\git\RR_Web\RR\excel\GenericFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB779D73-029B-4044-B0EC-44C1361594FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A6BD78-456E-41D7-9516-2D3684D00754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="94">
   <si>
     <t>NewsFeed ID</t>
   </si>
@@ -180,25 +180,133 @@
     <t>3363353</t>
   </si>
   <si>
+    <t>3363612</t>
+  </si>
+  <si>
+    <t>3363694</t>
+  </si>
+  <si>
+    <t>3363737</t>
+  </si>
+  <si>
+    <t>3363736</t>
+  </si>
+  <si>
+    <t>3363735</t>
+  </si>
+  <si>
+    <t>3363766</t>
+  </si>
+  <si>
+    <t>3366897</t>
+  </si>
+  <si>
+    <t>3368380</t>
+  </si>
+  <si>
     <t>Pending</t>
   </si>
   <si>
-    <t>3363612</t>
-  </si>
-  <si>
-    <t>3363694</t>
-  </si>
-  <si>
-    <t>3363737</t>
-  </si>
-  <si>
-    <t>3363736</t>
-  </si>
-  <si>
-    <t>3363735</t>
-  </si>
-  <si>
-    <t>3363766</t>
+    <t>3368422</t>
+  </si>
+  <si>
+    <t>3368623</t>
+  </si>
+  <si>
+    <t>3368621</t>
+  </si>
+  <si>
+    <t>3368622</t>
+  </si>
+  <si>
+    <t>3370517</t>
+  </si>
+  <si>
+    <t>3370553</t>
+  </si>
+  <si>
+    <t>3370552</t>
+  </si>
+  <si>
+    <t>3373993</t>
+  </si>
+  <si>
+    <t>3373996</t>
+  </si>
+  <si>
+    <t>3374069</t>
+  </si>
+  <si>
+    <t>3374086</t>
+  </si>
+  <si>
+    <t>3374120</t>
+  </si>
+  <si>
+    <t>3374122</t>
+  </si>
+  <si>
+    <t>3374133</t>
+  </si>
+  <si>
+    <t>3374132</t>
+  </si>
+  <si>
+    <t>3374131</t>
+  </si>
+  <si>
+    <t>3376747</t>
+  </si>
+  <si>
+    <t>3376759</t>
+  </si>
+  <si>
+    <t>3377422</t>
+  </si>
+  <si>
+    <t>3377456</t>
+  </si>
+  <si>
+    <t>3377454</t>
+  </si>
+  <si>
+    <t>3377455</t>
+  </si>
+  <si>
+    <t>3378983</t>
+  </si>
+  <si>
+    <t>3379277</t>
+  </si>
+  <si>
+    <t>3379334</t>
+  </si>
+  <si>
+    <t>3379687</t>
+  </si>
+  <si>
+    <t>3379702</t>
+  </si>
+  <si>
+    <t>3379761</t>
+  </si>
+  <si>
+    <t>3379785</t>
+  </si>
+  <si>
+    <t>3379827</t>
+  </si>
+  <si>
+    <t>3380007</t>
+  </si>
+  <si>
+    <t>3380493</t>
+  </si>
+  <si>
+    <t>3380494</t>
+  </si>
+  <si>
+    <t>3380495</t>
   </si>
 </sst>
 </file>
@@ -266,10 +374,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,15 +677,15 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -586,13 +694,13 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -955,58 +1063,346 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>52</v>
       </c>
-      <c r="B49" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>53</v>
       </c>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>54</v>
       </c>
-      <c r="B51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>55</v>
       </c>
-      <c r="B52" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>56</v>
       </c>
-      <c r="B53" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>57</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" t="s">
         <v>3</v>
       </c>
     </row>

--- a/RR/excel/GenericFlow/NewsFeedDelete.xlsx
+++ b/RR/excel/GenericFlow/NewsFeedDelete.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="164">
   <si>
     <t>NewsFeed ID</t>
   </si>
@@ -307,6 +307,216 @@
   </si>
   <si>
     <t>3380495</t>
+  </si>
+  <si>
+    <t>3380905</t>
+  </si>
+  <si>
+    <t>3380938</t>
+  </si>
+  <si>
+    <t>3380992</t>
+  </si>
+  <si>
+    <t>3381749</t>
+  </si>
+  <si>
+    <t>3381767</t>
+  </si>
+  <si>
+    <t>3381765</t>
+  </si>
+  <si>
+    <t>3381766</t>
+  </si>
+  <si>
+    <t>3381780</t>
+  </si>
+  <si>
+    <t>3381779</t>
+  </si>
+  <si>
+    <t>3381778</t>
+  </si>
+  <si>
+    <t>3381805</t>
+  </si>
+  <si>
+    <t>3381859</t>
+  </si>
+  <si>
+    <t>3381868</t>
+  </si>
+  <si>
+    <t>3381883</t>
+  </si>
+  <si>
+    <t>3381916</t>
+  </si>
+  <si>
+    <t>3381918</t>
+  </si>
+  <si>
+    <t>3381920</t>
+  </si>
+  <si>
+    <t>3381919</t>
+  </si>
+  <si>
+    <t>3381921</t>
+  </si>
+  <si>
+    <t>3381935</t>
+  </si>
+  <si>
+    <t>3381941</t>
+  </si>
+  <si>
+    <t>3381945</t>
+  </si>
+  <si>
+    <t>3384919</t>
+  </si>
+  <si>
+    <t>3384953</t>
+  </si>
+  <si>
+    <t>3385099</t>
+  </si>
+  <si>
+    <t>3385098</t>
+  </si>
+  <si>
+    <t>3385097</t>
+  </si>
+  <si>
+    <t>3385118</t>
+  </si>
+  <si>
+    <t>3385215</t>
+  </si>
+  <si>
+    <t>3385244</t>
+  </si>
+  <si>
+    <t>3385263</t>
+  </si>
+  <si>
+    <t>3385262</t>
+  </si>
+  <si>
+    <t>3385261</t>
+  </si>
+  <si>
+    <t>3385465</t>
+  </si>
+  <si>
+    <t>3385478</t>
+  </si>
+  <si>
+    <t>3385477</t>
+  </si>
+  <si>
+    <t>3385476</t>
+  </si>
+  <si>
+    <t>3385510</t>
+  </si>
+  <si>
+    <t>3385524</t>
+  </si>
+  <si>
+    <t>3385543</t>
+  </si>
+  <si>
+    <t>3385544</t>
+  </si>
+  <si>
+    <t>3386293</t>
+  </si>
+  <si>
+    <t>3386340</t>
+  </si>
+  <si>
+    <t>3386338</t>
+  </si>
+  <si>
+    <t>3386337</t>
+  </si>
+  <si>
+    <t>3386376</t>
+  </si>
+  <si>
+    <t>3386443</t>
+  </si>
+  <si>
+    <t>3386462</t>
+  </si>
+  <si>
+    <t>3386461</t>
+  </si>
+  <si>
+    <t>3386459</t>
+  </si>
+  <si>
+    <t>3386476</t>
+  </si>
+  <si>
+    <t>3407002</t>
+  </si>
+  <si>
+    <t>3407022</t>
+  </si>
+  <si>
+    <t>3407368</t>
+  </si>
+  <si>
+    <t>3407384</t>
+  </si>
+  <si>
+    <t>3407388</t>
+  </si>
+  <si>
+    <t>3407387</t>
+  </si>
+  <si>
+    <t>3409714</t>
+  </si>
+  <si>
+    <t>Pending-Award</t>
+  </si>
+  <si>
+    <t>3409717</t>
+  </si>
+  <si>
+    <t>3409720</t>
+  </si>
+  <si>
+    <t>3409728</t>
+  </si>
+  <si>
+    <t>3409791</t>
+  </si>
+  <si>
+    <t>3412779</t>
+  </si>
+  <si>
+    <t>3412848</t>
+  </si>
+  <si>
+    <t>3412925</t>
+  </si>
+  <si>
+    <t>3413705</t>
+  </si>
+  <si>
+    <t>3413832</t>
+  </si>
+  <si>
+    <t>3413953</t>
+  </si>
+  <si>
+    <t>3420182</t>
   </si>
 </sst>
 </file>
@@ -658,7 +868,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:J159"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
@@ -1406,6 +1616,558 @@
         <v>3</v>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>153</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>154</v>
+      </c>
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>155</v>
+      </c>
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>156</v>
+      </c>
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>157</v>
+      </c>
+      <c r="B153" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>158</v>
+      </c>
+      <c r="B154" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>159</v>
+      </c>
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>160</v>
+      </c>
+      <c r="B156" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>161</v>
+      </c>
+      <c r="B157" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>162</v>
+      </c>
+      <c r="B158" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>163</v>
+      </c>
+      <c r="B159" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:J2"/>

--- a/RR/excel/GenericFlow/NewsFeedDelete.xlsx
+++ b/RR/excel/GenericFlow/NewsFeedDelete.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="210">
   <si>
     <t>NewsFeed ID</t>
   </si>
@@ -517,6 +517,144 @@
   </si>
   <si>
     <t>3420182</t>
+  </si>
+  <si>
+    <t>3423727</t>
+  </si>
+  <si>
+    <t>3423756</t>
+  </si>
+  <si>
+    <t>3423813</t>
+  </si>
+  <si>
+    <t>3423870</t>
+  </si>
+  <si>
+    <t>3423881</t>
+  </si>
+  <si>
+    <t>3424327</t>
+  </si>
+  <si>
+    <t>3424367</t>
+  </si>
+  <si>
+    <t>3424394</t>
+  </si>
+  <si>
+    <t>3424415</t>
+  </si>
+  <si>
+    <t>3424822</t>
+  </si>
+  <si>
+    <t>3424867</t>
+  </si>
+  <si>
+    <t>3424912</t>
+  </si>
+  <si>
+    <t>3424947</t>
+  </si>
+  <si>
+    <t>3424978</t>
+  </si>
+  <si>
+    <t>3424994</t>
+  </si>
+  <si>
+    <t>3425007</t>
+  </si>
+  <si>
+    <t>3425080</t>
+  </si>
+  <si>
+    <t>3425150</t>
+  </si>
+  <si>
+    <t>3426255</t>
+  </si>
+  <si>
+    <t>3429004</t>
+  </si>
+  <si>
+    <t>3429805</t>
+  </si>
+  <si>
+    <t>3430119</t>
+  </si>
+  <si>
+    <t>3430143</t>
+  </si>
+  <si>
+    <t>3430158</t>
+  </si>
+  <si>
+    <t>3430173</t>
+  </si>
+  <si>
+    <t>3431252</t>
+  </si>
+  <si>
+    <t>3431273</t>
+  </si>
+  <si>
+    <t>3431290</t>
+  </si>
+  <si>
+    <t>3431314</t>
+  </si>
+  <si>
+    <t>3432022</t>
+  </si>
+  <si>
+    <t>3432043</t>
+  </si>
+  <si>
+    <t>3432049</t>
+  </si>
+  <si>
+    <t>3484892</t>
+  </si>
+  <si>
+    <t>3489023</t>
+  </si>
+  <si>
+    <t>3489087</t>
+  </si>
+  <si>
+    <t>3489114</t>
+  </si>
+  <si>
+    <t>3489145</t>
+  </si>
+  <si>
+    <t>3489169</t>
+  </si>
+  <si>
+    <t>3489238</t>
+  </si>
+  <si>
+    <t>3489264</t>
+  </si>
+  <si>
+    <t>3543172</t>
+  </si>
+  <si>
+    <t>3543870</t>
+  </si>
+  <si>
+    <t>3544085</t>
+  </si>
+  <si>
+    <t>3544117</t>
+  </si>
+  <si>
+    <t>3544118</t>
+  </si>
+  <si>
+    <t>3544119</t>
   </si>
 </sst>
 </file>
@@ -868,7 +1006,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J159"/>
+  <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
@@ -2168,6 +2306,374 @@
         <v>3</v>
       </c>
     </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>164</v>
+      </c>
+      <c r="B160" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>165</v>
+      </c>
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>166</v>
+      </c>
+      <c r="B162" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>167</v>
+      </c>
+      <c r="B163" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>168</v>
+      </c>
+      <c r="B164" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>169</v>
+      </c>
+      <c r="B165" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>170</v>
+      </c>
+      <c r="B166" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>171</v>
+      </c>
+      <c r="B167" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>172</v>
+      </c>
+      <c r="B168" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>173</v>
+      </c>
+      <c r="B169" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>174</v>
+      </c>
+      <c r="B170" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>175</v>
+      </c>
+      <c r="B171" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>176</v>
+      </c>
+      <c r="B172" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>177</v>
+      </c>
+      <c r="B173" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>178</v>
+      </c>
+      <c r="B174" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>179</v>
+      </c>
+      <c r="B175" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>180</v>
+      </c>
+      <c r="B176" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>181</v>
+      </c>
+      <c r="B177" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>182</v>
+      </c>
+      <c r="B178" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>183</v>
+      </c>
+      <c r="B179" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>184</v>
+      </c>
+      <c r="B180" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>185</v>
+      </c>
+      <c r="B181" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>186</v>
+      </c>
+      <c r="B182" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>187</v>
+      </c>
+      <c r="B183" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>188</v>
+      </c>
+      <c r="B184" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>189</v>
+      </c>
+      <c r="B185" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>190</v>
+      </c>
+      <c r="B186" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>191</v>
+      </c>
+      <c r="B187" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>192</v>
+      </c>
+      <c r="B188" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>193</v>
+      </c>
+      <c r="B189" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>194</v>
+      </c>
+      <c r="B190" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>195</v>
+      </c>
+      <c r="B191" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>196</v>
+      </c>
+      <c r="B192" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>197</v>
+      </c>
+      <c r="B193" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>198</v>
+      </c>
+      <c r="B194" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>199</v>
+      </c>
+      <c r="B195" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>200</v>
+      </c>
+      <c r="B196" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>201</v>
+      </c>
+      <c r="B197" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>202</v>
+      </c>
+      <c r="B198" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>203</v>
+      </c>
+      <c r="B199" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>204</v>
+      </c>
+      <c r="B200" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>205</v>
+      </c>
+      <c r="B201" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>206</v>
+      </c>
+      <c r="B202" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>207</v>
+      </c>
+      <c r="B203" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>208</v>
+      </c>
+      <c r="B204" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>209</v>
+      </c>
+      <c r="B205" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:J2"/>

--- a/RR/excel/GenericFlow/NewsFeedDelete.xlsx
+++ b/RR/excel/GenericFlow/NewsFeedDelete.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="213">
   <si>
     <t>NewsFeed ID</t>
   </si>
@@ -655,6 +655,15 @@
   </si>
   <si>
     <t>3544119</t>
+  </si>
+  <si>
+    <t>3744709</t>
+  </si>
+  <si>
+    <t>3744736</t>
+  </si>
+  <si>
+    <t>4018904</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1015,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J205"/>
+  <dimension ref="A1:J209"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
@@ -2674,6 +2683,38 @@
         <v>3</v>
       </c>
     </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>210</v>
+      </c>
+      <c r="B206" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>211</v>
+      </c>
+      <c r="B207" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>211</v>
+      </c>
+      <c r="B208" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>212</v>
+      </c>
+      <c r="B209" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:J2"/>

--- a/RR/excel/GenericFlow/NewsFeedDelete.xlsx
+++ b/RR/excel/GenericFlow/NewsFeedDelete.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="215">
   <si>
     <t>NewsFeed ID</t>
   </si>
@@ -664,6 +664,12 @@
   </si>
   <si>
     <t>4018904</t>
+  </si>
+  <si>
+    <t>4769416</t>
+  </si>
+  <si>
+    <t>4770267</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1021,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J209"/>
+  <dimension ref="A1:J213"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
@@ -2715,6 +2721,38 @@
         <v>59</v>
       </c>
     </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>213</v>
+      </c>
+      <c r="B210" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>213</v>
+      </c>
+      <c r="B211" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>213</v>
+      </c>
+      <c r="B212" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>214</v>
+      </c>
+      <c r="B213" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:J2"/>

--- a/RR/excel/GenericFlow/NewsFeedDelete.xlsx
+++ b/RR/excel/GenericFlow/NewsFeedDelete.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="228">
   <si>
     <t>NewsFeed ID</t>
   </si>
@@ -699,6 +699,18 @@
   </si>
   <si>
     <t>4929617</t>
+  </si>
+  <si>
+    <t>5039055</t>
+  </si>
+  <si>
+    <t>5039091</t>
+  </si>
+  <si>
+    <t>5039165</t>
+  </si>
+  <si>
+    <t>5039208</t>
   </si>
 </sst>
 </file>
@@ -1660,7 +1672,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J224"/>
+  <dimension ref="A1:J228"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
       <selection activeCell="D218" sqref="D218"/>
@@ -3469,7 +3481,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>214</v>
+        <v>4</v>
       </c>
     </row>
     <row r="224">
@@ -3477,7 +3489,39 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>214</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/RR/excel/GenericFlow/NewsFeedDelete.xlsx
+++ b/RR/excel/GenericFlow/NewsFeedDelete.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="234">
   <si>
     <t>NewsFeed ID</t>
   </si>
@@ -671,46 +671,64 @@
     <t>4920148</t>
   </si>
   <si>
+    <t>4920164</t>
+  </si>
+  <si>
+    <t>4920193</t>
+  </si>
+  <si>
+    <t>4920209</t>
+  </si>
+  <si>
+    <t>4920234</t>
+  </si>
+  <si>
+    <t>4922293</t>
+  </si>
+  <si>
+    <t>4922332</t>
+  </si>
+  <si>
+    <t>4923435</t>
+  </si>
+  <si>
+    <t>4923837</t>
+  </si>
+  <si>
+    <t>4929617</t>
+  </si>
+  <si>
+    <t>5039055</t>
+  </si>
+  <si>
+    <t>5039091</t>
+  </si>
+  <si>
+    <t>5039165</t>
+  </si>
+  <si>
+    <t>5039208</t>
+  </si>
+  <si>
+    <t>5066292</t>
+  </si>
+  <si>
+    <t>5066298</t>
+  </si>
+  <si>
     <t>Pending</t>
   </si>
   <si>
-    <t>4920164</t>
-  </si>
-  <si>
-    <t>4920193</t>
-  </si>
-  <si>
-    <t>4920209</t>
-  </si>
-  <si>
-    <t>4920234</t>
-  </si>
-  <si>
-    <t>4922293</t>
-  </si>
-  <si>
-    <t>4922332</t>
-  </si>
-  <si>
-    <t>4923435</t>
-  </si>
-  <si>
-    <t>4923837</t>
-  </si>
-  <si>
-    <t>4929617</t>
-  </si>
-  <si>
-    <t>5039055</t>
-  </si>
-  <si>
-    <t>5039091</t>
-  </si>
-  <si>
-    <t>5039165</t>
-  </si>
-  <si>
-    <t>5039208</t>
+    <t>5066305</t>
+  </si>
+  <si>
+    <t>5066326</t>
+  </si>
+  <si>
+    <t>5066445</t>
+  </si>
+  <si>
+    <t>5070617</t>
   </si>
 </sst>
 </file>
@@ -1672,10 +1690,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J228"/>
+  <dimension ref="A1:J234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="D218" sqref="D218"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="B232" sqref="B232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3414,7 +3432,7 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B215" t="s">
         <v>4</v>
@@ -3422,7 +3440,7 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B216" t="s">
         <v>4</v>
@@ -3430,7 +3448,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B217" t="s">
         <v>4</v>
@@ -3438,90 +3456,138 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
         <v>218</v>
       </c>
-      <c r="B218" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="s">
+      <c r="B219" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
         <v>219</v>
       </c>
-      <c r="B219" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="s">
+      <c r="B220" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
         <v>220</v>
       </c>
-      <c r="B220" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="s">
-        <v>220</v>
-      </c>
-      <c r="B221" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="s">
+      <c r="B222" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
         <v>221</v>
       </c>
-      <c r="B222" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="s">
+      <c r="B223" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
         <v>222</v>
       </c>
-      <c r="B223" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="s">
+      <c r="B224" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
         <v>223</v>
       </c>
-      <c r="B224" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="s">
+      <c r="B225" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
         <v>224</v>
       </c>
-      <c r="B225" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="s">
+      <c r="B226" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
         <v>225</v>
       </c>
-      <c r="B226" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="s">
+      <c r="B227" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
         <v>226</v>
       </c>
-      <c r="B227" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="s">
+      <c r="B228" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
         <v>227</v>
       </c>
-      <c r="B228" t="s">
-        <v>4</v>
+      <c r="B229" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/RR/excel/GenericFlow/NewsFeedDelete.xlsx
+++ b/RR/excel/GenericFlow/NewsFeedDelete.xlsx
@@ -4,11 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$C$156</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="408">
   <si>
     <t>NewsFeed ID</t>
   </si>
@@ -729,6 +733,528 @@
   </si>
   <si>
     <t>5070617</t>
+  </si>
+  <si>
+    <t>5076226</t>
+  </si>
+  <si>
+    <t>2024-05-24 12:19:42</t>
+  </si>
+  <si>
+    <t>2024-05-24 12:24:15</t>
+  </si>
+  <si>
+    <t>2024-05-24 12:25:58</t>
+  </si>
+  <si>
+    <t>2024-05-24 12:27:38</t>
+  </si>
+  <si>
+    <t>2024-05-24 12:41:54</t>
+  </si>
+  <si>
+    <t>2024-05-24 12:47:46</t>
+  </si>
+  <si>
+    <t>2024-05-24 12:49:47</t>
+  </si>
+  <si>
+    <t>2024-05-24 12:50:49</t>
+  </si>
+  <si>
+    <t>2024-05-24 12:55:41</t>
+  </si>
+  <si>
+    <t>2024-05-24 13:00:44</t>
+  </si>
+  <si>
+    <t>2024-05-24 13:05:46</t>
+  </si>
+  <si>
+    <t>2024-05-24 13:15:45</t>
+  </si>
+  <si>
+    <t>2024-05-24 13:20:43</t>
+  </si>
+  <si>
+    <t>2024-05-24 13:30:54</t>
+  </si>
+  <si>
+    <t>2024-05-24 13:35:43</t>
+  </si>
+  <si>
+    <t>2024-05-24 13:40:41</t>
+  </si>
+  <si>
+    <t>2024-05-24 13:45:45</t>
+  </si>
+  <si>
+    <t>2024-05-24 13:50:45</t>
+  </si>
+  <si>
+    <t>2024-05-24 13:55:41</t>
+  </si>
+  <si>
+    <t>2024-05-24 14:00:44</t>
+  </si>
+  <si>
+    <t>2024-05-24 14:05:40</t>
+  </si>
+  <si>
+    <t>2024-05-24 14:10:45</t>
+  </si>
+  <si>
+    <t>2024-05-24 14:55:40</t>
+  </si>
+  <si>
+    <t>2024-05-24 15:05:44</t>
+  </si>
+  <si>
+    <t>2024-05-24 15:10:50</t>
+  </si>
+  <si>
+    <t>2024-05-24 15:15:42</t>
+  </si>
+  <si>
+    <t>2024-05-24 15:20:58</t>
+  </si>
+  <si>
+    <t>2024-05-24 15:25:44</t>
+  </si>
+  <si>
+    <t>2024-05-24 15:30:42</t>
+  </si>
+  <si>
+    <t>2024-05-24 15:35:43</t>
+  </si>
+  <si>
+    <t>2024-05-24 15:40:43</t>
+  </si>
+  <si>
+    <t>2024-05-24 15:45:45</t>
+  </si>
+  <si>
+    <t>2024-05-24 15:50:40</t>
+  </si>
+  <si>
+    <t>2024-05-24 15:55:41</t>
+  </si>
+  <si>
+    <t>2024-05-24 16:00:39</t>
+  </si>
+  <si>
+    <t>2024-05-24 16:05:36</t>
+  </si>
+  <si>
+    <t>2024-05-24 16:10:41</t>
+  </si>
+  <si>
+    <t>2024-05-24 16:15:40</t>
+  </si>
+  <si>
+    <t>2024-05-24 16:20:36</t>
+  </si>
+  <si>
+    <t>2024-05-24 16:25:47</t>
+  </si>
+  <si>
+    <t>2024-05-24 16:30:42</t>
+  </si>
+  <si>
+    <t>2024-05-24 16:35:49</t>
+  </si>
+  <si>
+    <t>2024-05-24 16:40:47</t>
+  </si>
+  <si>
+    <t>2024-05-24 16:45:42</t>
+  </si>
+  <si>
+    <t>2024-05-24 16:50:42</t>
+  </si>
+  <si>
+    <t>2024-05-24 16:55:44</t>
+  </si>
+  <si>
+    <t>2024-05-24 17:00:43</t>
+  </si>
+  <si>
+    <t>2024-05-24 17:05:45</t>
+  </si>
+  <si>
+    <t>2024-05-24 17:10:46</t>
+  </si>
+  <si>
+    <t>2024-05-24 17:25:46</t>
+  </si>
+  <si>
+    <t>2024-05-24 17:30:41</t>
+  </si>
+  <si>
+    <t>2024-05-24 17:35:40</t>
+  </si>
+  <si>
+    <t>2024-05-24 17:40:37</t>
+  </si>
+  <si>
+    <t>2024-05-24 17:45:34</t>
+  </si>
+  <si>
+    <t>2024-05-24 17:50:36</t>
+  </si>
+  <si>
+    <t>2024-05-24 17:55:36</t>
+  </si>
+  <si>
+    <t>2024-05-24 20:27:44</t>
+  </si>
+  <si>
+    <t>2024-05-24 20:35:40</t>
+  </si>
+  <si>
+    <t>2024-05-24 20:43:44</t>
+  </si>
+  <si>
+    <t>2024-05-24 20:52:00</t>
+  </si>
+  <si>
+    <t>2024-05-24 21:00:16</t>
+  </si>
+  <si>
+    <t>2024-05-24 21:43:31</t>
+  </si>
+  <si>
+    <t>2024-05-24 21:51:50</t>
+  </si>
+  <si>
+    <t>2024-05-24 21:59:49</t>
+  </si>
+  <si>
+    <t>2024-05-24 22:03:44</t>
+  </si>
+  <si>
+    <t>2024-05-24 22:11:39</t>
+  </si>
+  <si>
+    <t>2024-05-24 22:19:39</t>
+  </si>
+  <si>
+    <t>2024-05-25 00:40:05</t>
+  </si>
+  <si>
+    <t>2024-05-25 00:43:38</t>
+  </si>
+  <si>
+    <t>2024-05-25 00:51:29</t>
+  </si>
+  <si>
+    <t>2024-05-25 00:59:42</t>
+  </si>
+  <si>
+    <t>2024-05-25 01:03:40</t>
+  </si>
+  <si>
+    <t>2024-05-25 01:06:23</t>
+  </si>
+  <si>
+    <t>2024-05-25 13:27:45</t>
+  </si>
+  <si>
+    <t>2024-05-25 13:35:56</t>
+  </si>
+  <si>
+    <t>2024-05-25 13:43:52</t>
+  </si>
+  <si>
+    <t>2024-05-25 13:51:41</t>
+  </si>
+  <si>
+    <t>2024-05-25 13:59:44</t>
+  </si>
+  <si>
+    <t>2024-05-25 14:03:45</t>
+  </si>
+  <si>
+    <t>2024-05-25 14:11:37</t>
+  </si>
+  <si>
+    <t>2024-05-25 14:19:41</t>
+  </si>
+  <si>
+    <t>2024-05-25 14:27:37</t>
+  </si>
+  <si>
+    <t>2024-05-25 14:35:40</t>
+  </si>
+  <si>
+    <t>2024-05-25 14:43:41</t>
+  </si>
+  <si>
+    <t>2024-05-25 14:51:35</t>
+  </si>
+  <si>
+    <t>2024-05-25 14:59:39</t>
+  </si>
+  <si>
+    <t>2024-05-25 15:08:53</t>
+  </si>
+  <si>
+    <t>2024-05-25 15:11:36</t>
+  </si>
+  <si>
+    <t>2024-05-25 15:14:36</t>
+  </si>
+  <si>
+    <t>2024-05-25 15:19:28</t>
+  </si>
+  <si>
+    <t>2024-05-25 15:27:34</t>
+  </si>
+  <si>
+    <t>2024-05-25 15:35:37</t>
+  </si>
+  <si>
+    <t>2024-05-25 15:43:31</t>
+  </si>
+  <si>
+    <t>2024-05-25 15:51:29</t>
+  </si>
+  <si>
+    <t>2024-05-25 15:59:32</t>
+  </si>
+  <si>
+    <t>2024-05-25 16:03:29</t>
+  </si>
+  <si>
+    <t>2024-05-25 18:59:36</t>
+  </si>
+  <si>
+    <t>2024-05-25 19:03:34</t>
+  </si>
+  <si>
+    <t>2024-05-25 19:11:35</t>
+  </si>
+  <si>
+    <t>2024-05-25 19:19:35</t>
+  </si>
+  <si>
+    <t>2024-05-25 19:27:32</t>
+  </si>
+  <si>
+    <t>2024-05-25 19:35:33</t>
+  </si>
+  <si>
+    <t>2024-05-25 19:43:33</t>
+  </si>
+  <si>
+    <t>2024-05-25 19:51:33</t>
+  </si>
+  <si>
+    <t>2024-05-25 19:59:31</t>
+  </si>
+  <si>
+    <t>2024-05-25 20:03:37</t>
+  </si>
+  <si>
+    <t>2024-05-25 20:11:37</t>
+  </si>
+  <si>
+    <t>2024-05-25 20:19:44</t>
+  </si>
+  <si>
+    <t>2024-05-25 20:27:34</t>
+  </si>
+  <si>
+    <t>2024-05-25 20:35:34</t>
+  </si>
+  <si>
+    <t>2024-05-25 20:43:37</t>
+  </si>
+  <si>
+    <t>2024-05-25 20:51:44</t>
+  </si>
+  <si>
+    <t>2024-05-25 20:55:34</t>
+  </si>
+  <si>
+    <t>2024-05-25 20:59:38</t>
+  </si>
+  <si>
+    <t>2024-05-25 23:03:32</t>
+  </si>
+  <si>
+    <t>2024-05-25 23:11:35</t>
+  </si>
+  <si>
+    <t>2024-05-25 23:19:33</t>
+  </si>
+  <si>
+    <t>2024-05-25 23:27:32</t>
+  </si>
+  <si>
+    <t>2024-05-25 23:35:35</t>
+  </si>
+  <si>
+    <t>2024-05-25 23:43:30</t>
+  </si>
+  <si>
+    <t>2024-05-25 23:51:27</t>
+  </si>
+  <si>
+    <t>2024-05-25 23:59:29</t>
+  </si>
+  <si>
+    <t>2024-05-26 00:03:33</t>
+  </si>
+  <si>
+    <t>2024-05-26 00:11:31</t>
+  </si>
+  <si>
+    <t>2024-05-26 00:19:30</t>
+  </si>
+  <si>
+    <t>2024-05-26 00:27:35</t>
+  </si>
+  <si>
+    <t>2024-05-26 00:35:29</t>
+  </si>
+  <si>
+    <t>2024-05-26 15:34:08</t>
+  </si>
+  <si>
+    <t>2024-05-26 15:35:45</t>
+  </si>
+  <si>
+    <t>2024-05-26 15:43:40</t>
+  </si>
+  <si>
+    <t>2024-05-26 15:51:34</t>
+  </si>
+  <si>
+    <t>2024-05-26 15:59:32</t>
+  </si>
+  <si>
+    <t>2024-05-26 16:03:38</t>
+  </si>
+  <si>
+    <t>2024-05-26 16:11:31</t>
+  </si>
+  <si>
+    <t>2024-05-26 16:19:36</t>
+  </si>
+  <si>
+    <t>2024-05-26 16:27:32</t>
+  </si>
+  <si>
+    <t>2024-05-26 16:35:36</t>
+  </si>
+  <si>
+    <t>2024-05-26 16:43:35</t>
+  </si>
+  <si>
+    <t>2024-05-26 16:51:41</t>
+  </si>
+  <si>
+    <t>2024-05-26 16:59:36</t>
+  </si>
+  <si>
+    <t>2024-05-26 17:03:37</t>
+  </si>
+  <si>
+    <t>2024-05-26 17:11:39</t>
+  </si>
+  <si>
+    <t>2024-05-26 17:19:36</t>
+  </si>
+  <si>
+    <t>2024-05-26 17:27:28</t>
+  </si>
+  <si>
+    <t>2024-05-26 17:35:30</t>
+  </si>
+  <si>
+    <t>2024-05-26 17:43:29</t>
+  </si>
+  <si>
+    <t>2024-05-26 17:51:27</t>
+  </si>
+  <si>
+    <t>2024-05-26 17:59:33</t>
+  </si>
+  <si>
+    <t>2024-05-26 18:03:31</t>
+  </si>
+  <si>
+    <t>2024-05-26 18:11:29</t>
+  </si>
+  <si>
+    <t>2024-05-26 18:51:39</t>
+  </si>
+  <si>
+    <t>2024-05-26 18:59:29</t>
+  </si>
+  <si>
+    <t>2024-05-26 19:03:30</t>
+  </si>
+  <si>
+    <t>2024-05-27 10:22:58</t>
+  </si>
+  <si>
+    <t>2024-05-27 10:27:29</t>
+  </si>
+  <si>
+    <t>2024-05-27 10:43:38</t>
+  </si>
+  <si>
+    <t>2024-05-27 11:05:02</t>
+  </si>
+  <si>
+    <t>2024-05-27 11:08:21</t>
+  </si>
+  <si>
+    <t>2024-05-27 11:12:11</t>
+  </si>
+  <si>
+    <t>2024-05-27 11:20:05</t>
+  </si>
+  <si>
+    <t>2024-05-27 11:35:25</t>
+  </si>
+  <si>
+    <t>2024-05-27 11:43:28</t>
+  </si>
+  <si>
+    <t>2024-05-27 11:53:18</t>
+  </si>
+  <si>
+    <t>2024-05-27 11:59:32</t>
+  </si>
+  <si>
+    <t>2024-05-27 12:03:28</t>
+  </si>
+  <si>
+    <t>2024-05-27 12:27:29</t>
+  </si>
+  <si>
+    <t>2024-05-27 12:35:27</t>
+  </si>
+  <si>
+    <t>2024-05-27 12:43:24</t>
+  </si>
+  <si>
+    <t>2024-05-27 12:51:22</t>
+  </si>
+  <si>
+    <t>2024-05-27 12:59:25</t>
+  </si>
+  <si>
+    <t>2024-05-27 13:03:25</t>
+  </si>
+  <si>
+    <t>2024-05-27 13:11:30</t>
+  </si>
+  <si>
+    <t>2024-05-27 13:19:39</t>
   </si>
 </sst>
 </file>
@@ -1364,8 +1890,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1690,9 +2219,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J234"/>
+  <dimension ref="A1:J235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+    <sheetView topLeftCell="A219" workbookViewId="0">
       <selection activeCell="B232" sqref="B232"/>
     </sheetView>
   </sheetViews>
@@ -1703,21 +2232,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
@@ -1726,13 +2255,13 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2095,7 +2624,7 @@
       </c>
     </row>
     <row r="48" ht="15" spans="1:2">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B48" t="s">
@@ -3574,7 +4103,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:2">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -3582,11 +4111,19 @@
         <v>229</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:2">
       <c r="A234" t="s">
         <v>233</v>
       </c>
       <c r="B234" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3597,4 +4134,1929 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C173"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="11.5555555555556" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="14.4444444444444" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.6666666666667" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>200</v>
+      </c>
+      <c r="B1" s="1">
+        <v>540</v>
+      </c>
+      <c r="C1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>200</v>
+      </c>
+      <c r="B2" s="1">
+        <v>392</v>
+      </c>
+      <c r="C2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>200</v>
+      </c>
+      <c r="B3" s="1">
+        <v>364</v>
+      </c>
+      <c r="C3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>200</v>
+      </c>
+      <c r="B4" s="1">
+        <v>326</v>
+      </c>
+      <c r="C4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>200</v>
+      </c>
+      <c r="B5" s="1">
+        <v>497</v>
+      </c>
+      <c r="C5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>200</v>
+      </c>
+      <c r="B6" s="1">
+        <v>449</v>
+      </c>
+      <c r="C6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>200</v>
+      </c>
+      <c r="B7" s="1">
+        <v>734</v>
+      </c>
+      <c r="C7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>200</v>
+      </c>
+      <c r="B8" s="1">
+        <v>478</v>
+      </c>
+      <c r="C8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>200</v>
+      </c>
+      <c r="B9" s="1">
+        <v>460</v>
+      </c>
+      <c r="C9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>200</v>
+      </c>
+      <c r="B10" s="1">
+        <v>467</v>
+      </c>
+      <c r="C10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>200</v>
+      </c>
+      <c r="B11" s="1">
+        <v>680</v>
+      </c>
+      <c r="C11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>200</v>
+      </c>
+      <c r="B12" s="1">
+        <v>401</v>
+      </c>
+      <c r="C12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>200</v>
+      </c>
+      <c r="B13" s="1">
+        <v>392</v>
+      </c>
+      <c r="C13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>200</v>
+      </c>
+      <c r="B14" s="1">
+        <v>463</v>
+      </c>
+      <c r="C14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>200</v>
+      </c>
+      <c r="B15" s="1">
+        <v>391</v>
+      </c>
+      <c r="C15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>200</v>
+      </c>
+      <c r="B16" s="1">
+        <v>460</v>
+      </c>
+      <c r="C16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>200</v>
+      </c>
+      <c r="B17" s="1">
+        <v>384</v>
+      </c>
+      <c r="C17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>200</v>
+      </c>
+      <c r="B18" s="1">
+        <v>408</v>
+      </c>
+      <c r="C18" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>200</v>
+      </c>
+      <c r="B19" s="1">
+        <v>677</v>
+      </c>
+      <c r="C19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>200</v>
+      </c>
+      <c r="B20" s="1">
+        <v>551</v>
+      </c>
+      <c r="C20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>200</v>
+      </c>
+      <c r="B21" s="1">
+        <v>298</v>
+      </c>
+      <c r="C21" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>200</v>
+      </c>
+      <c r="B22" s="1">
+        <v>427</v>
+      </c>
+      <c r="C22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>200</v>
+      </c>
+      <c r="B23" s="1">
+        <v>390</v>
+      </c>
+      <c r="C23" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>200</v>
+      </c>
+      <c r="B24" s="1">
+        <v>419</v>
+      </c>
+      <c r="C24" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>200</v>
+      </c>
+      <c r="B25" s="1">
+        <v>442</v>
+      </c>
+      <c r="C25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>200</v>
+      </c>
+      <c r="B26" s="1">
+        <v>499</v>
+      </c>
+      <c r="C26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>200</v>
+      </c>
+      <c r="B27" s="1">
+        <v>508</v>
+      </c>
+      <c r="C27" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>200</v>
+      </c>
+      <c r="B28" s="1">
+        <v>442</v>
+      </c>
+      <c r="C28" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>200</v>
+      </c>
+      <c r="B29" s="1">
+        <v>472</v>
+      </c>
+      <c r="C29" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>200</v>
+      </c>
+      <c r="B30" s="1">
+        <v>428</v>
+      </c>
+      <c r="C30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>200</v>
+      </c>
+      <c r="B31" s="1">
+        <v>552</v>
+      </c>
+      <c r="C31" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>200</v>
+      </c>
+      <c r="B32" s="1">
+        <v>465</v>
+      </c>
+      <c r="C32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>200</v>
+      </c>
+      <c r="B33" s="1">
+        <v>574</v>
+      </c>
+      <c r="C33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>200</v>
+      </c>
+      <c r="B34" s="1">
+        <v>396</v>
+      </c>
+      <c r="C34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>200</v>
+      </c>
+      <c r="B35" s="1">
+        <v>441</v>
+      </c>
+      <c r="C35" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>200</v>
+      </c>
+      <c r="B36" s="1">
+        <v>385</v>
+      </c>
+      <c r="C36" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>200</v>
+      </c>
+      <c r="B37" s="1">
+        <v>362</v>
+      </c>
+      <c r="C37" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>200</v>
+      </c>
+      <c r="B38" s="1">
+        <v>342</v>
+      </c>
+      <c r="C38" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>200</v>
+      </c>
+      <c r="B39" s="1">
+        <v>466</v>
+      </c>
+      <c r="C39" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>200</v>
+      </c>
+      <c r="B40" s="1">
+        <v>363</v>
+      </c>
+      <c r="C40" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>200</v>
+      </c>
+      <c r="B41" s="1">
+        <v>357</v>
+      </c>
+      <c r="C41" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>200</v>
+      </c>
+      <c r="B42" s="1">
+        <v>505</v>
+      </c>
+      <c r="C42" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>200</v>
+      </c>
+      <c r="B43" s="1">
+        <v>666</v>
+      </c>
+      <c r="C43" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>200</v>
+      </c>
+      <c r="B44" s="1">
+        <v>437</v>
+      </c>
+      <c r="C44" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>200</v>
+      </c>
+      <c r="B45" s="1">
+        <v>437</v>
+      </c>
+      <c r="C45" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>200</v>
+      </c>
+      <c r="B46" s="1">
+        <v>582</v>
+      </c>
+      <c r="C46" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>200</v>
+      </c>
+      <c r="B47" s="1">
+        <v>508</v>
+      </c>
+      <c r="C47" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>200</v>
+      </c>
+      <c r="B48" s="1">
+        <v>527</v>
+      </c>
+      <c r="C48" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>200</v>
+      </c>
+      <c r="B49" s="1">
+        <v>475</v>
+      </c>
+      <c r="C49" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>200</v>
+      </c>
+      <c r="B50" s="1">
+        <v>431</v>
+      </c>
+      <c r="C50" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>200</v>
+      </c>
+      <c r="B51" s="1">
+        <v>343</v>
+      </c>
+      <c r="C51" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>200</v>
+      </c>
+      <c r="B52" s="1">
+        <v>315</v>
+      </c>
+      <c r="C52" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>200</v>
+      </c>
+      <c r="B53" s="1">
+        <v>338</v>
+      </c>
+      <c r="C53" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>200</v>
+      </c>
+      <c r="B54" s="1">
+        <v>322</v>
+      </c>
+      <c r="C54" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>200</v>
+      </c>
+      <c r="B55" s="1">
+        <v>355</v>
+      </c>
+      <c r="C55" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>200</v>
+      </c>
+      <c r="B56" s="1">
+        <v>607</v>
+      </c>
+      <c r="C56" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>200</v>
+      </c>
+      <c r="B57" s="1">
+        <v>606</v>
+      </c>
+      <c r="C57" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>200</v>
+      </c>
+      <c r="B58" s="1">
+        <v>408</v>
+      </c>
+      <c r="C58" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>200</v>
+      </c>
+      <c r="B59" s="1">
+        <v>500</v>
+      </c>
+      <c r="C59" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>200</v>
+      </c>
+      <c r="B60" s="1">
+        <v>641</v>
+      </c>
+      <c r="C60" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>200</v>
+      </c>
+      <c r="B61" s="1">
+        <v>448</v>
+      </c>
+      <c r="C61" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>200</v>
+      </c>
+      <c r="B62" s="1">
+        <v>564</v>
+      </c>
+      <c r="C62" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>200</v>
+      </c>
+      <c r="B63" s="1">
+        <v>440</v>
+      </c>
+      <c r="C63" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>200</v>
+      </c>
+      <c r="B64" s="1">
+        <v>462</v>
+      </c>
+      <c r="C64" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>200</v>
+      </c>
+      <c r="B65" s="1">
+        <v>656</v>
+      </c>
+      <c r="C65" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
+        <v>200</v>
+      </c>
+      <c r="B66" s="1">
+        <v>481</v>
+      </c>
+      <c r="C66" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <v>200</v>
+      </c>
+      <c r="B67" s="1">
+        <v>418</v>
+      </c>
+      <c r="C67" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <v>200</v>
+      </c>
+      <c r="B68" s="1">
+        <v>794</v>
+      </c>
+      <c r="C68" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <v>200</v>
+      </c>
+      <c r="B69" s="1">
+        <v>551</v>
+      </c>
+      <c r="C69" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <v>200</v>
+      </c>
+      <c r="B70" s="1">
+        <v>448</v>
+      </c>
+      <c r="C70" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <v>200</v>
+      </c>
+      <c r="B71" s="1">
+        <v>601</v>
+      </c>
+      <c r="C71" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
+        <v>200</v>
+      </c>
+      <c r="B72" s="1">
+        <v>515</v>
+      </c>
+      <c r="C72" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>200</v>
+      </c>
+      <c r="B73" s="1">
+        <v>625</v>
+      </c>
+      <c r="C73" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>200</v>
+      </c>
+      <c r="B74" s="1">
+        <v>847</v>
+      </c>
+      <c r="C74" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
+        <v>200</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1205</v>
+      </c>
+      <c r="C75" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
+        <v>200</v>
+      </c>
+      <c r="B76" s="1">
+        <v>662</v>
+      </c>
+      <c r="C76" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
+        <v>200</v>
+      </c>
+      <c r="B77" s="1">
+        <v>743</v>
+      </c>
+      <c r="C77" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <v>200</v>
+      </c>
+      <c r="B78" s="1">
+        <v>624</v>
+      </c>
+      <c r="C78" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
+        <v>200</v>
+      </c>
+      <c r="B79" s="1">
+        <v>792</v>
+      </c>
+      <c r="C79" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
+        <v>200</v>
+      </c>
+      <c r="B80" s="1">
+        <v>600</v>
+      </c>
+      <c r="C80" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>200</v>
+      </c>
+      <c r="B81" s="1">
+        <v>969</v>
+      </c>
+      <c r="C81" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>200</v>
+      </c>
+      <c r="B82" s="1">
+        <v>414</v>
+      </c>
+      <c r="C82" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>200</v>
+      </c>
+      <c r="B83" s="1">
+        <v>550</v>
+      </c>
+      <c r="C83" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <v>200</v>
+      </c>
+      <c r="B84" s="1">
+        <v>705</v>
+      </c>
+      <c r="C84" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>200</v>
+      </c>
+      <c r="B85" s="1">
+        <v>673</v>
+      </c>
+      <c r="C85" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>200</v>
+      </c>
+      <c r="B86" s="1">
+        <v>556</v>
+      </c>
+      <c r="C86" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>200</v>
+      </c>
+      <c r="B87" s="1">
+        <v>880</v>
+      </c>
+      <c r="C87" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>200</v>
+      </c>
+      <c r="B88" s="1">
+        <v>696</v>
+      </c>
+      <c r="C88" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>200</v>
+      </c>
+      <c r="B89" s="1">
+        <v>426</v>
+      </c>
+      <c r="C89" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <v>200</v>
+      </c>
+      <c r="B90" s="1">
+        <v>420</v>
+      </c>
+      <c r="C90" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>200</v>
+      </c>
+      <c r="B91" s="1">
+        <v>495</v>
+      </c>
+      <c r="C91" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <v>200</v>
+      </c>
+      <c r="B92" s="1">
+        <v>443</v>
+      </c>
+      <c r="C92" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
+        <v>200</v>
+      </c>
+      <c r="B93" s="1">
+        <v>525</v>
+      </c>
+      <c r="C93" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
+        <v>200</v>
+      </c>
+      <c r="B94" s="1">
+        <v>551</v>
+      </c>
+      <c r="C94" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
+        <v>200</v>
+      </c>
+      <c r="B95" s="1">
+        <v>667</v>
+      </c>
+      <c r="C95" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
+        <v>200</v>
+      </c>
+      <c r="B96" s="1">
+        <v>458</v>
+      </c>
+      <c r="C96" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <v>200</v>
+      </c>
+      <c r="B97" s="1">
+        <v>809</v>
+      </c>
+      <c r="C97" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1">
+        <v>200</v>
+      </c>
+      <c r="B98" s="1">
+        <v>609</v>
+      </c>
+      <c r="C98" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1">
+        <v>200</v>
+      </c>
+      <c r="B99" s="1">
+        <v>540</v>
+      </c>
+      <c r="C99" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <v>200</v>
+      </c>
+      <c r="B100" s="1">
+        <v>665</v>
+      </c>
+      <c r="C100" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1">
+        <v>200</v>
+      </c>
+      <c r="B101" s="1">
+        <v>599</v>
+      </c>
+      <c r="C101" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1">
+        <v>200</v>
+      </c>
+      <c r="B102" s="1">
+        <v>461</v>
+      </c>
+      <c r="C102" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1">
+        <v>200</v>
+      </c>
+      <c r="B103" s="1">
+        <v>576</v>
+      </c>
+      <c r="C103" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1">
+        <v>200</v>
+      </c>
+      <c r="B104" s="1">
+        <v>652</v>
+      </c>
+      <c r="C104" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1">
+        <v>200</v>
+      </c>
+      <c r="B105" s="1">
+        <v>540</v>
+      </c>
+      <c r="C105" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1">
+        <v>200</v>
+      </c>
+      <c r="B106" s="1">
+        <v>656</v>
+      </c>
+      <c r="C106" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1">
+        <v>200</v>
+      </c>
+      <c r="B107" s="1">
+        <v>695</v>
+      </c>
+      <c r="C107" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1">
+        <v>200</v>
+      </c>
+      <c r="B108" s="1">
+        <v>601</v>
+      </c>
+      <c r="C108" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1">
+        <v>200</v>
+      </c>
+      <c r="B109" s="1">
+        <v>654</v>
+      </c>
+      <c r="C109" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1">
+        <v>200</v>
+      </c>
+      <c r="B110" s="1">
+        <v>653</v>
+      </c>
+      <c r="C110" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1">
+        <v>200</v>
+      </c>
+      <c r="B111" s="1">
+        <v>1857</v>
+      </c>
+      <c r="C111" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1">
+        <v>200</v>
+      </c>
+      <c r="B112" s="1">
+        <v>491</v>
+      </c>
+      <c r="C112" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1">
+        <v>200</v>
+      </c>
+      <c r="B113" s="1">
+        <v>1236</v>
+      </c>
+      <c r="C113" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1">
+        <v>200</v>
+      </c>
+      <c r="B114" s="1">
+        <v>828</v>
+      </c>
+      <c r="C114" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1">
+        <v>200</v>
+      </c>
+      <c r="B115" s="1">
+        <v>1385</v>
+      </c>
+      <c r="C115" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1">
+        <v>200</v>
+      </c>
+      <c r="B116" s="1">
+        <v>1347</v>
+      </c>
+      <c r="C116" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1">
+        <v>200</v>
+      </c>
+      <c r="B117" s="1">
+        <v>2361</v>
+      </c>
+      <c r="C117" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1">
+        <v>200</v>
+      </c>
+      <c r="B118" s="1">
+        <v>1506</v>
+      </c>
+      <c r="C118" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1">
+        <v>200</v>
+      </c>
+      <c r="B119" s="1">
+        <v>779</v>
+      </c>
+      <c r="C119" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1">
+        <v>200</v>
+      </c>
+      <c r="B120" s="1">
+        <v>674</v>
+      </c>
+      <c r="C120" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1">
+        <v>200</v>
+      </c>
+      <c r="B121" s="1">
+        <v>541</v>
+      </c>
+      <c r="C121" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1">
+        <v>200</v>
+      </c>
+      <c r="B122" s="1">
+        <v>1226</v>
+      </c>
+      <c r="C122" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1">
+        <v>200</v>
+      </c>
+      <c r="B123" s="1">
+        <v>591</v>
+      </c>
+      <c r="C123" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1">
+        <v>200</v>
+      </c>
+      <c r="B124" s="1">
+        <v>855</v>
+      </c>
+      <c r="C124" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1">
+        <v>200</v>
+      </c>
+      <c r="B125" s="1">
+        <v>612</v>
+      </c>
+      <c r="C125" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1">
+        <v>200</v>
+      </c>
+      <c r="B126" s="1">
+        <v>791</v>
+      </c>
+      <c r="C126" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1">
+        <v>200</v>
+      </c>
+      <c r="B127" s="1">
+        <v>768</v>
+      </c>
+      <c r="C127" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1">
+        <v>200</v>
+      </c>
+      <c r="B128" s="1">
+        <v>552</v>
+      </c>
+      <c r="C128" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1">
+        <v>200</v>
+      </c>
+      <c r="B129" s="1">
+        <v>444</v>
+      </c>
+      <c r="C129" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1">
+        <v>200</v>
+      </c>
+      <c r="B130" s="1">
+        <v>766</v>
+      </c>
+      <c r="C130" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1">
+        <v>200</v>
+      </c>
+      <c r="B131" s="1">
+        <v>603</v>
+      </c>
+      <c r="C131" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1">
+        <v>200</v>
+      </c>
+      <c r="B132" s="1">
+        <v>373</v>
+      </c>
+      <c r="C132" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1">
+        <v>200</v>
+      </c>
+      <c r="B133" s="1">
+        <v>412</v>
+      </c>
+      <c r="C133" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1">
+        <v>200</v>
+      </c>
+      <c r="B134" s="1">
+        <v>412</v>
+      </c>
+      <c r="C134" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1">
+        <v>200</v>
+      </c>
+      <c r="B135" s="1">
+        <v>652</v>
+      </c>
+      <c r="C135" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1">
+        <v>200</v>
+      </c>
+      <c r="B136" s="1">
+        <v>492</v>
+      </c>
+      <c r="C136" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1">
+        <v>200</v>
+      </c>
+      <c r="B137" s="1">
+        <v>474</v>
+      </c>
+      <c r="C137" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1">
+        <v>200</v>
+      </c>
+      <c r="B138" s="1">
+        <v>455</v>
+      </c>
+      <c r="C138" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1">
+        <v>200</v>
+      </c>
+      <c r="B139" s="1">
+        <v>381</v>
+      </c>
+      <c r="C139" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1">
+        <v>200</v>
+      </c>
+      <c r="B140" s="1">
+        <v>408</v>
+      </c>
+      <c r="C140" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1">
+        <v>200</v>
+      </c>
+      <c r="B141" s="1">
+        <v>389</v>
+      </c>
+      <c r="C141" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1">
+        <v>200</v>
+      </c>
+      <c r="B142" s="1">
+        <v>685</v>
+      </c>
+      <c r="C142" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1">
+        <v>200</v>
+      </c>
+      <c r="B143" s="1">
+        <v>433</v>
+      </c>
+      <c r="C143" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1">
+        <v>200</v>
+      </c>
+      <c r="B144" s="1">
+        <v>283</v>
+      </c>
+      <c r="C144" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1">
+        <v>200</v>
+      </c>
+      <c r="B145" s="1">
+        <v>353</v>
+      </c>
+      <c r="C145" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1">
+        <v>200</v>
+      </c>
+      <c r="B146" s="1">
+        <v>293</v>
+      </c>
+      <c r="C146" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1">
+        <v>200</v>
+      </c>
+      <c r="B147" s="1">
+        <v>325</v>
+      </c>
+      <c r="C147" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1">
+        <v>200</v>
+      </c>
+      <c r="B148" s="1">
+        <v>650</v>
+      </c>
+      <c r="C148" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1">
+        <v>200</v>
+      </c>
+      <c r="B149" s="1">
+        <v>563</v>
+      </c>
+      <c r="C149" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1">
+        <v>200</v>
+      </c>
+      <c r="B150" s="1">
+        <v>1090</v>
+      </c>
+      <c r="C150" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1">
+        <v>200</v>
+      </c>
+      <c r="B151" s="1">
+        <v>1525</v>
+      </c>
+      <c r="C151" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1">
+        <v>200</v>
+      </c>
+      <c r="B152" s="1">
+        <v>561</v>
+      </c>
+      <c r="C152" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1">
+        <v>200</v>
+      </c>
+      <c r="B153" s="1">
+        <v>456</v>
+      </c>
+      <c r="C153" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1">
+        <v>200</v>
+      </c>
+      <c r="B154" s="1">
+        <v>359</v>
+      </c>
+      <c r="C154" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1">
+        <v>200</v>
+      </c>
+      <c r="B155" s="1">
+        <v>338</v>
+      </c>
+      <c r="C155" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1">
+        <v>200</v>
+      </c>
+      <c r="B156" s="1">
+        <v>371</v>
+      </c>
+      <c r="C156" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B157" t="n">
+        <v>468.0</v>
+      </c>
+      <c r="C157" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B158" t="n">
+        <v>305.0</v>
+      </c>
+      <c r="C158" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B159" t="n">
+        <v>284.0</v>
+      </c>
+      <c r="C159" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B160" t="n">
+        <v>293.0</v>
+      </c>
+      <c r="C160" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B161" t="n">
+        <v>310.0</v>
+      </c>
+      <c r="C161" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B162" t="n">
+        <v>288.0</v>
+      </c>
+      <c r="C162" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B163" t="n">
+        <v>531.0</v>
+      </c>
+      <c r="C163" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B164" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="C164" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B165" t="n">
+        <v>301.0</v>
+      </c>
+      <c r="C165" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B166" t="n">
+        <v>387.0</v>
+      </c>
+      <c r="C166" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B167" t="n">
+        <v>618.0</v>
+      </c>
+      <c r="C167" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B168" t="n">
+        <v>466.0</v>
+      </c>
+      <c r="C168" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B169" t="n">
+        <v>326.0</v>
+      </c>
+      <c r="C169" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B170" t="n">
+        <v>331.0</v>
+      </c>
+      <c r="C170" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B171" t="n">
+        <v>302.0</v>
+      </c>
+      <c r="C171" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B172" t="n">
+        <v>281.0</v>
+      </c>
+      <c r="C172" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B173" t="n">
+        <v>313.0</v>
+      </c>
+      <c r="C173" t="s">
+        <v>407</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/RR/excel/GenericFlow/NewsFeedDelete.xlsx
+++ b/RR/excel/GenericFlow/NewsFeedDelete.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="895">
   <si>
     <t>NewsFeed ID</t>
   </si>
@@ -738,6 +738,48 @@
     <t>5076226</t>
   </si>
   <si>
+    <t>5086563</t>
+  </si>
+  <si>
+    <t>5087189</t>
+  </si>
+  <si>
+    <t>5092074</t>
+  </si>
+  <si>
+    <t>5098674</t>
+  </si>
+  <si>
+    <t>5099381</t>
+  </si>
+  <si>
+    <t>5106936</t>
+  </si>
+  <si>
+    <t>5108020</t>
+  </si>
+  <si>
+    <t>5110662</t>
+  </si>
+  <si>
+    <t>5110787</t>
+  </si>
+  <si>
+    <t>5110999</t>
+  </si>
+  <si>
+    <t>5111107</t>
+  </si>
+  <si>
+    <t>5111110</t>
+  </si>
+  <si>
+    <t>5111140</t>
+  </si>
+  <si>
+    <t>5111185</t>
+  </si>
+  <si>
     <t>2024-05-24 12:19:42</t>
   </si>
   <si>
@@ -1255,6 +1297,1425 @@
   </si>
   <si>
     <t>2024-05-27 13:19:39</t>
+  </si>
+  <si>
+    <t>2024-05-27 13:27:26</t>
+  </si>
+  <si>
+    <t>2024-05-27 13:35:29</t>
+  </si>
+  <si>
+    <t>2024-05-27 13:43:24</t>
+  </si>
+  <si>
+    <t>2024-05-27 13:51:28</t>
+  </si>
+  <si>
+    <t>2024-05-27 13:59:35</t>
+  </si>
+  <si>
+    <t>2024-05-27 14:03:36</t>
+  </si>
+  <si>
+    <t>2024-05-27 14:11:32</t>
+  </si>
+  <si>
+    <t>2024-05-27 14:19:33</t>
+  </si>
+  <si>
+    <t>2024-05-27 14:27:37</t>
+  </si>
+  <si>
+    <t>2024-05-27 14:35:31</t>
+  </si>
+  <si>
+    <t>2024-05-27 14:43:32</t>
+  </si>
+  <si>
+    <t>2024-05-27 14:51:34</t>
+  </si>
+  <si>
+    <t>2024-05-27 14:59:38</t>
+  </si>
+  <si>
+    <t>2024-05-27 15:03:31</t>
+  </si>
+  <si>
+    <t>2024-05-27 15:11:37</t>
+  </si>
+  <si>
+    <t>2024-05-27 15:19:39</t>
+  </si>
+  <si>
+    <t>2024-05-27 15:27:42</t>
+  </si>
+  <si>
+    <t>2024-05-27 15:35:30</t>
+  </si>
+  <si>
+    <t>2024-05-27 15:43:29</t>
+  </si>
+  <si>
+    <t>2024-05-27 15:51:29</t>
+  </si>
+  <si>
+    <t>2024-05-27 15:59:31</t>
+  </si>
+  <si>
+    <t>2024-05-27 16:03:26</t>
+  </si>
+  <si>
+    <t>2024-05-27 16:11:26</t>
+  </si>
+  <si>
+    <t>2024-05-27 16:19:27</t>
+  </si>
+  <si>
+    <t>2024-05-27 16:27:35</t>
+  </si>
+  <si>
+    <t>2024-05-27 16:35:31</t>
+  </si>
+  <si>
+    <t>2024-05-27 16:43:36</t>
+  </si>
+  <si>
+    <t>2024-05-27 16:51:39</t>
+  </si>
+  <si>
+    <t>2024-05-27 16:59:36</t>
+  </si>
+  <si>
+    <t>2024-05-27 17:03:31</t>
+  </si>
+  <si>
+    <t>2024-05-27 17:11:27</t>
+  </si>
+  <si>
+    <t>2024-05-27 17:19:24</t>
+  </si>
+  <si>
+    <t>2024-05-27 17:27:30</t>
+  </si>
+  <si>
+    <t>2024-05-27 17:35:30</t>
+  </si>
+  <si>
+    <t>2024-05-27 17:43:31</t>
+  </si>
+  <si>
+    <t>2024-05-27 17:53:25</t>
+  </si>
+  <si>
+    <t>2024-05-27 18:06:39</t>
+  </si>
+  <si>
+    <t>2024-05-27 18:20:21</t>
+  </si>
+  <si>
+    <t>2024-05-27 18:36:12</t>
+  </si>
+  <si>
+    <t>2024-05-27 18:43:26</t>
+  </si>
+  <si>
+    <t>2024-05-27 18:51:27</t>
+  </si>
+  <si>
+    <t>2024-05-27 18:59:29</t>
+  </si>
+  <si>
+    <t>2024-05-27 19:03:29</t>
+  </si>
+  <si>
+    <t>2024-05-27 19:11:25</t>
+  </si>
+  <si>
+    <t>2024-05-27 19:19:37</t>
+  </si>
+  <si>
+    <t>2024-05-27 19:27:33</t>
+  </si>
+  <si>
+    <t>2024-05-27 19:35:26</t>
+  </si>
+  <si>
+    <t>2024-05-27 19:43:25</t>
+  </si>
+  <si>
+    <t>2024-05-27 19:51:29</t>
+  </si>
+  <si>
+    <t>2024-05-27 19:59:26</t>
+  </si>
+  <si>
+    <t>2024-05-27 20:03:28</t>
+  </si>
+  <si>
+    <t>2024-05-27 20:11:29</t>
+  </si>
+  <si>
+    <t>2024-05-27 20:19:29</t>
+  </si>
+  <si>
+    <t>2024-05-27 20:27:25</t>
+  </si>
+  <si>
+    <t>2024-05-27 20:35:25</t>
+  </si>
+  <si>
+    <t>2024-05-27 20:43:25</t>
+  </si>
+  <si>
+    <t>2024-05-27 20:51:23</t>
+  </si>
+  <si>
+    <t>2024-05-27 20:59:30</t>
+  </si>
+  <si>
+    <t>2024-05-27 21:03:27</t>
+  </si>
+  <si>
+    <t>2024-05-27 21:11:30</t>
+  </si>
+  <si>
+    <t>2024-05-27 21:19:27</t>
+  </si>
+  <si>
+    <t>2024-05-27 21:27:33</t>
+  </si>
+  <si>
+    <t>2024-05-27 21:35:31</t>
+  </si>
+  <si>
+    <t>2024-05-27 21:43:30</t>
+  </si>
+  <si>
+    <t>2024-05-27 21:51:24</t>
+  </si>
+  <si>
+    <t>2024-05-27 21:59:24</t>
+  </si>
+  <si>
+    <t>2024-05-27 22:03:26</t>
+  </si>
+  <si>
+    <t>2024-05-27 22:11:26</t>
+  </si>
+  <si>
+    <t>2024-05-27 22:19:23</t>
+  </si>
+  <si>
+    <t>2024-05-27 22:27:29</t>
+  </si>
+  <si>
+    <t>2024-05-27 22:35:31</t>
+  </si>
+  <si>
+    <t>2024-05-27 22:49:09</t>
+  </si>
+  <si>
+    <t>2024-05-27 22:51:31</t>
+  </si>
+  <si>
+    <t>2024-05-27 22:59:29</t>
+  </si>
+  <si>
+    <t>2024-05-27 23:03:28</t>
+  </si>
+  <si>
+    <t>2024-05-27 23:11:29</t>
+  </si>
+  <si>
+    <t>2024-05-27 23:19:27</t>
+  </si>
+  <si>
+    <t>2024-05-27 23:27:29</t>
+  </si>
+  <si>
+    <t>2024-05-27 23:35:31</t>
+  </si>
+  <si>
+    <t>2024-05-27 23:43:27</t>
+  </si>
+  <si>
+    <t>2024-05-27 23:51:31</t>
+  </si>
+  <si>
+    <t>2024-05-27 23:59:34</t>
+  </si>
+  <si>
+    <t>2024-05-28 00:03:24</t>
+  </si>
+  <si>
+    <t>2024-05-28 00:11:28</t>
+  </si>
+  <si>
+    <t>2024-05-28 00:19:27</t>
+  </si>
+  <si>
+    <t>2024-05-28 00:27:27</t>
+  </si>
+  <si>
+    <t>2024-05-28 00:35:26</t>
+  </si>
+  <si>
+    <t>2024-05-28 00:43:25</t>
+  </si>
+  <si>
+    <t>2024-05-28 00:51:26</t>
+  </si>
+  <si>
+    <t>2024-05-28 00:59:29</t>
+  </si>
+  <si>
+    <t>2024-05-28 01:03:24</t>
+  </si>
+  <si>
+    <t>2024-05-28 01:11:27</t>
+  </si>
+  <si>
+    <t>2024-05-28 01:19:32</t>
+  </si>
+  <si>
+    <t>2024-05-28 01:27:26</t>
+  </si>
+  <si>
+    <t>2024-05-28 01:35:25</t>
+  </si>
+  <si>
+    <t>2024-05-28 01:43:24</t>
+  </si>
+  <si>
+    <t>2024-05-28 01:51:27</t>
+  </si>
+  <si>
+    <t>2024-05-28 01:59:28</t>
+  </si>
+  <si>
+    <t>2024-05-28 02:03:24</t>
+  </si>
+  <si>
+    <t>2024-05-28 02:11:25</t>
+  </si>
+  <si>
+    <t>2024-05-28 02:19:29</t>
+  </si>
+  <si>
+    <t>2024-05-28 02:27:35</t>
+  </si>
+  <si>
+    <t>2024-05-28 02:35:27</t>
+  </si>
+  <si>
+    <t>2024-05-28 02:43:30</t>
+  </si>
+  <si>
+    <t>2024-05-28 02:51:27</t>
+  </si>
+  <si>
+    <t>2024-05-28 02:59:32</t>
+  </si>
+  <si>
+    <t>2024-05-28 03:03:24</t>
+  </si>
+  <si>
+    <t>2024-05-28 03:11:25</t>
+  </si>
+  <si>
+    <t>2024-05-28 03:19:32</t>
+  </si>
+  <si>
+    <t>2024-05-28 03:27:25</t>
+  </si>
+  <si>
+    <t>2024-05-28 03:35:31</t>
+  </si>
+  <si>
+    <t>2024-05-28 03:43:27</t>
+  </si>
+  <si>
+    <t>2024-05-28 03:51:23</t>
+  </si>
+  <si>
+    <t>2024-05-28 03:59:25</t>
+  </si>
+  <si>
+    <t>2024-05-28 04:03:28</t>
+  </si>
+  <si>
+    <t>2024-05-28 04:11:26</t>
+  </si>
+  <si>
+    <t>2024-05-28 04:19:24</t>
+  </si>
+  <si>
+    <t>2024-05-28 04:27:27</t>
+  </si>
+  <si>
+    <t>2024-05-28 04:35:25</t>
+  </si>
+  <si>
+    <t>2024-05-28 04:43:24</t>
+  </si>
+  <si>
+    <t>2024-05-28 04:51:23</t>
+  </si>
+  <si>
+    <t>2024-05-28 04:59:24</t>
+  </si>
+  <si>
+    <t>2024-05-28 05:03:23</t>
+  </si>
+  <si>
+    <t>2024-05-28 05:11:29</t>
+  </si>
+  <si>
+    <t>2024-05-28 05:19:30</t>
+  </si>
+  <si>
+    <t>2024-05-28 05:27:24</t>
+  </si>
+  <si>
+    <t>2024-05-28 05:35:29</t>
+  </si>
+  <si>
+    <t>2024-05-28 05:43:31</t>
+  </si>
+  <si>
+    <t>2024-05-28 05:51:29</t>
+  </si>
+  <si>
+    <t>2024-05-28 05:59:29</t>
+  </si>
+  <si>
+    <t>2024-05-28 06:03:23</t>
+  </si>
+  <si>
+    <t>2024-05-28 06:11:25</t>
+  </si>
+  <si>
+    <t>2024-05-28 06:19:33</t>
+  </si>
+  <si>
+    <t>2024-05-28 06:27:27</t>
+  </si>
+  <si>
+    <t>2024-05-28 06:35:25</t>
+  </si>
+  <si>
+    <t>2024-05-28 06:43:25</t>
+  </si>
+  <si>
+    <t>2024-05-28 06:51:24</t>
+  </si>
+  <si>
+    <t>2024-05-28 06:59:25</t>
+  </si>
+  <si>
+    <t>2024-05-28 07:03:26</t>
+  </si>
+  <si>
+    <t>2024-05-28 07:11:28</t>
+  </si>
+  <si>
+    <t>2024-05-28 07:19:24</t>
+  </si>
+  <si>
+    <t>2024-05-28 07:27:31</t>
+  </si>
+  <si>
+    <t>2024-05-28 07:35:25</t>
+  </si>
+  <si>
+    <t>2024-05-28 07:43:23</t>
+  </si>
+  <si>
+    <t>2024-05-28 07:51:26</t>
+  </si>
+  <si>
+    <t>2024-05-28 07:59:27</t>
+  </si>
+  <si>
+    <t>2024-05-28 10:10:45</t>
+  </si>
+  <si>
+    <t>2024-05-28 16:59:46</t>
+  </si>
+  <si>
+    <t>2024-05-28 17:03:34</t>
+  </si>
+  <si>
+    <t>2024-05-28 17:11:42</t>
+  </si>
+  <si>
+    <t>2024-05-28 17:19:33</t>
+  </si>
+  <si>
+    <t>2024-05-28 17:27:42</t>
+  </si>
+  <si>
+    <t>2024-05-28 17:35:44</t>
+  </si>
+  <si>
+    <t>2024-05-28 17:43:42</t>
+  </si>
+  <si>
+    <t>2024-05-28 17:51:35</t>
+  </si>
+  <si>
+    <t>2024-05-28 17:59:29</t>
+  </si>
+  <si>
+    <t>2024-05-28 18:03:35</t>
+  </si>
+  <si>
+    <t>2024-05-28 18:11:29</t>
+  </si>
+  <si>
+    <t>2024-05-28 18:19:31</t>
+  </si>
+  <si>
+    <t>2024-05-28 18:27:33</t>
+  </si>
+  <si>
+    <t>2024-05-28 18:35:36</t>
+  </si>
+  <si>
+    <t>2024-05-28 18:47:00</t>
+  </si>
+  <si>
+    <t>2024-05-28 19:17:43</t>
+  </si>
+  <si>
+    <t>2024-05-28 19:19:33</t>
+  </si>
+  <si>
+    <t>2024-05-28 19:28:03</t>
+  </si>
+  <si>
+    <t>2024-05-28 19:35:31</t>
+  </si>
+  <si>
+    <t>2024-05-28 19:43:25</t>
+  </si>
+  <si>
+    <t>2024-05-28 19:51:25</t>
+  </si>
+  <si>
+    <t>2024-05-28 19:59:25</t>
+  </si>
+  <si>
+    <t>2024-05-28 20:03:28</t>
+  </si>
+  <si>
+    <t>2024-05-28 20:11:28</t>
+  </si>
+  <si>
+    <t>2024-05-28 20:19:24</t>
+  </si>
+  <si>
+    <t>2024-05-28 20:27:25</t>
+  </si>
+  <si>
+    <t>2024-05-28 20:35:24</t>
+  </si>
+  <si>
+    <t>2024-05-28 20:43:26</t>
+  </si>
+  <si>
+    <t>2024-05-28 20:51:24</t>
+  </si>
+  <si>
+    <t>2024-05-28 20:59:26</t>
+  </si>
+  <si>
+    <t>2024-05-28 21:03:26</t>
+  </si>
+  <si>
+    <t>2024-05-28 21:11:28</t>
+  </si>
+  <si>
+    <t>2024-05-28 21:19:28</t>
+  </si>
+  <si>
+    <t>2024-05-28 21:27:24</t>
+  </si>
+  <si>
+    <t>2024-05-28 21:35:29</t>
+  </si>
+  <si>
+    <t>2024-05-28 21:51:28</t>
+  </si>
+  <si>
+    <t>2024-05-28 21:59:24</t>
+  </si>
+  <si>
+    <t>2024-05-28 22:03:28</t>
+  </si>
+  <si>
+    <t>2024-05-28 22:11:24</t>
+  </si>
+  <si>
+    <t>2024-05-28 22:19:28</t>
+  </si>
+  <si>
+    <t>2024-05-28 22:27:27</t>
+  </si>
+  <si>
+    <t>2024-05-28 22:50:28</t>
+  </si>
+  <si>
+    <t>2024-05-28 22:51:24</t>
+  </si>
+  <si>
+    <t>2024-05-28 22:59:24</t>
+  </si>
+  <si>
+    <t>2024-05-28 23:03:27</t>
+  </si>
+  <si>
+    <t>2024-05-28 23:11:25</t>
+  </si>
+  <si>
+    <t>2024-05-28 23:19:26</t>
+  </si>
+  <si>
+    <t>2024-05-28 23:27:29</t>
+  </si>
+  <si>
+    <t>2024-05-28 23:35:25</t>
+  </si>
+  <si>
+    <t>2024-05-28 23:43:24</t>
+  </si>
+  <si>
+    <t>2024-05-28 23:59:26</t>
+  </si>
+  <si>
+    <t>2024-05-29 00:03:34</t>
+  </si>
+  <si>
+    <t>2024-05-29 00:11:29</t>
+  </si>
+  <si>
+    <t>2024-05-29 00:19:25</t>
+  </si>
+  <si>
+    <t>2024-05-29 00:27:28</t>
+  </si>
+  <si>
+    <t>2024-05-29 00:35:27</t>
+  </si>
+  <si>
+    <t>2024-05-29 00:43:27</t>
+  </si>
+  <si>
+    <t>2024-05-29 05:20:52</t>
+  </si>
+  <si>
+    <t>2024-05-29 08:37:20</t>
+  </si>
+  <si>
+    <t>2024-05-29 08:43:27</t>
+  </si>
+  <si>
+    <t>2024-05-29 08:51:28</t>
+  </si>
+  <si>
+    <t>2024-05-29 08:59:28</t>
+  </si>
+  <si>
+    <t>2024-05-29 09:03:26</t>
+  </si>
+  <si>
+    <t>2024-05-29 09:11:24</t>
+  </si>
+  <si>
+    <t>2024-05-29 09:19:24</t>
+  </si>
+  <si>
+    <t>2024-05-29 09:27:25</t>
+  </si>
+  <si>
+    <t>2024-05-29 09:35:25</t>
+  </si>
+  <si>
+    <t>2024-05-29 09:43:25</t>
+  </si>
+  <si>
+    <t>2024-05-29 09:51:29</t>
+  </si>
+  <si>
+    <t>2024-05-29 09:59:27</t>
+  </si>
+  <si>
+    <t>2024-05-29 10:03:29</t>
+  </si>
+  <si>
+    <t>2024-05-29 10:11:49</t>
+  </si>
+  <si>
+    <t>2024-05-29 10:19:34</t>
+  </si>
+  <si>
+    <t>2024-05-29 10:27:25</t>
+  </si>
+  <si>
+    <t>2024-05-29 10:35:34</t>
+  </si>
+  <si>
+    <t>2024-05-29 10:44:23</t>
+  </si>
+  <si>
+    <t>2024-05-29 10:51:25</t>
+  </si>
+  <si>
+    <t>2024-05-29 10:59:28</t>
+  </si>
+  <si>
+    <t>2024-05-29 11:03:28</t>
+  </si>
+  <si>
+    <t>2024-05-29 11:11:31</t>
+  </si>
+  <si>
+    <t>2024-05-29 11:19:27</t>
+  </si>
+  <si>
+    <t>2024-05-29 11:27:26</t>
+  </si>
+  <si>
+    <t>2024-05-29 11:35:26</t>
+  </si>
+  <si>
+    <t>2024-05-29 11:43:33</t>
+  </si>
+  <si>
+    <t>2024-05-29 11:51:31</t>
+  </si>
+  <si>
+    <t>2024-05-29 11:59:31</t>
+  </si>
+  <si>
+    <t>2024-05-29 12:03:24</t>
+  </si>
+  <si>
+    <t>2024-05-29 12:11:28</t>
+  </si>
+  <si>
+    <t>2024-05-29 12:19:43</t>
+  </si>
+  <si>
+    <t>2024-05-29 12:27:30</t>
+  </si>
+  <si>
+    <t>2024-05-29 12:35:29</t>
+  </si>
+  <si>
+    <t>2024-05-29 12:43:28</t>
+  </si>
+  <si>
+    <t>2024-05-29 12:51:29</t>
+  </si>
+  <si>
+    <t>2024-05-29 12:59:29</t>
+  </si>
+  <si>
+    <t>2024-05-29 13:03:35</t>
+  </si>
+  <si>
+    <t>2024-05-29 13:11:30</t>
+  </si>
+  <si>
+    <t>2024-05-29 13:19:34</t>
+  </si>
+  <si>
+    <t>2024-05-29 13:27:32</t>
+  </si>
+  <si>
+    <t>2024-05-29 13:35:38</t>
+  </si>
+  <si>
+    <t>2024-05-29 13:43:38</t>
+  </si>
+  <si>
+    <t>2024-05-29 13:51:45</t>
+  </si>
+  <si>
+    <t>2024-05-29 13:59:33</t>
+  </si>
+  <si>
+    <t>2024-05-29 14:03:31</t>
+  </si>
+  <si>
+    <t>2024-05-29 14:11:31</t>
+  </si>
+  <si>
+    <t>2024-05-29 14:19:30</t>
+  </si>
+  <si>
+    <t>2024-05-29 14:27:36</t>
+  </si>
+  <si>
+    <t>2024-05-29 14:35:58</t>
+  </si>
+  <si>
+    <t>2024-05-29 14:43:46</t>
+  </si>
+  <si>
+    <t>2024-05-29 14:51:37</t>
+  </si>
+  <si>
+    <t>2024-05-29 14:59:45</t>
+  </si>
+  <si>
+    <t>2024-05-29 15:03:34</t>
+  </si>
+  <si>
+    <t>2024-05-29 15:11:33</t>
+  </si>
+  <si>
+    <t>2024-05-29 15:19:45</t>
+  </si>
+  <si>
+    <t>2024-05-29 15:27:33</t>
+  </si>
+  <si>
+    <t>2024-05-29 15:35:39</t>
+  </si>
+  <si>
+    <t>2024-05-29 15:59:38</t>
+  </si>
+  <si>
+    <t>2024-05-29 16:03:27</t>
+  </si>
+  <si>
+    <t>2024-05-29 16:11:36</t>
+  </si>
+  <si>
+    <t>2024-05-29 16:19:33</t>
+  </si>
+  <si>
+    <t>2024-05-30 13:45:36</t>
+  </si>
+  <si>
+    <t>2024-05-30 13:55:37</t>
+  </si>
+  <si>
+    <t>2024-05-30 14:05:40</t>
+  </si>
+  <si>
+    <t>2024-05-30 14:25:31</t>
+  </si>
+  <si>
+    <t>2024-05-30 14:35:34</t>
+  </si>
+  <si>
+    <t>2024-05-30 14:45:33</t>
+  </si>
+  <si>
+    <t>2024-05-30 15:05:54</t>
+  </si>
+  <si>
+    <t>2024-05-30 15:15:28</t>
+  </si>
+  <si>
+    <t>2024-05-30 15:25:33</t>
+  </si>
+  <si>
+    <t>2024-05-30 15:35:34</t>
+  </si>
+  <si>
+    <t>2024-05-30 15:45:38</t>
+  </si>
+  <si>
+    <t>2024-05-30 15:51:03</t>
+  </si>
+  <si>
+    <t>2024-05-30 15:55:31</t>
+  </si>
+  <si>
+    <t>2024-05-30 16:05:32</t>
+  </si>
+  <si>
+    <t>2024-05-30 16:16:42</t>
+  </si>
+  <si>
+    <t>2024-05-30 16:25:36</t>
+  </si>
+  <si>
+    <t>2024-05-30 16:31:20</t>
+  </si>
+  <si>
+    <t>2024-05-30 16:35:54</t>
+  </si>
+  <si>
+    <t>2024-05-30 16:37:07</t>
+  </si>
+  <si>
+    <t>2024-05-30 16:41:38</t>
+  </si>
+  <si>
+    <t>2024-05-30 17:05:38</t>
+  </si>
+  <si>
+    <t>2024-05-30 17:15:39</t>
+  </si>
+  <si>
+    <t>2024-05-30 17:25:38</t>
+  </si>
+  <si>
+    <t>2024-05-30 17:35:41</t>
+  </si>
+  <si>
+    <t>2024-05-30 17:45:29</t>
+  </si>
+  <si>
+    <t>2024-05-30 17:55:29</t>
+  </si>
+  <si>
+    <t>2024-05-30 18:05:27</t>
+  </si>
+  <si>
+    <t>2024-05-30 18:15:26</t>
+  </si>
+  <si>
+    <t>2024-05-30 18:25:30</t>
+  </si>
+  <si>
+    <t>2024-05-30 18:35:26</t>
+  </si>
+  <si>
+    <t>2024-05-30 18:45:31</t>
+  </si>
+  <si>
+    <t>2024-05-30 19:24:17</t>
+  </si>
+  <si>
+    <t>2024-05-30 19:31:22</t>
+  </si>
+  <si>
+    <t>2024-05-30 19:35:26</t>
+  </si>
+  <si>
+    <t>2024-05-30 19:46:24</t>
+  </si>
+  <si>
+    <t>2024-05-30 19:56:14</t>
+  </si>
+  <si>
+    <t>2024-05-30 20:06:01</t>
+  </si>
+  <si>
+    <t>2024-05-30 20:16:01</t>
+  </si>
+  <si>
+    <t>2024-05-30 20:25:52</t>
+  </si>
+  <si>
+    <t>2024-05-30 20:35:56</t>
+  </si>
+  <si>
+    <t>2024-05-30 20:46:12</t>
+  </si>
+  <si>
+    <t>2024-05-30 20:56:07</t>
+  </si>
+  <si>
+    <t>2024-05-30 21:06:09</t>
+  </si>
+  <si>
+    <t>2024-05-30 21:16:04</t>
+  </si>
+  <si>
+    <t>2024-05-30 21:25:59</t>
+  </si>
+  <si>
+    <t>2024-05-30 21:35:50</t>
+  </si>
+  <si>
+    <t>2024-05-30 21:46:07</t>
+  </si>
+  <si>
+    <t>2024-05-30 21:56:23</t>
+  </si>
+  <si>
+    <t>2024-05-30 22:05:45</t>
+  </si>
+  <si>
+    <t>2024-05-30 22:32:41</t>
+  </si>
+  <si>
+    <t>2024-05-30 22:39:08</t>
+  </si>
+  <si>
+    <t>2024-05-30 22:46:48</t>
+  </si>
+  <si>
+    <t>2024-05-30 22:57:38</t>
+  </si>
+  <si>
+    <t>2024-05-30 23:05:50</t>
+  </si>
+  <si>
+    <t>2024-05-30 23:15:47</t>
+  </si>
+  <si>
+    <t>2024-05-30 23:25:47</t>
+  </si>
+  <si>
+    <t>2024-05-30 23:35:58</t>
+  </si>
+  <si>
+    <t>2024-05-30 23:45:50</t>
+  </si>
+  <si>
+    <t>2024-05-30 23:55:49</t>
+  </si>
+  <si>
+    <t>2024-05-31 00:06:01</t>
+  </si>
+  <si>
+    <t>2024-05-31 00:15:58</t>
+  </si>
+  <si>
+    <t>2024-05-31 00:26:00</t>
+  </si>
+  <si>
+    <t>2024-05-31 00:35:55</t>
+  </si>
+  <si>
+    <t>2024-05-31 10:10:24</t>
+  </si>
+  <si>
+    <t>2024-05-31 10:16:20</t>
+  </si>
+  <si>
+    <t>2024-05-31 10:26:07</t>
+  </si>
+  <si>
+    <t>2024-05-31 10:36:02</t>
+  </si>
+  <si>
+    <t>2024-05-31 10:46:23</t>
+  </si>
+  <si>
+    <t>2024-05-31 11:03:27</t>
+  </si>
+  <si>
+    <t>2024-05-31 11:05:21</t>
+  </si>
+  <si>
+    <t>2024-05-31 11:15:28</t>
+  </si>
+  <si>
+    <t>2024-05-31 11:25:22</t>
+  </si>
+  <si>
+    <t>2024-05-31 11:35:23</t>
+  </si>
+  <si>
+    <t>2024-05-31 11:45:36</t>
+  </si>
+  <si>
+    <t>5113096</t>
+  </si>
+  <si>
+    <t>2024-05-31 16:34:42</t>
+  </si>
+  <si>
+    <t>2024-05-31 16:48:06</t>
+  </si>
+  <si>
+    <t>2024-05-31 16:55:52</t>
+  </si>
+  <si>
+    <t>2024-05-31 17:05:40</t>
+  </si>
+  <si>
+    <t>2024-05-31 17:15:34</t>
+  </si>
+  <si>
+    <t>2024-05-31 17:25:48</t>
+  </si>
+  <si>
+    <t>2024-05-31 17:38:06</t>
+  </si>
+  <si>
+    <t>2024-05-31 17:45:37</t>
+  </si>
+  <si>
+    <t>2024-05-31 17:55:37</t>
+  </si>
+  <si>
+    <t>5113994</t>
+  </si>
+  <si>
+    <t>2024-05-31 18:11:20</t>
+  </si>
+  <si>
+    <t>2024-05-31 18:15:52</t>
+  </si>
+  <si>
+    <t>2024-05-31 18:51:25</t>
+  </si>
+  <si>
+    <t>2024-05-31 18:55:21</t>
+  </si>
+  <si>
+    <t>2024-05-31 19:05:26</t>
+  </si>
+  <si>
+    <t>2024-05-31 19:15:28</t>
+  </si>
+  <si>
+    <t>2024-05-31 19:25:35</t>
+  </si>
+  <si>
+    <t>2024-05-31 19:35:22</t>
+  </si>
+  <si>
+    <t>2024-05-31 19:45:24</t>
+  </si>
+  <si>
+    <t>2024-05-31 19:55:23</t>
+  </si>
+  <si>
+    <t>2024-05-31 20:05:21</t>
+  </si>
+  <si>
+    <t>2024-05-31 20:15:19</t>
+  </si>
+  <si>
+    <t>2024-05-31 20:25:23</t>
+  </si>
+  <si>
+    <t>2024-05-31 20:35:18</t>
+  </si>
+  <si>
+    <t>2024-05-31 20:45:25</t>
+  </si>
+  <si>
+    <t>2024-05-31 21:05:23</t>
+  </si>
+  <si>
+    <t>2024-05-31 21:15:26</t>
+  </si>
+  <si>
+    <t>2024-05-31 21:25:19</t>
+  </si>
+  <si>
+    <t>2024-05-31 21:35:23</t>
+  </si>
+  <si>
+    <t>2024-05-31 21:45:19</t>
+  </si>
+  <si>
+    <t>2024-05-31 21:55:22</t>
+  </si>
+  <si>
+    <t>2024-05-31 22:05:23</t>
+  </si>
+  <si>
+    <t>2024-05-31 22:15:25</t>
+  </si>
+  <si>
+    <t>2024-05-31 22:25:19</t>
+  </si>
+  <si>
+    <t>2024-05-31 22:35:23</t>
+  </si>
+  <si>
+    <t>2024-05-31 22:45:21</t>
+  </si>
+  <si>
+    <t>5115294</t>
+  </si>
+  <si>
+    <t>2024-05-31 22:58:29</t>
+  </si>
+  <si>
+    <t>2024-05-31 23:05:24</t>
+  </si>
+  <si>
+    <t>2024-05-31 23:15:19</t>
+  </si>
+  <si>
+    <t>2024-05-31 23:25:22</t>
+  </si>
+  <si>
+    <t>2024-05-31 23:35:17</t>
+  </si>
+  <si>
+    <t>2024-05-31 23:45:18</t>
+  </si>
+  <si>
+    <t>2024-05-31 23:55:20</t>
+  </si>
+  <si>
+    <t>2024-06-01 00:05:24</t>
+  </si>
+  <si>
+    <t>2024-06-01 00:15:18</t>
+  </si>
+  <si>
+    <t>2024-06-01 00:25:20</t>
+  </si>
+  <si>
+    <t>2024-06-01 00:35:21</t>
+  </si>
+  <si>
+    <t>2024-06-01 00:45:17</t>
+  </si>
+  <si>
+    <t>2024-06-01 00:55:17</t>
+  </si>
+  <si>
+    <t>2024-06-01 01:05:30</t>
+  </si>
+  <si>
+    <t>2024-06-01 01:15:20</t>
+  </si>
+  <si>
+    <t>2024-06-01 01:25:24</t>
+  </si>
+  <si>
+    <t>2024-06-01 01:35:24</t>
+  </si>
+  <si>
+    <t>2024-06-01 01:45:20</t>
+  </si>
+  <si>
+    <t>2024-06-01 01:55:21</t>
+  </si>
+  <si>
+    <t>2024-06-01 02:05:22</t>
+  </si>
+  <si>
+    <t>2024-06-01 02:15:21</t>
+  </si>
+  <si>
+    <t>2024-06-01 02:25:21</t>
+  </si>
+  <si>
+    <t>2024-06-01 02:35:22</t>
+  </si>
+  <si>
+    <t>2024-06-01 02:45:20</t>
+  </si>
+  <si>
+    <t>2024-06-01 02:55:17</t>
+  </si>
+  <si>
+    <t>2024-06-01 03:05:20</t>
+  </si>
+  <si>
+    <t>2024-06-01 03:15:21</t>
+  </si>
+  <si>
+    <t>2024-06-01 03:25:19</t>
+  </si>
+  <si>
+    <t>2024-06-01 03:35:18</t>
+  </si>
+  <si>
+    <t>2024-06-01 03:45:21</t>
+  </si>
+  <si>
+    <t>2024-06-01 03:55:18</t>
+  </si>
+  <si>
+    <t>2024-06-01 04:05:18</t>
+  </si>
+  <si>
+    <t>2024-06-01 04:15:23</t>
+  </si>
+  <si>
+    <t>2024-06-01 04:25:20</t>
+  </si>
+  <si>
+    <t>2024-06-01 04:35:23</t>
+  </si>
+  <si>
+    <t>2024-06-01 04:45:20</t>
+  </si>
+  <si>
+    <t>2024-06-01 04:55:18</t>
+  </si>
+  <si>
+    <t>2024-06-01 05:05:19</t>
+  </si>
+  <si>
+    <t>2024-06-01 05:15:20</t>
+  </si>
+  <si>
+    <t>2024-06-01 05:25:19</t>
+  </si>
+  <si>
+    <t>2024-06-01 05:35:24</t>
+  </si>
+  <si>
+    <t>2024-06-01 05:45:18</t>
+  </si>
+  <si>
+    <t>2024-06-01 05:55:17</t>
+  </si>
+  <si>
+    <t>2024-06-01 06:05:21</t>
+  </si>
+  <si>
+    <t>2024-06-01 06:15:19</t>
+  </si>
+  <si>
+    <t>2024-06-01 06:25:21</t>
+  </si>
+  <si>
+    <t>2024-06-01 06:35:17</t>
+  </si>
+  <si>
+    <t>2024-06-01 06:45:18</t>
+  </si>
+  <si>
+    <t>2024-06-01 06:55:18</t>
+  </si>
+  <si>
+    <t>2024-06-01 07:05:20</t>
+  </si>
+  <si>
+    <t>2024-06-01 07:15:18</t>
+  </si>
+  <si>
+    <t>2024-06-01 07:25:17</t>
+  </si>
+  <si>
+    <t>2024-06-01 07:35:18</t>
+  </si>
+  <si>
+    <t>2024-06-01 07:45:20</t>
+  </si>
+  <si>
+    <t>2024-06-01 07:55:24</t>
+  </si>
+  <si>
+    <t>2024-06-01 08:05:17</t>
+  </si>
+  <si>
+    <t>2024-06-01 08:15:19</t>
+  </si>
+  <si>
+    <t>2024-06-01 08:25:19</t>
+  </si>
+  <si>
+    <t>2024-06-01 08:35:20</t>
+  </si>
+  <si>
+    <t>2024-06-01 08:45:22</t>
+  </si>
+  <si>
+    <t>2024-06-01 08:55:19</t>
+  </si>
+  <si>
+    <t>2024-06-01 09:05:21</t>
+  </si>
+  <si>
+    <t>2024-06-01 09:57:46</t>
+  </si>
+  <si>
+    <t>2024-06-01 10:05:34</t>
+  </si>
+  <si>
+    <t>2024-06-01 10:15:37</t>
+  </si>
+  <si>
+    <t>2024-06-01 10:45:33</t>
+  </si>
+  <si>
+    <t>2024-06-01 10:55:46</t>
+  </si>
+  <si>
+    <t>2024-06-01 11:05:25</t>
+  </si>
+  <si>
+    <t>2024-06-01 11:15:20</t>
+  </si>
+  <si>
+    <t>2024-06-01 11:25:31</t>
+  </si>
+  <si>
+    <t>2024-06-01 11:35:22</t>
+  </si>
+  <si>
+    <t>2024-06-01 11:45:25</t>
+  </si>
+  <si>
+    <t>2024-06-01 11:55:22</t>
+  </si>
+  <si>
+    <t>2024-06-01 12:15:21</t>
+  </si>
+  <si>
+    <t>2024-06-01 12:25:21</t>
+  </si>
+  <si>
+    <t>2024-06-01 12:35:25</t>
+  </si>
+  <si>
+    <t>2024-06-01 12:45:29</t>
+  </si>
+  <si>
+    <t>2024-06-01 12:55:28</t>
+  </si>
+  <si>
+    <t>2024-06-01 13:05:26</t>
+  </si>
+  <si>
+    <t>2024-06-01 13:15:26</t>
+  </si>
+  <si>
+    <t>2024-06-01 13:25:27</t>
+  </si>
+  <si>
+    <t>2024-06-01 13:35:27</t>
+  </si>
+  <si>
+    <t>2024-06-01 13:45:24</t>
+  </si>
+  <si>
+    <t>2024-06-01 13:55:21</t>
+  </si>
+  <si>
+    <t>2024-06-01 14:05:32</t>
+  </si>
+  <si>
+    <t>2024-06-01 14:15:21</t>
+  </si>
+  <si>
+    <t>2024-06-01 14:25:26</t>
+  </si>
+  <si>
+    <t>2024-06-01 14:35:18</t>
+  </si>
+  <si>
+    <t>2024-06-01 14:45:20</t>
+  </si>
+  <si>
+    <t>2024-06-01 14:55:19</t>
+  </si>
+  <si>
+    <t>2024-06-01 15:05:26</t>
+  </si>
+  <si>
+    <t>2024-06-01 15:15:21</t>
+  </si>
+  <si>
+    <t>2024-06-01 15:25:39</t>
+  </si>
+  <si>
+    <t>2024-06-01 15:35:47</t>
+  </si>
+  <si>
+    <t>2024-06-01 15:45:46</t>
   </si>
 </sst>
 </file>
@@ -2219,10 +3680,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J235"/>
+  <dimension ref="A1:J252"/>
   <sheetViews>
-    <sheetView topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="B232" sqref="B232"/>
+    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
+      <selection activeCell="C249" sqref="C249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4124,6 +5585,142 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>762</v>
+      </c>
+      <c r="B250" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>772</v>
+      </c>
+      <c r="B251" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>799</v>
+      </c>
+      <c r="B252" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4139,9 +5736,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C173"/>
+  <dimension ref="A1:C643"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -4160,7 +5757,7 @@
         <v>540</v>
       </c>
       <c r="C1" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4171,7 +5768,7 @@
         <v>392</v>
       </c>
       <c r="C2" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4182,7 +5779,7 @@
         <v>364</v>
       </c>
       <c r="C3" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4193,7 +5790,7 @@
         <v>326</v>
       </c>
       <c r="C4" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4204,7 +5801,7 @@
         <v>497</v>
       </c>
       <c r="C5" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4215,7 +5812,7 @@
         <v>449</v>
       </c>
       <c r="C6" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4226,7 +5823,7 @@
         <v>734</v>
       </c>
       <c r="C7" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4237,7 +5834,7 @@
         <v>478</v>
       </c>
       <c r="C8" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4248,7 +5845,7 @@
         <v>460</v>
       </c>
       <c r="C9" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4259,7 +5856,7 @@
         <v>467</v>
       </c>
       <c r="C10" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4270,7 +5867,7 @@
         <v>680</v>
       </c>
       <c r="C11" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4281,7 +5878,7 @@
         <v>401</v>
       </c>
       <c r="C12" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4292,7 +5889,7 @@
         <v>392</v>
       </c>
       <c r="C13" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4303,7 +5900,7 @@
         <v>463</v>
       </c>
       <c r="C14" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4314,7 +5911,7 @@
         <v>391</v>
       </c>
       <c r="C15" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4325,7 +5922,7 @@
         <v>460</v>
       </c>
       <c r="C16" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4336,7 +5933,7 @@
         <v>384</v>
       </c>
       <c r="C17" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4347,7 +5944,7 @@
         <v>408</v>
       </c>
       <c r="C18" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4358,7 +5955,7 @@
         <v>677</v>
       </c>
       <c r="C19" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4369,7 +5966,7 @@
         <v>551</v>
       </c>
       <c r="C20" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4380,7 +5977,7 @@
         <v>298</v>
       </c>
       <c r="C21" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4391,7 +5988,7 @@
         <v>427</v>
       </c>
       <c r="C22" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4402,7 +5999,7 @@
         <v>390</v>
       </c>
       <c r="C23" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4413,7 +6010,7 @@
         <v>419</v>
       </c>
       <c r="C24" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4424,7 +6021,7 @@
         <v>442</v>
       </c>
       <c r="C25" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4435,7 +6032,7 @@
         <v>499</v>
       </c>
       <c r="C26" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4446,7 +6043,7 @@
         <v>508</v>
       </c>
       <c r="C27" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4457,7 +6054,7 @@
         <v>442</v>
       </c>
       <c r="C28" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4468,7 +6065,7 @@
         <v>472</v>
       </c>
       <c r="C29" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4479,7 +6076,7 @@
         <v>428</v>
       </c>
       <c r="C30" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4490,7 +6087,7 @@
         <v>552</v>
       </c>
       <c r="C31" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4501,7 +6098,7 @@
         <v>465</v>
       </c>
       <c r="C32" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4512,7 +6109,7 @@
         <v>574</v>
       </c>
       <c r="C33" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4523,7 +6120,7 @@
         <v>396</v>
       </c>
       <c r="C34" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4534,7 +6131,7 @@
         <v>441</v>
       </c>
       <c r="C35" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4545,7 +6142,7 @@
         <v>385</v>
       </c>
       <c r="C36" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -4556,7 +6153,7 @@
         <v>362</v>
       </c>
       <c r="C37" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -4567,7 +6164,7 @@
         <v>342</v>
       </c>
       <c r="C38" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -4578,7 +6175,7 @@
         <v>466</v>
       </c>
       <c r="C39" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -4589,7 +6186,7 @@
         <v>363</v>
       </c>
       <c r="C40" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -4600,7 +6197,7 @@
         <v>357</v>
       </c>
       <c r="C41" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -4611,7 +6208,7 @@
         <v>505</v>
       </c>
       <c r="C42" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -4622,7 +6219,7 @@
         <v>666</v>
       </c>
       <c r="C43" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -4633,7 +6230,7 @@
         <v>437</v>
       </c>
       <c r="C44" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -4644,7 +6241,7 @@
         <v>437</v>
       </c>
       <c r="C45" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -4655,7 +6252,7 @@
         <v>582</v>
       </c>
       <c r="C46" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4666,7 +6263,7 @@
         <v>508</v>
       </c>
       <c r="C47" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -4677,7 +6274,7 @@
         <v>527</v>
       </c>
       <c r="C48" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4688,7 +6285,7 @@
         <v>475</v>
       </c>
       <c r="C49" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4699,7 +6296,7 @@
         <v>431</v>
       </c>
       <c r="C50" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4710,7 +6307,7 @@
         <v>343</v>
       </c>
       <c r="C51" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4721,7 +6318,7 @@
         <v>315</v>
       </c>
       <c r="C52" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4732,7 +6329,7 @@
         <v>338</v>
       </c>
       <c r="C53" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4743,7 +6340,7 @@
         <v>322</v>
       </c>
       <c r="C54" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -4754,7 +6351,7 @@
         <v>355</v>
       </c>
       <c r="C55" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -4765,7 +6362,7 @@
         <v>607</v>
       </c>
       <c r="C56" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -4776,7 +6373,7 @@
         <v>606</v>
       </c>
       <c r="C57" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -4787,7 +6384,7 @@
         <v>408</v>
       </c>
       <c r="C58" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -4798,7 +6395,7 @@
         <v>500</v>
       </c>
       <c r="C59" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -4809,7 +6406,7 @@
         <v>641</v>
       </c>
       <c r="C60" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -4820,7 +6417,7 @@
         <v>448</v>
       </c>
       <c r="C61" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -4831,7 +6428,7 @@
         <v>564</v>
       </c>
       <c r="C62" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -4842,7 +6439,7 @@
         <v>440</v>
       </c>
       <c r="C63" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -4853,7 +6450,7 @@
         <v>462</v>
       </c>
       <c r="C64" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -4864,7 +6461,7 @@
         <v>656</v>
       </c>
       <c r="C65" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -4875,7 +6472,7 @@
         <v>481</v>
       </c>
       <c r="C66" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -4886,7 +6483,7 @@
         <v>418</v>
       </c>
       <c r="C67" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -4897,7 +6494,7 @@
         <v>794</v>
       </c>
       <c r="C68" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -4908,7 +6505,7 @@
         <v>551</v>
       </c>
       <c r="C69" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -4919,7 +6516,7 @@
         <v>448</v>
       </c>
       <c r="C70" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -4930,7 +6527,7 @@
         <v>601</v>
       </c>
       <c r="C71" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -4941,7 +6538,7 @@
         <v>515</v>
       </c>
       <c r="C72" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -4952,7 +6549,7 @@
         <v>625</v>
       </c>
       <c r="C73" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -4963,7 +6560,7 @@
         <v>847</v>
       </c>
       <c r="C74" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -4974,7 +6571,7 @@
         <v>1205</v>
       </c>
       <c r="C75" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -4985,7 +6582,7 @@
         <v>662</v>
       </c>
       <c r="C76" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -4996,7 +6593,7 @@
         <v>743</v>
       </c>
       <c r="C77" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -5007,7 +6604,7 @@
         <v>624</v>
       </c>
       <c r="C78" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -5018,7 +6615,7 @@
         <v>792</v>
       </c>
       <c r="C79" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -5029,7 +6626,7 @@
         <v>600</v>
       </c>
       <c r="C80" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -5040,7 +6637,7 @@
         <v>969</v>
       </c>
       <c r="C81" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -5051,7 +6648,7 @@
         <v>414</v>
       </c>
       <c r="C82" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -5062,7 +6659,7 @@
         <v>550</v>
       </c>
       <c r="C83" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -5073,7 +6670,7 @@
         <v>705</v>
       </c>
       <c r="C84" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -5084,7 +6681,7 @@
         <v>673</v>
       </c>
       <c r="C85" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -5095,7 +6692,7 @@
         <v>556</v>
       </c>
       <c r="C86" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -5106,7 +6703,7 @@
         <v>880</v>
       </c>
       <c r="C87" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -5117,7 +6714,7 @@
         <v>696</v>
       </c>
       <c r="C88" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -5128,7 +6725,7 @@
         <v>426</v>
       </c>
       <c r="C89" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -5139,7 +6736,7 @@
         <v>420</v>
       </c>
       <c r="C90" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -5150,7 +6747,7 @@
         <v>495</v>
       </c>
       <c r="C91" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -5161,7 +6758,7 @@
         <v>443</v>
       </c>
       <c r="C92" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -5172,7 +6769,7 @@
         <v>525</v>
       </c>
       <c r="C93" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -5183,7 +6780,7 @@
         <v>551</v>
       </c>
       <c r="C94" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -5194,7 +6791,7 @@
         <v>667</v>
       </c>
       <c r="C95" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -5205,7 +6802,7 @@
         <v>458</v>
       </c>
       <c r="C96" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -5216,7 +6813,7 @@
         <v>809</v>
       </c>
       <c r="C97" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -5227,7 +6824,7 @@
         <v>609</v>
       </c>
       <c r="C98" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -5238,7 +6835,7 @@
         <v>540</v>
       </c>
       <c r="C99" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -5249,7 +6846,7 @@
         <v>665</v>
       </c>
       <c r="C100" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -5260,7 +6857,7 @@
         <v>599</v>
       </c>
       <c r="C101" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -5271,7 +6868,7 @@
         <v>461</v>
       </c>
       <c r="C102" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -5282,7 +6879,7 @@
         <v>576</v>
       </c>
       <c r="C103" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -5293,7 +6890,7 @@
         <v>652</v>
       </c>
       <c r="C104" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -5304,7 +6901,7 @@
         <v>540</v>
       </c>
       <c r="C105" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -5315,7 +6912,7 @@
         <v>656</v>
       </c>
       <c r="C106" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -5326,7 +6923,7 @@
         <v>695</v>
       </c>
       <c r="C107" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -5337,7 +6934,7 @@
         <v>601</v>
       </c>
       <c r="C108" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -5348,7 +6945,7 @@
         <v>654</v>
       </c>
       <c r="C109" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -5359,7 +6956,7 @@
         <v>653</v>
       </c>
       <c r="C110" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -5370,7 +6967,7 @@
         <v>1857</v>
       </c>
       <c r="C111" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -5381,7 +6978,7 @@
         <v>491</v>
       </c>
       <c r="C112" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -5392,7 +6989,7 @@
         <v>1236</v>
       </c>
       <c r="C113" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -5403,7 +7000,7 @@
         <v>828</v>
       </c>
       <c r="C114" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -5414,7 +7011,7 @@
         <v>1385</v>
       </c>
       <c r="C115" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -5425,7 +7022,7 @@
         <v>1347</v>
       </c>
       <c r="C116" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -5436,7 +7033,7 @@
         <v>2361</v>
       </c>
       <c r="C117" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -5447,7 +7044,7 @@
         <v>1506</v>
       </c>
       <c r="C118" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -5458,7 +7055,7 @@
         <v>779</v>
       </c>
       <c r="C119" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -5469,7 +7066,7 @@
         <v>674</v>
       </c>
       <c r="C120" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -5480,7 +7077,7 @@
         <v>541</v>
       </c>
       <c r="C121" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -5491,7 +7088,7 @@
         <v>1226</v>
       </c>
       <c r="C122" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -5502,7 +7099,7 @@
         <v>591</v>
       </c>
       <c r="C123" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -5513,7 +7110,7 @@
         <v>855</v>
       </c>
       <c r="C124" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -5524,7 +7121,7 @@
         <v>612</v>
       </c>
       <c r="C125" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -5535,7 +7132,7 @@
         <v>791</v>
       </c>
       <c r="C126" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -5546,7 +7143,7 @@
         <v>768</v>
       </c>
       <c r="C127" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -5557,7 +7154,7 @@
         <v>552</v>
       </c>
       <c r="C128" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -5568,7 +7165,7 @@
         <v>444</v>
       </c>
       <c r="C129" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -5579,7 +7176,7 @@
         <v>766</v>
       </c>
       <c r="C130" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -5590,7 +7187,7 @@
         <v>603</v>
       </c>
       <c r="C131" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -5601,7 +7198,7 @@
         <v>373</v>
       </c>
       <c r="C132" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -5612,7 +7209,7 @@
         <v>412</v>
       </c>
       <c r="C133" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -5623,7 +7220,7 @@
         <v>412</v>
       </c>
       <c r="C134" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -5634,7 +7231,7 @@
         <v>652</v>
       </c>
       <c r="C135" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -5645,7 +7242,7 @@
         <v>492</v>
       </c>
       <c r="C136" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -5656,7 +7253,7 @@
         <v>474</v>
       </c>
       <c r="C137" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -5667,7 +7264,7 @@
         <v>455</v>
       </c>
       <c r="C138" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -5678,7 +7275,7 @@
         <v>381</v>
       </c>
       <c r="C139" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -5689,7 +7286,7 @@
         <v>408</v>
       </c>
       <c r="C140" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -5700,7 +7297,7 @@
         <v>389</v>
       </c>
       <c r="C141" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -5711,7 +7308,7 @@
         <v>685</v>
       </c>
       <c r="C142" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -5722,7 +7319,7 @@
         <v>433</v>
       </c>
       <c r="C143" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -5733,7 +7330,7 @@
         <v>283</v>
       </c>
       <c r="C144" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -5744,7 +7341,7 @@
         <v>353</v>
       </c>
       <c r="C145" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -5755,7 +7352,7 @@
         <v>293</v>
       </c>
       <c r="C146" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -5766,7 +7363,7 @@
         <v>325</v>
       </c>
       <c r="C147" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -5777,7 +7374,7 @@
         <v>650</v>
       </c>
       <c r="C148" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -5788,7 +7385,7 @@
         <v>563</v>
       </c>
       <c r="C149" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -5799,7 +7396,7 @@
         <v>1090</v>
       </c>
       <c r="C150" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -5810,7 +7407,7 @@
         <v>1525</v>
       </c>
       <c r="C151" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -5821,7 +7418,7 @@
         <v>561</v>
       </c>
       <c r="C152" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -5832,7 +7429,7 @@
         <v>456</v>
       </c>
       <c r="C153" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -5843,7 +7440,7 @@
         <v>359</v>
       </c>
       <c r="C154" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -5854,7 +7451,7 @@
         <v>338</v>
       </c>
       <c r="C155" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -5865,194 +7462,5364 @@
         <v>371</v>
       </c>
       <c r="C156" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>200</v>
+      </c>
+      <c r="B157">
+        <v>468</v>
+      </c>
+      <c r="C157" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>200</v>
+      </c>
+      <c r="B158">
+        <v>305</v>
+      </c>
+      <c r="C158" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>200</v>
+      </c>
+      <c r="B159">
+        <v>284</v>
+      </c>
+      <c r="C159" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>200</v>
+      </c>
+      <c r="B160">
+        <v>293</v>
+      </c>
+      <c r="C160" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>200</v>
+      </c>
+      <c r="B161">
+        <v>310</v>
+      </c>
+      <c r="C161" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <v>200</v>
+      </c>
+      <c r="B162">
+        <v>288</v>
+      </c>
+      <c r="C162" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>200</v>
+      </c>
+      <c r="B163">
+        <v>531</v>
+      </c>
+      <c r="C163" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <v>200</v>
+      </c>
+      <c r="B164">
+        <v>325</v>
+      </c>
+      <c r="C164" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <v>200</v>
+      </c>
+      <c r="B165">
+        <v>301</v>
+      </c>
+      <c r="C165" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <v>200</v>
+      </c>
+      <c r="B166">
+        <v>387</v>
+      </c>
+      <c r="C166" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>200</v>
+      </c>
+      <c r="B167">
+        <v>618</v>
+      </c>
+      <c r="C167" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>200</v>
+      </c>
+      <c r="B168">
+        <v>466</v>
+      </c>
+      <c r="C168" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>200</v>
+      </c>
+      <c r="B169">
+        <v>326</v>
+      </c>
+      <c r="C169" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>200</v>
+      </c>
+      <c r="B170">
+        <v>331</v>
+      </c>
+      <c r="C170" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>200</v>
+      </c>
+      <c r="B171">
+        <v>302</v>
+      </c>
+      <c r="C171" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>200</v>
+      </c>
+      <c r="B172">
+        <v>281</v>
+      </c>
+      <c r="C172" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>200</v>
+      </c>
+      <c r="B173">
+        <v>313</v>
+      </c>
+      <c r="C173" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>200</v>
+      </c>
+      <c r="B174">
+        <v>363</v>
+      </c>
+      <c r="C174" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <v>200</v>
+      </c>
+      <c r="B175">
+        <v>478</v>
+      </c>
+      <c r="C175" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>200</v>
+      </c>
+      <c r="B176">
+        <v>312</v>
+      </c>
+      <c r="C176" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <v>200</v>
+      </c>
+      <c r="B177">
+        <v>316</v>
+      </c>
+      <c r="C177" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <v>200</v>
+      </c>
+      <c r="B178">
+        <v>524</v>
+      </c>
+      <c r="C178" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <v>200</v>
+      </c>
+      <c r="B179">
+        <v>384</v>
+      </c>
+      <c r="C179" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <v>200</v>
+      </c>
+      <c r="B180">
+        <v>473</v>
+      </c>
+      <c r="C180" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181">
+        <v>200</v>
+      </c>
+      <c r="B181">
+        <v>451</v>
+      </c>
+      <c r="C181" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <v>200</v>
+      </c>
+      <c r="B182">
+        <v>579</v>
+      </c>
+      <c r="C182" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <v>200</v>
+      </c>
+      <c r="B183">
+        <v>453</v>
+      </c>
+      <c r="C183" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <v>200</v>
+      </c>
+      <c r="B184">
+        <v>429</v>
+      </c>
+      <c r="C184" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185">
+        <v>200</v>
+      </c>
+      <c r="B185">
+        <v>503</v>
+      </c>
+      <c r="C185" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <v>200</v>
+      </c>
+      <c r="B186">
+        <v>471</v>
+      </c>
+      <c r="C186" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <v>200</v>
+      </c>
+      <c r="B187">
+        <v>411</v>
+      </c>
+      <c r="C187" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <v>200</v>
+      </c>
+      <c r="B188">
+        <v>425</v>
+      </c>
+      <c r="C188" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189">
+        <v>200</v>
+      </c>
+      <c r="B189">
+        <v>676</v>
+      </c>
+      <c r="C189" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190">
+        <v>200</v>
+      </c>
+      <c r="B190">
+        <v>491</v>
+      </c>
+      <c r="C190" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191">
+        <v>200</v>
+      </c>
+      <c r="B191">
+        <v>408</v>
+      </c>
+      <c r="C191" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192">
+        <v>200</v>
+      </c>
+      <c r="B192">
+        <v>510</v>
+      </c>
+      <c r="C192" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193">
+        <v>200</v>
+      </c>
+      <c r="B193">
+        <v>378</v>
+      </c>
+      <c r="C193" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194">
+        <v>200</v>
+      </c>
+      <c r="B194">
+        <v>319</v>
+      </c>
+      <c r="C194" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195">
+        <v>200</v>
+      </c>
+      <c r="B195">
+        <v>297</v>
+      </c>
+      <c r="C195" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196">
+        <v>200</v>
+      </c>
+      <c r="B196">
+        <v>795</v>
+      </c>
+      <c r="C196" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197">
+        <v>200</v>
+      </c>
+      <c r="B197">
+        <v>285</v>
+      </c>
+      <c r="C197" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198">
+        <v>200</v>
+      </c>
+      <c r="B198">
+        <v>346</v>
+      </c>
+      <c r="C198" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199">
+        <v>200</v>
+      </c>
+      <c r="B199">
+        <v>377</v>
+      </c>
+      <c r="C199" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200">
+        <v>200</v>
+      </c>
+      <c r="B200">
+        <v>350</v>
+      </c>
+      <c r="C200" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>332</v>
+      </c>
+      <c r="C201" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>480</v>
+      </c>
+      <c r="C202" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203">
+        <v>200</v>
+      </c>
+      <c r="B203">
+        <v>318</v>
+      </c>
+      <c r="C203" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204">
+        <v>200</v>
+      </c>
+      <c r="B204">
+        <v>348</v>
+      </c>
+      <c r="C204" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205">
+        <v>200</v>
+      </c>
+      <c r="B205">
+        <v>333</v>
+      </c>
+      <c r="C205" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206">
+        <v>200</v>
+      </c>
+      <c r="B206">
+        <v>655</v>
+      </c>
+      <c r="C206" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207">
+        <v>200</v>
+      </c>
+      <c r="B207">
+        <v>300</v>
+      </c>
+      <c r="C207" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208">
+        <v>200</v>
+      </c>
+      <c r="B208">
+        <v>327</v>
+      </c>
+      <c r="C208" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209">
+        <v>200</v>
+      </c>
+      <c r="B209">
+        <v>501</v>
+      </c>
+      <c r="C209" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210">
+        <v>200</v>
+      </c>
+      <c r="B210">
+        <v>365</v>
+      </c>
+      <c r="C210" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211">
+        <v>200</v>
+      </c>
+      <c r="B211">
+        <v>336</v>
+      </c>
+      <c r="C211" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212">
+        <v>200</v>
+      </c>
+      <c r="B212">
+        <v>306</v>
+      </c>
+      <c r="C212" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213">
+        <v>200</v>
+      </c>
+      <c r="B213">
+        <v>569</v>
+      </c>
+      <c r="C213" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214">
+        <v>200</v>
+      </c>
+      <c r="B214">
+        <v>330</v>
+      </c>
+      <c r="C214" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215">
+        <v>200</v>
+      </c>
+      <c r="B215">
+        <v>622</v>
+      </c>
+      <c r="C215" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216">
+        <v>200</v>
+      </c>
+      <c r="B216">
+        <v>380</v>
+      </c>
+      <c r="C216" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217">
+        <v>200</v>
+      </c>
+      <c r="B217">
+        <v>344</v>
+      </c>
+      <c r="C217" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218">
+        <v>200</v>
+      </c>
+      <c r="B218">
+        <v>314</v>
+      </c>
+      <c r="C218" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219">
+        <v>200</v>
+      </c>
+      <c r="B219">
+        <v>588</v>
+      </c>
+      <c r="C219" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220">
+        <v>200</v>
+      </c>
+      <c r="B220">
+        <v>474</v>
+      </c>
+      <c r="C220" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221">
+        <v>200</v>
+      </c>
+      <c r="B221">
+        <v>382</v>
+      </c>
+      <c r="C221" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222">
+        <v>200</v>
+      </c>
+      <c r="B222">
+        <v>2937</v>
+      </c>
+      <c r="C222" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223">
+        <v>200</v>
+      </c>
+      <c r="B223">
+        <v>389</v>
+      </c>
+      <c r="C223" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224">
+        <v>200</v>
+      </c>
+      <c r="B224">
+        <v>308</v>
+      </c>
+      <c r="C224" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225">
+        <v>200</v>
+      </c>
+      <c r="B225">
+        <v>338</v>
+      </c>
+      <c r="C225" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226">
+        <v>200</v>
+      </c>
+      <c r="B226">
+        <v>302</v>
+      </c>
+      <c r="C226" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227">
+        <v>200</v>
+      </c>
+      <c r="B227">
+        <v>508</v>
+      </c>
+      <c r="C227" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228">
+        <v>200</v>
+      </c>
+      <c r="B228">
+        <v>299</v>
+      </c>
+      <c r="C228" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229">
+        <v>200</v>
+      </c>
+      <c r="B229">
+        <v>325</v>
+      </c>
+      <c r="C229" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230">
+        <v>200</v>
+      </c>
+      <c r="B230">
+        <v>322</v>
+      </c>
+      <c r="C230" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231">
+        <v>200</v>
+      </c>
+      <c r="B231">
+        <v>335</v>
+      </c>
+      <c r="C231" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232">
+        <v>200</v>
+      </c>
+      <c r="B232">
+        <v>274</v>
+      </c>
+      <c r="C232" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233">
+        <v>200</v>
+      </c>
+      <c r="B233">
+        <v>353</v>
+      </c>
+      <c r="C233" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234">
+        <v>200</v>
+      </c>
+      <c r="B234">
+        <v>482</v>
+      </c>
+      <c r="C234" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235">
+        <v>200</v>
+      </c>
+      <c r="B235">
+        <v>369</v>
+      </c>
+      <c r="C235" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236">
+        <v>200</v>
+      </c>
+      <c r="B236">
+        <v>320</v>
+      </c>
+      <c r="C236" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237">
+        <v>200</v>
+      </c>
+      <c r="B237">
+        <v>299</v>
+      </c>
+      <c r="C237" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238">
+        <v>200</v>
+      </c>
+      <c r="B238">
+        <v>418</v>
+      </c>
+      <c r="C238" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239">
+        <v>200</v>
+      </c>
+      <c r="B239">
+        <v>331</v>
+      </c>
+      <c r="C239" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240">
+        <v>200</v>
+      </c>
+      <c r="B240">
+        <v>349</v>
+      </c>
+      <c r="C240" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241">
+        <v>200</v>
+      </c>
+      <c r="B241">
+        <v>304</v>
+      </c>
+      <c r="C241" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242">
+        <v>200</v>
+      </c>
+      <c r="B242">
+        <v>311</v>
+      </c>
+      <c r="C242" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243">
+        <v>200</v>
+      </c>
+      <c r="B243">
+        <v>346</v>
+      </c>
+      <c r="C243" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244">
+        <v>200</v>
+      </c>
+      <c r="B244">
+        <v>306</v>
+      </c>
+      <c r="C244" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245">
+        <v>200</v>
+      </c>
+      <c r="B245">
+        <v>295</v>
+      </c>
+      <c r="C245" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246">
+        <v>200</v>
+      </c>
+      <c r="B246">
+        <v>361</v>
+      </c>
+      <c r="C246" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247">
+        <v>200</v>
+      </c>
+      <c r="B247">
+        <v>316</v>
+      </c>
+      <c r="C247" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248">
+        <v>200</v>
+      </c>
+      <c r="B248">
+        <v>363</v>
+      </c>
+      <c r="C248" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249">
+        <v>200</v>
+      </c>
+      <c r="B249">
+        <v>306</v>
+      </c>
+      <c r="C249" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250">
+        <v>200</v>
+      </c>
+      <c r="B250">
+        <v>347</v>
+      </c>
+      <c r="C250" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251">
+        <v>200</v>
+      </c>
+      <c r="B251">
+        <v>361</v>
+      </c>
+      <c r="C251" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252">
+        <v>200</v>
+      </c>
+      <c r="B252">
+        <v>350</v>
+      </c>
+      <c r="C252" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253">
+        <v>200</v>
+      </c>
+      <c r="B253">
+        <v>460</v>
+      </c>
+      <c r="C253" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254">
+        <v>200</v>
+      </c>
+      <c r="B254">
+        <v>356</v>
+      </c>
+      <c r="C254" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255">
+        <v>200</v>
+      </c>
+      <c r="B255">
+        <v>345</v>
+      </c>
+      <c r="C255" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256">
+        <v>200</v>
+      </c>
+      <c r="B256">
+        <v>300</v>
+      </c>
+      <c r="C256" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257">
+        <v>200</v>
+      </c>
+      <c r="B257">
+        <v>326</v>
+      </c>
+      <c r="C257" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258">
+        <v>200</v>
+      </c>
+      <c r="B258">
+        <v>332</v>
+      </c>
+      <c r="C258" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259">
+        <v>200</v>
+      </c>
+      <c r="B259">
+        <v>351</v>
+      </c>
+      <c r="C259" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260">
+        <v>200</v>
+      </c>
+      <c r="B260">
+        <v>454</v>
+      </c>
+      <c r="C260" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261">
+        <v>200</v>
+      </c>
+      <c r="B261">
+        <v>322</v>
+      </c>
+      <c r="C261" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262">
+        <v>200</v>
+      </c>
+      <c r="B262">
+        <v>350</v>
+      </c>
+      <c r="C262" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263">
+        <v>200</v>
+      </c>
+      <c r="B263">
+        <v>336</v>
+      </c>
+      <c r="C263" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264">
+        <v>200</v>
+      </c>
+      <c r="B264">
+        <v>339</v>
+      </c>
+      <c r="C264" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265">
+        <v>200</v>
+      </c>
+      <c r="B265">
+        <v>327</v>
+      </c>
+      <c r="C265" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266">
+        <v>200</v>
+      </c>
+      <c r="B266">
+        <v>351</v>
+      </c>
+      <c r="C266" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267">
+        <v>200</v>
+      </c>
+      <c r="B267">
+        <v>523</v>
+      </c>
+      <c r="C267" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268">
+        <v>200</v>
+      </c>
+      <c r="B268">
+        <v>396</v>
+      </c>
+      <c r="C268" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269">
+        <v>200</v>
+      </c>
+      <c r="B269">
+        <v>333</v>
+      </c>
+      <c r="C269" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270">
+        <v>200</v>
+      </c>
+      <c r="B270">
+        <v>364</v>
+      </c>
+      <c r="C270" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271">
+        <v>200</v>
+      </c>
+      <c r="B271">
+        <v>317</v>
+      </c>
+      <c r="C271" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272">
+        <v>200</v>
+      </c>
+      <c r="B272">
+        <v>333</v>
+      </c>
+      <c r="C272" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273">
+        <v>200</v>
+      </c>
+      <c r="B273">
+        <v>345</v>
+      </c>
+      <c r="C273" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274">
+        <v>200</v>
+      </c>
+      <c r="B274">
+        <v>442</v>
+      </c>
+      <c r="C274" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275">
+        <v>200</v>
+      </c>
+      <c r="B275">
+        <v>349</v>
+      </c>
+      <c r="C275" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276">
+        <v>200</v>
+      </c>
+      <c r="B276">
+        <v>411</v>
+      </c>
+      <c r="C276" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277">
+        <v>200</v>
+      </c>
+      <c r="B277">
+        <v>377</v>
+      </c>
+      <c r="C277" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278">
+        <v>200</v>
+      </c>
+      <c r="B278">
+        <v>345</v>
+      </c>
+      <c r="C278" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279">
+        <v>200</v>
+      </c>
+      <c r="B279">
+        <v>398</v>
+      </c>
+      <c r="C279" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280">
+        <v>200</v>
+      </c>
+      <c r="B280">
+        <v>323</v>
+      </c>
+      <c r="C280" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281">
+        <v>200</v>
+      </c>
+      <c r="B281">
+        <v>441</v>
+      </c>
+      <c r="C281" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282">
+        <v>200</v>
+      </c>
+      <c r="B282">
+        <v>372</v>
+      </c>
+      <c r="C282" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283">
+        <v>200</v>
+      </c>
+      <c r="B283">
+        <v>369</v>
+      </c>
+      <c r="C283" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284">
+        <v>200</v>
+      </c>
+      <c r="B284">
+        <v>384</v>
+      </c>
+      <c r="C284" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285">
+        <v>200</v>
+      </c>
+      <c r="B285">
+        <v>327</v>
+      </c>
+      <c r="C285" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286">
+        <v>200</v>
+      </c>
+      <c r="B286">
+        <v>359</v>
+      </c>
+      <c r="C286" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287">
+        <v>200</v>
+      </c>
+      <c r="B287">
+        <v>502</v>
+      </c>
+      <c r="C287" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288">
+        <v>200</v>
+      </c>
+      <c r="B288">
+        <v>351</v>
+      </c>
+      <c r="C288" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289">
+        <v>200</v>
+      </c>
+      <c r="B289">
+        <v>376</v>
+      </c>
+      <c r="C289" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290">
+        <v>200</v>
+      </c>
+      <c r="B290">
+        <v>315</v>
+      </c>
+      <c r="C290" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291">
+        <v>200</v>
+      </c>
+      <c r="B291">
         <v>390</v>
       </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="B157" t="n">
+      <c r="C291" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292">
+        <v>200</v>
+      </c>
+      <c r="B292">
+        <v>325</v>
+      </c>
+      <c r="C292" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293">
+        <v>200</v>
+      </c>
+      <c r="B293">
+        <v>341</v>
+      </c>
+      <c r="C293" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294">
+        <v>200</v>
+      </c>
+      <c r="B294">
+        <v>447</v>
+      </c>
+      <c r="C294" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295">
+        <v>200</v>
+      </c>
+      <c r="B295">
+        <v>353</v>
+      </c>
+      <c r="C295" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296">
+        <v>200</v>
+      </c>
+      <c r="B296">
+        <v>305</v>
+      </c>
+      <c r="C296" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297">
+        <v>200</v>
+      </c>
+      <c r="B297">
+        <v>341</v>
+      </c>
+      <c r="C297" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298">
+        <v>200</v>
+      </c>
+      <c r="B298">
+        <v>331</v>
+      </c>
+      <c r="C298" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299">
+        <v>200</v>
+      </c>
+      <c r="B299">
+        <v>314</v>
+      </c>
+      <c r="C299" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300">
+        <v>200</v>
+      </c>
+      <c r="B300">
+        <v>339</v>
+      </c>
+      <c r="C300" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301">
+        <v>200</v>
+      </c>
+      <c r="B301">
+        <v>438</v>
+      </c>
+      <c r="C301" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302">
+        <v>200</v>
+      </c>
+      <c r="B302">
+        <v>329</v>
+      </c>
+      <c r="C302" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303">
+        <v>200</v>
+      </c>
+      <c r="B303">
+        <v>298</v>
+      </c>
+      <c r="C303" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304">
+        <v>200</v>
+      </c>
+      <c r="B304">
+        <v>292</v>
+      </c>
+      <c r="C304" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305">
+        <v>200</v>
+      </c>
+      <c r="B305">
+        <v>349</v>
+      </c>
+      <c r="C305" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306">
+        <v>200</v>
+      </c>
+      <c r="B306">
+        <v>289</v>
+      </c>
+      <c r="C306" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307">
+        <v>200</v>
+      </c>
+      <c r="B307">
+        <v>348</v>
+      </c>
+      <c r="C307" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308">
+        <v>200</v>
+      </c>
+      <c r="B308">
+        <v>433</v>
+      </c>
+      <c r="C308" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309">
+        <v>200</v>
+      </c>
+      <c r="B309">
+        <v>401</v>
+      </c>
+      <c r="C309" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310">
+        <v>200</v>
+      </c>
+      <c r="B310">
+        <v>340</v>
+      </c>
+      <c r="C310" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311">
+        <v>200</v>
+      </c>
+      <c r="B311">
+        <v>360</v>
+      </c>
+      <c r="C311" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312">
+        <v>200</v>
+      </c>
+      <c r="B312">
+        <v>349</v>
+      </c>
+      <c r="C312" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313">
+        <v>200</v>
+      </c>
+      <c r="B313">
+        <v>810</v>
+      </c>
+      <c r="C313" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314">
+        <v>200</v>
+      </c>
+      <c r="B314">
+        <v>338</v>
+      </c>
+      <c r="C314" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315">
+        <v>200</v>
+      </c>
+      <c r="B315">
+        <v>460</v>
+      </c>
+      <c r="C315" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316">
+        <v>200</v>
+      </c>
+      <c r="B316">
+        <v>341</v>
+      </c>
+      <c r="C316" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317">
+        <v>200</v>
+      </c>
+      <c r="B317">
+        <v>373</v>
+      </c>
+      <c r="C317" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318">
+        <v>200</v>
+      </c>
+      <c r="B318">
+        <v>359</v>
+      </c>
+      <c r="C318" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319">
+        <v>200</v>
+      </c>
+      <c r="B319">
+        <v>364</v>
+      </c>
+      <c r="C319" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320">
+        <v>200</v>
+      </c>
+      <c r="B320">
+        <v>591</v>
+      </c>
+      <c r="C320" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321">
+        <v>200</v>
+      </c>
+      <c r="B321">
+        <v>637</v>
+      </c>
+      <c r="C321" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322">
+        <v>200</v>
+      </c>
+      <c r="B322">
+        <v>397</v>
+      </c>
+      <c r="C322" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323">
+        <v>200</v>
+      </c>
+      <c r="B323">
+        <v>831</v>
+      </c>
+      <c r="C323" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324">
+        <v>200</v>
+      </c>
+      <c r="B324">
+        <v>524</v>
+      </c>
+      <c r="C324" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325">
+        <v>200</v>
+      </c>
+      <c r="B325">
+        <v>336</v>
+      </c>
+      <c r="C325" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326">
+        <v>200</v>
+      </c>
+      <c r="B326">
+        <v>484</v>
+      </c>
+      <c r="C326" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327">
+        <v>200</v>
+      </c>
+      <c r="B327">
+        <v>338</v>
+      </c>
+      <c r="C327" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328">
+        <v>200</v>
+      </c>
+      <c r="B328">
+        <v>490</v>
+      </c>
+      <c r="C328" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329">
+        <v>200</v>
+      </c>
+      <c r="B329">
+        <v>410</v>
+      </c>
+      <c r="C329" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330">
+        <v>200</v>
+      </c>
+      <c r="B330">
+        <v>362</v>
+      </c>
+      <c r="C330" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331">
+        <v>200</v>
+      </c>
+      <c r="B331">
+        <v>346</v>
+      </c>
+      <c r="C331" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332">
+        <v>200</v>
+      </c>
+      <c r="B332">
+        <v>366</v>
+      </c>
+      <c r="C332" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333">
+        <v>200</v>
+      </c>
+      <c r="B333">
+        <v>398</v>
+      </c>
+      <c r="C333" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334">
+        <v>200</v>
+      </c>
+      <c r="B334">
+        <v>394</v>
+      </c>
+      <c r="C334" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335">
+        <v>200</v>
+      </c>
+      <c r="B335">
+        <v>534</v>
+      </c>
+      <c r="C335" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336">
+        <v>200</v>
+      </c>
+      <c r="B336">
+        <v>442</v>
+      </c>
+      <c r="C336" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337">
+        <v>200</v>
+      </c>
+      <c r="B337">
+        <v>461</v>
+      </c>
+      <c r="C337" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338">
+        <v>200</v>
+      </c>
+      <c r="B338">
+        <v>679</v>
+      </c>
+      <c r="C338" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339">
+        <v>200</v>
+      </c>
+      <c r="B339">
+        <v>440</v>
+      </c>
+      <c r="C339" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340">
+        <v>200</v>
+      </c>
+      <c r="B340">
+        <v>393</v>
+      </c>
+      <c r="C340" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341">
+        <v>200</v>
+      </c>
+      <c r="B341">
+        <v>350</v>
+      </c>
+      <c r="C341" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342">
+        <v>200</v>
+      </c>
+      <c r="B342">
+        <v>396</v>
+      </c>
+      <c r="C342" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343">
+        <v>200</v>
+      </c>
+      <c r="B343">
+        <v>295</v>
+      </c>
+      <c r="C343" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344">
+        <v>200</v>
+      </c>
+      <c r="B344">
+        <v>466</v>
+      </c>
+      <c r="C344" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345">
+        <v>200</v>
+      </c>
+      <c r="B345">
+        <v>338</v>
+      </c>
+      <c r="C345" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346">
+        <v>200</v>
+      </c>
+      <c r="B346">
+        <v>672</v>
+      </c>
+      <c r="C346" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347">
+        <v>200</v>
+      </c>
+      <c r="B347">
+        <v>364</v>
+      </c>
+      <c r="C347" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348">
+        <v>200</v>
+      </c>
+      <c r="B348">
+        <v>320</v>
+      </c>
+      <c r="C348" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349">
+        <v>200</v>
+      </c>
+      <c r="B349">
+        <v>344</v>
+      </c>
+      <c r="C349" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350">
+        <v>200</v>
+      </c>
+      <c r="B350">
+        <v>376</v>
+      </c>
+      <c r="C350" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351">
+        <v>200</v>
+      </c>
+      <c r="B351">
+        <v>405</v>
+      </c>
+      <c r="C351" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352">
+        <v>200</v>
+      </c>
+      <c r="B352">
+        <v>357</v>
+      </c>
+      <c r="C352" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353">
+        <v>200</v>
+      </c>
+      <c r="B353">
+        <v>580</v>
+      </c>
+      <c r="C353" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354">
+        <v>200</v>
+      </c>
+      <c r="B354">
+        <v>386</v>
+      </c>
+      <c r="C354" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355">
+        <v>200</v>
+      </c>
+      <c r="B355">
+        <v>422</v>
+      </c>
+      <c r="C355" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356">
+        <v>200</v>
+      </c>
+      <c r="B356">
+        <v>450</v>
+      </c>
+      <c r="C356" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357">
+        <v>200</v>
+      </c>
+      <c r="B357">
+        <v>410</v>
+      </c>
+      <c r="C357" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358">
+        <v>200</v>
+      </c>
+      <c r="B358">
+        <v>373</v>
+      </c>
+      <c r="C358" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359">
+        <v>200</v>
+      </c>
+      <c r="B359">
+        <v>371</v>
+      </c>
+      <c r="C359" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360">
+        <v>200</v>
+      </c>
+      <c r="B360">
+        <v>480</v>
+      </c>
+      <c r="C360" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361">
+        <v>200</v>
+      </c>
+      <c r="B361">
+        <v>395</v>
+      </c>
+      <c r="C361" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362">
+        <v>200</v>
+      </c>
+      <c r="B362">
+        <v>351</v>
+      </c>
+      <c r="C362" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363">
+        <v>200</v>
+      </c>
+      <c r="B363">
+        <v>288</v>
+      </c>
+      <c r="C363" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364">
+        <v>200</v>
+      </c>
+      <c r="B364">
+        <v>390</v>
+      </c>
+      <c r="C364" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365">
+        <v>200</v>
+      </c>
+      <c r="B365">
+        <v>336</v>
+      </c>
+      <c r="C365" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366">
+        <v>200</v>
+      </c>
+      <c r="B366">
+        <v>358</v>
+      </c>
+      <c r="C366" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367">
+        <v>200</v>
+      </c>
+      <c r="B367">
+        <v>298</v>
+      </c>
+      <c r="C367" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368">
+        <v>200</v>
+      </c>
+      <c r="B368">
+        <v>362</v>
+      </c>
+      <c r="C368" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369">
+        <v>200</v>
+      </c>
+      <c r="B369">
+        <v>407</v>
+      </c>
+      <c r="C369" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370">
+        <v>200</v>
+      </c>
+      <c r="B370">
+        <v>471</v>
+      </c>
+      <c r="C370" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371">
+        <v>200</v>
+      </c>
+      <c r="B371">
+        <v>351</v>
+      </c>
+      <c r="C371" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372">
+        <v>200</v>
+      </c>
+      <c r="B372">
+        <v>388</v>
+      </c>
+      <c r="C372" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373">
+        <v>200</v>
+      </c>
+      <c r="B373">
+        <v>349</v>
+      </c>
+      <c r="C373" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374">
+        <v>200</v>
+      </c>
+      <c r="B374">
+        <v>343</v>
+      </c>
+      <c r="C374" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375">
+        <v>200</v>
+      </c>
+      <c r="B375">
+        <v>361</v>
+      </c>
+      <c r="C375" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376">
+        <v>200</v>
+      </c>
+      <c r="B376">
+        <v>508</v>
+      </c>
+      <c r="C376" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377">
+        <v>200</v>
+      </c>
+      <c r="B377">
+        <v>383</v>
+      </c>
+      <c r="C377" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378">
+        <v>200</v>
+      </c>
+      <c r="B378">
+        <v>559</v>
+      </c>
+      <c r="C378" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379">
+        <v>200</v>
+      </c>
+      <c r="B379">
+        <v>545</v>
+      </c>
+      <c r="C379" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380">
+        <v>200</v>
+      </c>
+      <c r="B380">
+        <v>303</v>
+      </c>
+      <c r="C380" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381">
+        <v>200</v>
+      </c>
+      <c r="B381">
+        <v>366</v>
+      </c>
+      <c r="C381" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382">
+        <v>200</v>
+      </c>
+      <c r="B382">
+        <v>448</v>
+      </c>
+      <c r="C382" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383">
+        <v>200</v>
+      </c>
+      <c r="B383">
+        <v>311</v>
+      </c>
+      <c r="C383" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384">
+        <v>200</v>
+      </c>
+      <c r="B384">
+        <v>416</v>
+      </c>
+      <c r="C384" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385">
+        <v>200</v>
+      </c>
+      <c r="B385">
+        <v>389</v>
+      </c>
+      <c r="C385" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386">
+        <v>200</v>
+      </c>
+      <c r="B386">
+        <v>454</v>
+      </c>
+      <c r="C386" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387">
+        <v>200</v>
+      </c>
+      <c r="B387">
+        <v>396</v>
+      </c>
+      <c r="C387" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388">
+        <v>200</v>
+      </c>
+      <c r="B388">
+        <v>503</v>
+      </c>
+      <c r="C388" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389">
+        <v>200</v>
+      </c>
+      <c r="B389">
+        <v>380</v>
+      </c>
+      <c r="C389" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390">
+        <v>200</v>
+      </c>
+      <c r="B390">
+        <v>390</v>
+      </c>
+      <c r="C390" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391">
+        <v>200</v>
+      </c>
+      <c r="B391">
+        <v>459</v>
+      </c>
+      <c r="C391" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392">
+        <v>200</v>
+      </c>
+      <c r="B392">
+        <v>391</v>
+      </c>
+      <c r="C392" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393">
+        <v>200</v>
+      </c>
+      <c r="B393">
+        <v>474</v>
+      </c>
+      <c r="C393" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394">
+        <v>200</v>
+      </c>
+      <c r="B394">
+        <v>407</v>
+      </c>
+      <c r="C394" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395">
+        <v>200</v>
+      </c>
+      <c r="B395">
+        <v>391</v>
+      </c>
+      <c r="C395" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396">
+        <v>200</v>
+      </c>
+      <c r="B396">
+        <v>431</v>
+      </c>
+      <c r="C396" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397">
+        <v>200</v>
+      </c>
+      <c r="B397">
+        <v>389</v>
+      </c>
+      <c r="C397" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398">
+        <v>200</v>
+      </c>
+      <c r="B398">
+        <v>768</v>
+      </c>
+      <c r="C398" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399">
+        <v>200</v>
+      </c>
+      <c r="B399">
+        <v>375</v>
+      </c>
+      <c r="C399" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400">
+        <v>200</v>
+      </c>
+      <c r="B400">
+        <v>458</v>
+      </c>
+      <c r="C400" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401">
+        <v>200</v>
+      </c>
+      <c r="B401">
+        <v>342</v>
+      </c>
+      <c r="C401" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402">
+        <v>200</v>
+      </c>
+      <c r="B402">
+        <v>321</v>
+      </c>
+      <c r="C402" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403">
+        <v>200</v>
+      </c>
+      <c r="B403">
+        <v>307</v>
+      </c>
+      <c r="C403" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404">
+        <v>200</v>
+      </c>
+      <c r="B404">
+        <v>332</v>
+      </c>
+      <c r="C404" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405">
+        <v>200</v>
+      </c>
+      <c r="B405">
+        <v>319</v>
+      </c>
+      <c r="C405" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406">
+        <v>200</v>
+      </c>
+      <c r="B406">
+        <v>490</v>
+      </c>
+      <c r="C406" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407">
+        <v>200</v>
+      </c>
+      <c r="B407">
+        <v>347</v>
+      </c>
+      <c r="C407" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408">
+        <v>200</v>
+      </c>
+      <c r="B408">
+        <v>306</v>
+      </c>
+      <c r="C408" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409">
+        <v>200</v>
+      </c>
+      <c r="B409">
+        <v>386</v>
+      </c>
+      <c r="C409" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410">
+        <v>200</v>
+      </c>
+      <c r="B410">
+        <v>318</v>
+      </c>
+      <c r="C410" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411">
+        <v>200</v>
+      </c>
+      <c r="B411">
+        <v>369</v>
+      </c>
+      <c r="C411" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412">
+        <v>200</v>
+      </c>
+      <c r="B412">
+        <v>369</v>
+      </c>
+      <c r="C412" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413">
+        <v>200</v>
+      </c>
+      <c r="B413">
+        <v>460</v>
+      </c>
+      <c r="C413" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414">
+        <v>200</v>
+      </c>
+      <c r="B414">
+        <v>336</v>
+      </c>
+      <c r="C414" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415">
+        <v>200</v>
+      </c>
+      <c r="B415">
+        <v>1671</v>
+      </c>
+      <c r="C415" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416">
+        <v>200</v>
+      </c>
+      <c r="B416">
+        <v>363</v>
+      </c>
+      <c r="C416" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417">
+        <v>200</v>
+      </c>
+      <c r="B417">
+        <v>316</v>
+      </c>
+      <c r="C417" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418">
+        <v>200</v>
+      </c>
+      <c r="B418">
+        <v>316</v>
+      </c>
+      <c r="C418" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419">
+        <v>200</v>
+      </c>
+      <c r="B419">
+        <v>392</v>
+      </c>
+      <c r="C419" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420">
+        <v>200</v>
+      </c>
+      <c r="B420">
+        <v>639</v>
+      </c>
+      <c r="C420" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421">
+        <v>200</v>
+      </c>
+      <c r="B421">
+        <v>566</v>
+      </c>
+      <c r="C421" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422">
+        <v>200</v>
+      </c>
+      <c r="B422">
+        <v>437</v>
+      </c>
+      <c r="C422" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423">
+        <v>200</v>
+      </c>
+      <c r="B423">
+        <v>413</v>
+      </c>
+      <c r="C423" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424">
+        <v>200</v>
+      </c>
+      <c r="B424">
+        <v>375</v>
+      </c>
+      <c r="C424" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425">
+        <v>200</v>
+      </c>
+      <c r="B425">
+        <v>413</v>
+      </c>
+      <c r="C425" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426">
+        <v>200</v>
+      </c>
+      <c r="B426">
+        <v>391</v>
+      </c>
+      <c r="C426" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427">
+        <v>200</v>
+      </c>
+      <c r="B427">
+        <v>554</v>
+      </c>
+      <c r="C427" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428">
+        <v>200</v>
+      </c>
+      <c r="B428">
+        <v>286</v>
+      </c>
+      <c r="C428" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429">
+        <v>200</v>
+      </c>
+      <c r="B429">
+        <v>603</v>
+      </c>
+      <c r="C429" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430">
+        <v>200</v>
+      </c>
+      <c r="B430">
+        <v>460</v>
+      </c>
+      <c r="C430" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431">
+        <v>200</v>
+      </c>
+      <c r="B431">
+        <v>439</v>
+      </c>
+      <c r="C431" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432">
+        <v>200</v>
+      </c>
+      <c r="B432">
+        <v>501</v>
+      </c>
+      <c r="C432" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433">
+        <v>200</v>
+      </c>
+      <c r="B433">
+        <v>533</v>
+      </c>
+      <c r="C433" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434">
+        <v>200</v>
+      </c>
+      <c r="B434">
+        <v>642</v>
+      </c>
+      <c r="C434" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435">
+        <v>200</v>
+      </c>
+      <c r="B435">
+        <v>727</v>
+      </c>
+      <c r="C435" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436">
+        <v>200</v>
+      </c>
+      <c r="B436">
+        <v>367</v>
+      </c>
+      <c r="C436" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437">
+        <v>200</v>
+      </c>
+      <c r="B437">
+        <v>311</v>
+      </c>
+      <c r="C437" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438">
+        <v>200</v>
+      </c>
+      <c r="B438">
+        <v>445</v>
+      </c>
+      <c r="C438" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439">
+        <v>200</v>
+      </c>
+      <c r="B439">
+        <v>485</v>
+      </c>
+      <c r="C439" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440">
+        <v>200</v>
+      </c>
+      <c r="B440">
+        <v>336</v>
+      </c>
+      <c r="C440" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441">
+        <v>200</v>
+      </c>
+      <c r="B441">
+        <v>339</v>
+      </c>
+      <c r="C441" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442">
+        <v>200</v>
+      </c>
+      <c r="B442">
+        <v>476</v>
+      </c>
+      <c r="C442" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443">
+        <v>200</v>
+      </c>
+      <c r="B443">
+        <v>432</v>
+      </c>
+      <c r="C443" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444">
+        <v>200</v>
+      </c>
+      <c r="B444">
+        <v>481</v>
+      </c>
+      <c r="C444" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445">
+        <v>200</v>
+      </c>
+      <c r="B445">
+        <v>470</v>
+      </c>
+      <c r="C445" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446">
+        <v>200</v>
+      </c>
+      <c r="B446">
+        <v>443</v>
+      </c>
+      <c r="C446" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447">
+        <v>200</v>
+      </c>
+      <c r="B447">
+        <v>295</v>
+      </c>
+      <c r="C447" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448">
+        <v>200</v>
+      </c>
+      <c r="B448">
+        <v>415</v>
+      </c>
+      <c r="C448" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449">
+        <v>200</v>
+      </c>
+      <c r="B449">
+        <v>349</v>
+      </c>
+      <c r="C449" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450">
+        <v>200</v>
+      </c>
+      <c r="B450">
+        <v>377</v>
+      </c>
+      <c r="C450" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451">
+        <v>200</v>
+      </c>
+      <c r="B451">
+        <v>335</v>
+      </c>
+      <c r="C451" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452">
+        <v>200</v>
+      </c>
+      <c r="B452">
+        <v>333</v>
+      </c>
+      <c r="C452" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453">
+        <v>200</v>
+      </c>
+      <c r="B453">
+        <v>455</v>
+      </c>
+      <c r="C453" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454">
+        <v>200</v>
+      </c>
+      <c r="B454">
+        <v>370</v>
+      </c>
+      <c r="C454" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455">
+        <v>200</v>
+      </c>
+      <c r="B455">
+        <v>360</v>
+      </c>
+      <c r="C455" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456">
+        <v>200</v>
+      </c>
+      <c r="B456">
+        <v>309</v>
+      </c>
+      <c r="C456" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457">
+        <v>200</v>
+      </c>
+      <c r="B457">
+        <v>328</v>
+      </c>
+      <c r="C457" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458">
+        <v>200</v>
+      </c>
+      <c r="B458">
+        <v>351</v>
+      </c>
+      <c r="C458" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459">
+        <v>200</v>
+      </c>
+      <c r="B459">
+        <v>376</v>
+      </c>
+      <c r="C459" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460">
+        <v>200</v>
+      </c>
+      <c r="B460">
+        <v>561</v>
+      </c>
+      <c r="C460" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461">
+        <v>200</v>
+      </c>
+      <c r="B461">
+        <v>445</v>
+      </c>
+      <c r="C461" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462">
+        <v>200</v>
+      </c>
+      <c r="B462">
+        <v>359</v>
+      </c>
+      <c r="C462" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463">
+        <v>200</v>
+      </c>
+      <c r="B463">
+        <v>354</v>
+      </c>
+      <c r="C463" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464">
+        <v>200</v>
+      </c>
+      <c r="B464">
+        <v>371</v>
+      </c>
+      <c r="C464" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465">
+        <v>200</v>
+      </c>
+      <c r="B465">
+        <v>480</v>
+      </c>
+      <c r="C465" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466">
+        <v>200</v>
+      </c>
+      <c r="B466">
+        <v>314</v>
+      </c>
+      <c r="C466" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467">
+        <v>200</v>
+      </c>
+      <c r="B467">
+        <v>320</v>
+      </c>
+      <c r="C467" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468">
+        <v>200</v>
+      </c>
+      <c r="B468">
+        <v>329</v>
+      </c>
+      <c r="C468" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469">
+        <v>200</v>
+      </c>
+      <c r="B469">
+        <v>327</v>
+      </c>
+      <c r="C469" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470">
+        <v>200</v>
+      </c>
+      <c r="B470">
+        <v>493</v>
+      </c>
+      <c r="C470" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471">
+        <v>200</v>
+      </c>
+      <c r="B471">
+        <v>1107</v>
+      </c>
+      <c r="C471" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472">
+        <v>200</v>
+      </c>
+      <c r="B472">
+        <v>429</v>
+      </c>
+      <c r="C472" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473">
+        <v>200</v>
+      </c>
+      <c r="B473">
+        <v>359</v>
+      </c>
+      <c r="C473" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474">
+        <v>200</v>
+      </c>
+      <c r="B474">
+        <v>414</v>
+      </c>
+      <c r="C474" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475">
+        <v>200</v>
+      </c>
+      <c r="B475">
+        <v>708</v>
+      </c>
+      <c r="C475" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476">
+        <v>200</v>
+      </c>
+      <c r="B476">
+        <v>533</v>
+      </c>
+      <c r="C476" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477">
+        <v>200</v>
+      </c>
+      <c r="B477">
+        <v>543</v>
+      </c>
+      <c r="C477" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478">
+        <v>200</v>
+      </c>
+      <c r="B478">
+        <v>638</v>
+      </c>
+      <c r="C478" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479">
+        <v>200</v>
+      </c>
+      <c r="B479">
+        <v>1413</v>
+      </c>
+      <c r="C479" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480">
+        <v>200</v>
+      </c>
+      <c r="B480">
+        <v>410</v>
+      </c>
+      <c r="C480" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481">
+        <v>200</v>
+      </c>
+      <c r="B481">
+        <v>433</v>
+      </c>
+      <c r="C481" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482">
+        <v>200</v>
+      </c>
+      <c r="B482">
+        <v>398</v>
+      </c>
+      <c r="C482" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483">
+        <v>200</v>
+      </c>
+      <c r="B483">
+        <v>582</v>
+      </c>
+      <c r="C483" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484">
+        <v>200</v>
+      </c>
+      <c r="B484">
+        <v>389</v>
+      </c>
+      <c r="C484" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485">
+        <v>200</v>
+      </c>
+      <c r="B485">
+        <v>481</v>
+      </c>
+      <c r="C485" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486">
+        <v>200</v>
+      </c>
+      <c r="B486">
+        <v>474</v>
+      </c>
+      <c r="C486" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487">
+        <v>200</v>
+      </c>
+      <c r="B487">
+        <v>461</v>
+      </c>
+      <c r="C487" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488">
+        <v>200</v>
+      </c>
+      <c r="B488">
+        <v>620</v>
+      </c>
+      <c r="C488" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489">
+        <v>200</v>
+      </c>
+      <c r="B489">
+        <v>460</v>
+      </c>
+      <c r="C489" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490">
+        <v>200</v>
+      </c>
+      <c r="B490">
+        <v>417</v>
+      </c>
+      <c r="C490" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491">
+        <v>200</v>
+      </c>
+      <c r="B491">
+        <v>506</v>
+      </c>
+      <c r="C491" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492">
+        <v>200</v>
+      </c>
+      <c r="B492">
+        <v>589</v>
+      </c>
+      <c r="C492" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493">
+        <v>200</v>
+      </c>
+      <c r="B493">
+        <v>478</v>
+      </c>
+      <c r="C493" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494">
+        <v>200</v>
+      </c>
+      <c r="B494">
+        <v>441</v>
+      </c>
+      <c r="C494" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495">
+        <v>200</v>
+      </c>
+      <c r="B495">
+        <v>517</v>
+      </c>
+      <c r="C495" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496">
+        <v>200</v>
+      </c>
+      <c r="B496">
+        <v>475</v>
+      </c>
+      <c r="C496" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497">
+        <v>200</v>
+      </c>
+      <c r="B497">
+        <v>653</v>
+      </c>
+      <c r="C497" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498">
+        <v>200</v>
+      </c>
+      <c r="B498">
+        <v>379</v>
+      </c>
+      <c r="C498" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499">
+        <v>200</v>
+      </c>
+      <c r="B499">
+        <v>408</v>
+      </c>
+      <c r="C499" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500">
+        <v>200</v>
+      </c>
+      <c r="B500">
+        <v>459</v>
+      </c>
+      <c r="C500" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501">
+        <v>200</v>
+      </c>
+      <c r="B501">
+        <v>393</v>
+      </c>
+      <c r="C501" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502">
+        <v>200</v>
+      </c>
+      <c r="B502">
+        <v>588</v>
+      </c>
+      <c r="C502" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503">
+        <v>200</v>
+      </c>
+      <c r="B503">
+        <v>2783</v>
+      </c>
+      <c r="C503" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504">
+        <v>200</v>
+      </c>
+      <c r="B504">
+        <v>321</v>
+      </c>
+      <c r="C504" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505">
+        <v>200</v>
+      </c>
+      <c r="B505">
+        <v>337</v>
+      </c>
+      <c r="C505" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506">
+        <v>200</v>
+      </c>
+      <c r="B506">
+        <v>331</v>
+      </c>
+      <c r="C506" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507">
+        <v>200</v>
+      </c>
+      <c r="B507">
+        <v>427</v>
+      </c>
+      <c r="C507" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508">
+        <v>200</v>
+      </c>
+      <c r="B508">
+        <v>299</v>
+      </c>
+      <c r="C508" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509">
+        <v>200</v>
+      </c>
+      <c r="B509">
+        <v>353</v>
+      </c>
+      <c r="C509" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510">
+        <v>200</v>
+      </c>
+      <c r="B510">
+        <v>504</v>
+      </c>
+      <c r="C510" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511">
+        <v>200</v>
+      </c>
+      <c r="B511">
+        <v>333</v>
+      </c>
+      <c r="C511" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512">
+        <v>200</v>
+      </c>
+      <c r="B512">
+        <v>402</v>
+      </c>
+      <c r="C512" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513">
+        <v>200</v>
+      </c>
+      <c r="B513">
+        <v>2886</v>
+      </c>
+      <c r="C513" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B514" t="n">
+        <v>463.0</v>
+      </c>
+      <c r="C514" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B515" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="C515" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B516" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="C516" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B517" t="n">
+        <v>425.0</v>
+      </c>
+      <c r="C517" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B518" t="n">
+        <v>299.0</v>
+      </c>
+      <c r="C518" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B519" t="n">
+        <v>517.0</v>
+      </c>
+      <c r="C519" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B520" t="n">
+        <v>3310.0</v>
+      </c>
+      <c r="C520" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B521" t="n">
+        <v>354.0</v>
+      </c>
+      <c r="C521" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B522" t="n">
+        <v>523.0</v>
+      </c>
+      <c r="C522" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B523" t="n">
+        <v>516.0</v>
+      </c>
+      <c r="C523" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B524" t="n">
+        <v>473.0</v>
+      </c>
+      <c r="C524" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B525" t="n">
+        <v>326.0</v>
+      </c>
+      <c r="C525" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B526" t="n">
+        <v>374.0</v>
+      </c>
+      <c r="C526" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B527" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="C527" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B528" t="n">
         <v>468.0</v>
       </c>
-      <c r="C157" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="B158" t="n">
+      <c r="C528" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B529" t="n">
+        <v>370.0</v>
+      </c>
+      <c r="C529" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B530" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="C530" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B531" t="n">
+        <v>333.0</v>
+      </c>
+      <c r="C531" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B532" t="n">
+        <v>293.0</v>
+      </c>
+      <c r="C532" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B533" t="n">
+        <v>472.0</v>
+      </c>
+      <c r="C533" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B534" t="n">
+        <v>381.0</v>
+      </c>
+      <c r="C534" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B535" t="n">
+        <v>317.0</v>
+      </c>
+      <c r="C535" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B536" t="n">
+        <v>321.0</v>
+      </c>
+      <c r="C536" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B537" t="n">
+        <v>397.0</v>
+      </c>
+      <c r="C537" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B538" t="n">
+        <v>413.0</v>
+      </c>
+      <c r="C538" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B539" t="n">
+        <v>369.0</v>
+      </c>
+      <c r="C539" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B540" t="n">
+        <v>335.0</v>
+      </c>
+      <c r="C540" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B541" t="n">
+        <v>376.0</v>
+      </c>
+      <c r="C541" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B542" t="n">
+        <v>364.0</v>
+      </c>
+      <c r="C542" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B543" t="n">
+        <v>471.0</v>
+      </c>
+      <c r="C543" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B544" t="n">
         <v>305.0</v>
       </c>
-      <c r="C158" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="B159" t="n">
+      <c r="C544" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B545" t="n">
+        <v>379.0</v>
+      </c>
+      <c r="C545" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B546" t="n">
+        <v>308.0</v>
+      </c>
+      <c r="C546" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B547" t="n">
+        <v>420.0</v>
+      </c>
+      <c r="C547" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B548" t="n">
+        <v>418.0</v>
+      </c>
+      <c r="C548" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B549" t="n">
+        <v>342.0</v>
+      </c>
+      <c r="C549" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B550" t="n">
+        <v>401.0</v>
+      </c>
+      <c r="C550" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B551" t="n">
+        <v>418.0</v>
+      </c>
+      <c r="C551" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B552" t="n">
+        <v>781.0</v>
+      </c>
+      <c r="C552" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B553" t="n">
+        <v>461.0</v>
+      </c>
+      <c r="C553" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B554" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="C554" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B555" t="n">
+        <v>366.0</v>
+      </c>
+      <c r="C555" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B556" t="n">
+        <v>294.0</v>
+      </c>
+      <c r="C556" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B557" t="n">
+        <v>373.0</v>
+      </c>
+      <c r="C557" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B558" t="n">
+        <v>446.0</v>
+      </c>
+      <c r="C558" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B559" t="n">
+        <v>362.0</v>
+      </c>
+      <c r="C559" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B560" t="n">
+        <v>322.0</v>
+      </c>
+      <c r="C560" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B561" t="n">
+        <v>362.0</v>
+      </c>
+      <c r="C561" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B562" t="n">
+        <v>313.0</v>
+      </c>
+      <c r="C562" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B563" t="n">
+        <v>510.0</v>
+      </c>
+      <c r="C563" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B564" t="n">
+        <v>347.0</v>
+      </c>
+      <c r="C564" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B565" t="n">
+        <v>355.0</v>
+      </c>
+      <c r="C565" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B566" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="C566" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B567" t="n">
+        <v>334.0</v>
+      </c>
+      <c r="C567" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B568" t="n">
+        <v>447.0</v>
+      </c>
+      <c r="C568" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B569" t="n">
+        <v>340.0</v>
+      </c>
+      <c r="C569" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B570" t="n">
+        <v>299.0</v>
+      </c>
+      <c r="C570" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B571" t="n">
+        <v>358.0</v>
+      </c>
+      <c r="C571" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B572" t="n">
+        <v>387.0</v>
+      </c>
+      <c r="C572" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B573" t="n">
+        <v>466.0</v>
+      </c>
+      <c r="C573" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B574" t="n">
+        <v>341.0</v>
+      </c>
+      <c r="C574" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B575" t="n">
+        <v>329.0</v>
+      </c>
+      <c r="C575" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B576" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="C576" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B577" t="n">
+        <v>349.0</v>
+      </c>
+      <c r="C577" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B578" t="n">
+        <v>444.0</v>
+      </c>
+      <c r="C578" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B579" t="n">
+        <v>336.0</v>
+      </c>
+      <c r="C579" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B580" t="n">
+        <v>344.0</v>
+      </c>
+      <c r="C580" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B581" t="n">
+        <v>369.0</v>
+      </c>
+      <c r="C581" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B582" t="n">
+        <v>374.0</v>
+      </c>
+      <c r="C582" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B583" t="n">
+        <v>451.0</v>
+      </c>
+      <c r="C583" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B584" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="C584" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B585" t="n">
+        <v>375.0</v>
+      </c>
+      <c r="C585" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B586" t="n">
+        <v>396.0</v>
+      </c>
+      <c r="C586" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B587" t="n">
+        <v>337.0</v>
+      </c>
+      <c r="C587" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B588" t="n">
+        <v>436.0</v>
+      </c>
+      <c r="C588" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B589" t="n">
+        <v>376.0</v>
+      </c>
+      <c r="C589" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B590" t="n">
+        <v>309.0</v>
+      </c>
+      <c r="C590" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B591" t="n">
+        <v>343.0</v>
+      </c>
+      <c r="C591" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B592" t="n">
+        <v>301.0</v>
+      </c>
+      <c r="C592" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B593" t="n">
+        <v>486.0</v>
+      </c>
+      <c r="C593" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B594" t="n">
+        <v>315.0</v>
+      </c>
+      <c r="C594" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B595" t="n">
+        <v>402.0</v>
+      </c>
+      <c r="C595" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B596" t="n">
+        <v>373.0</v>
+      </c>
+      <c r="C596" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B597" t="n">
+        <v>366.0</v>
+      </c>
+      <c r="C597" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B598" t="n">
+        <v>470.0</v>
+      </c>
+      <c r="C598" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B599" t="n">
+        <v>338.0</v>
+      </c>
+      <c r="C599" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B600" t="n">
+        <v>338.0</v>
+      </c>
+      <c r="C600" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B601" t="n">
+        <v>420.0</v>
+      </c>
+      <c r="C601" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B602" t="n">
+        <v>289.0</v>
+      </c>
+      <c r="C602" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B603" t="n">
+        <v>468.0</v>
+      </c>
+      <c r="C603" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B604" t="n">
+        <v>354.0</v>
+      </c>
+      <c r="C604" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B605" t="n">
+        <v>399.0</v>
+      </c>
+      <c r="C605" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B606" t="n">
+        <v>326.0</v>
+      </c>
+      <c r="C606" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B607" t="n">
+        <v>373.0</v>
+      </c>
+      <c r="C607" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B608" t="n">
+        <v>512.0</v>
+      </c>
+      <c r="C608" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B609" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="C609" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B610" t="n">
+        <v>304.0</v>
+      </c>
+      <c r="C610" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B611" t="n">
+        <v>490.0</v>
+      </c>
+      <c r="C611" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B612" t="n">
+        <v>445.0</v>
+      </c>
+      <c r="C612" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B613" t="n">
+        <v>539.0</v>
+      </c>
+      <c r="C613" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B614" t="n">
+        <v>635.0</v>
+      </c>
+      <c r="C614" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B615" t="n">
+        <v>406.0</v>
+      </c>
+      <c r="C615" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B616" t="n">
+        <v>308.0</v>
+      </c>
+      <c r="C616" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B617" t="n">
+        <v>361.0</v>
+      </c>
+      <c r="C617" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B618" t="n">
         <v>284.0</v>
       </c>
-      <c r="C159" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="B160" t="n">
-        <v>293.0</v>
-      </c>
-      <c r="C160" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="B161" t="n">
-        <v>310.0</v>
-      </c>
-      <c r="C161" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="B162" t="n">
-        <v>288.0</v>
-      </c>
-      <c r="C162" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="B163" t="n">
-        <v>531.0</v>
-      </c>
-      <c r="C163" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="B164" t="n">
+      <c r="C618" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B619" t="n">
+        <v>456.0</v>
+      </c>
+      <c r="C619" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B620" t="n">
+        <v>275.0</v>
+      </c>
+      <c r="C620" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B621" t="n">
+        <v>368.0</v>
+      </c>
+      <c r="C621" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B622" t="n">
+        <v>314.0</v>
+      </c>
+      <c r="C622" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B623" t="n">
+        <v>461.0</v>
+      </c>
+      <c r="C623" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B624" t="n">
+        <v>318.0</v>
+      </c>
+      <c r="C624" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B625" t="n">
+        <v>297.0</v>
+      </c>
+      <c r="C625" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B626" t="n">
+        <v>318.0</v>
+      </c>
+      <c r="C626" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B627" t="n">
+        <v>312.0</v>
+      </c>
+      <c r="C627" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B628" t="n">
+        <v>504.0</v>
+      </c>
+      <c r="C628" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B629" t="n">
+        <v>331.0</v>
+      </c>
+      <c r="C629" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B630" t="n">
+        <v>390.0</v>
+      </c>
+      <c r="C630" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B631" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="C631" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B632" t="n">
+        <v>343.0</v>
+      </c>
+      <c r="C632" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B633" t="n">
+        <v>439.0</v>
+      </c>
+      <c r="C633" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B634" t="n">
+        <v>317.0</v>
+      </c>
+      <c r="C634" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B635" t="n">
+        <v>308.0</v>
+      </c>
+      <c r="C635" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B636" t="n">
+        <v>659.0</v>
+      </c>
+      <c r="C636" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B637" t="n">
+        <v>323.0</v>
+      </c>
+      <c r="C637" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B638" t="n">
+        <v>448.0</v>
+      </c>
+      <c r="C638" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B639" t="n">
+        <v>368.0</v>
+      </c>
+      <c r="C639" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B640" t="n">
         <v>325.0</v>
       </c>
-      <c r="C164" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="B165" t="n">
-        <v>301.0</v>
-      </c>
-      <c r="C165" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="B166" t="n">
-        <v>387.0</v>
-      </c>
-      <c r="C166" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="B167" t="n">
-        <v>618.0</v>
-      </c>
-      <c r="C167" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="B168" t="n">
-        <v>466.0</v>
-      </c>
-      <c r="C168" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="B169" t="n">
-        <v>326.0</v>
-      </c>
-      <c r="C169" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="B170" t="n">
-        <v>331.0</v>
-      </c>
-      <c r="C170" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="B171" t="n">
-        <v>302.0</v>
-      </c>
-      <c r="C171" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="B172" t="n">
-        <v>281.0</v>
-      </c>
-      <c r="C172" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="B173" t="n">
-        <v>313.0</v>
-      </c>
-      <c r="C173" t="s">
-        <v>407</v>
+      <c r="C640" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B641" t="n">
+        <v>412.0</v>
+      </c>
+      <c r="C641" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B642" t="n">
+        <v>437.0</v>
+      </c>
+      <c r="C642" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B643" t="n">
+        <v>616.0</v>
+      </c>
+      <c r="C643" t="s">
+        <v>894</v>
       </c>
     </row>
   </sheetData>

--- a/RR/excel/GenericFlow/NewsFeedDelete.xlsx
+++ b/RR/excel/GenericFlow/NewsFeedDelete.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="1076">
   <si>
     <t>NewsFeed ID</t>
   </si>
@@ -2716,6 +2716,549 @@
   </si>
   <si>
     <t>2024-06-01 15:45:46</t>
+  </si>
+  <si>
+    <t>2024-06-01 15:55:52</t>
+  </si>
+  <si>
+    <t>2024-06-01 16:05:53</t>
+  </si>
+  <si>
+    <t>2024-06-01 16:15:40</t>
+  </si>
+  <si>
+    <t>2024-06-01 16:25:23</t>
+  </si>
+  <si>
+    <t>2024-06-01 16:35:31</t>
+  </si>
+  <si>
+    <t>2024-06-01 16:45:32</t>
+  </si>
+  <si>
+    <t>2024-06-01 17:05:26</t>
+  </si>
+  <si>
+    <t>2024-06-01 17:15:22</t>
+  </si>
+  <si>
+    <t>2024-06-01 17:25:28</t>
+  </si>
+  <si>
+    <t>2024-06-01 17:35:31</t>
+  </si>
+  <si>
+    <t>5121778</t>
+  </si>
+  <si>
+    <t>2024-06-01 17:47:02</t>
+  </si>
+  <si>
+    <t>2024-06-01 17:55:28</t>
+  </si>
+  <si>
+    <t>2024-06-01 18:22:19</t>
+  </si>
+  <si>
+    <t>2024-06-01 18:25:32</t>
+  </si>
+  <si>
+    <t>2024-06-01 18:35:33</t>
+  </si>
+  <si>
+    <t>2024-06-01 18:45:31</t>
+  </si>
+  <si>
+    <t>2024-06-01 18:55:32</t>
+  </si>
+  <si>
+    <t>2024-06-01 19:05:31</t>
+  </si>
+  <si>
+    <t>2024-06-01 23:27:27</t>
+  </si>
+  <si>
+    <t>2024-06-01 23:35:29</t>
+  </si>
+  <si>
+    <t>2024-06-03 10:25:28</t>
+  </si>
+  <si>
+    <t>2024-06-03 10:35:25</t>
+  </si>
+  <si>
+    <t>2024-06-03 10:45:29</t>
+  </si>
+  <si>
+    <t>2024-06-03 10:55:29</t>
+  </si>
+  <si>
+    <t>2024-06-03 11:05:15</t>
+  </si>
+  <si>
+    <t>2024-06-03 11:15:35</t>
+  </si>
+  <si>
+    <t>2024-06-03 11:25:23</t>
+  </si>
+  <si>
+    <t>2024-06-03 11:35:24</t>
+  </si>
+  <si>
+    <t>2024-06-03 11:45:31</t>
+  </si>
+  <si>
+    <t>2024-06-03 11:55:20</t>
+  </si>
+  <si>
+    <t>2024-06-03 12:05:21</t>
+  </si>
+  <si>
+    <t>2024-06-03 12:15:15</t>
+  </si>
+  <si>
+    <t>2024-06-03 12:26:07</t>
+  </si>
+  <si>
+    <t>2024-06-03 12:45:22</t>
+  </si>
+  <si>
+    <t>2024-06-03 12:55:45</t>
+  </si>
+  <si>
+    <t>2024-06-03 13:05:35</t>
+  </si>
+  <si>
+    <t>2024-06-03 13:15:41</t>
+  </si>
+  <si>
+    <t>2024-06-03 13:25:50</t>
+  </si>
+  <si>
+    <t>2024-06-03 13:35:47</t>
+  </si>
+  <si>
+    <t>2024-06-03 13:45:37</t>
+  </si>
+  <si>
+    <t>2024-06-03 13:55:30</t>
+  </si>
+  <si>
+    <t>2024-06-03 14:05:33</t>
+  </si>
+  <si>
+    <t>2024-06-03 14:15:26</t>
+  </si>
+  <si>
+    <t>2024-06-03 14:25:29</t>
+  </si>
+  <si>
+    <t>2024-06-03 14:35:27</t>
+  </si>
+  <si>
+    <t>2024-06-03 14:45:22</t>
+  </si>
+  <si>
+    <t>2024-06-03 14:55:32</t>
+  </si>
+  <si>
+    <t>2024-06-03 15:05:50</t>
+  </si>
+  <si>
+    <t>2024-06-03 17:35:43</t>
+  </si>
+  <si>
+    <t>2024-06-03 17:45:30</t>
+  </si>
+  <si>
+    <t>2024-06-03 17:56:20</t>
+  </si>
+  <si>
+    <t>2024-06-03 18:05:32</t>
+  </si>
+  <si>
+    <t>5130223</t>
+  </si>
+  <si>
+    <t>2024-06-03 18:57:01</t>
+  </si>
+  <si>
+    <t>2024-06-03 19:05:35</t>
+  </si>
+  <si>
+    <t>2024-06-03 19:15:32</t>
+  </si>
+  <si>
+    <t>2024-06-03 19:25:33</t>
+  </si>
+  <si>
+    <t>2024-06-03 19:35:20</t>
+  </si>
+  <si>
+    <t>2024-06-03 19:45:19</t>
+  </si>
+  <si>
+    <t>2024-06-03 19:55:18</t>
+  </si>
+  <si>
+    <t>2024-06-03 20:05:23</t>
+  </si>
+  <si>
+    <t>2024-06-03 20:15:21</t>
+  </si>
+  <si>
+    <t>2024-06-03 20:25:23</t>
+  </si>
+  <si>
+    <t>2024-06-03 20:35:19</t>
+  </si>
+  <si>
+    <t>2024-06-03 20:45:20</t>
+  </si>
+  <si>
+    <t>2024-06-03 20:55:21</t>
+  </si>
+  <si>
+    <t>2024-06-03 21:05:21</t>
+  </si>
+  <si>
+    <t>2024-06-03 21:15:25</t>
+  </si>
+  <si>
+    <t>2024-06-03 21:25:23</t>
+  </si>
+  <si>
+    <t>2024-06-03 21:35:24</t>
+  </si>
+  <si>
+    <t>2024-06-03 21:45:21</t>
+  </si>
+  <si>
+    <t>2024-06-03 21:55:20</t>
+  </si>
+  <si>
+    <t>2024-06-03 22:05:19</t>
+  </si>
+  <si>
+    <t>2024-06-03 22:15:22</t>
+  </si>
+  <si>
+    <t>2024-06-03 22:25:24</t>
+  </si>
+  <si>
+    <t>2024-06-03 22:35:19</t>
+  </si>
+  <si>
+    <t>2024-06-03 22:45:19</t>
+  </si>
+  <si>
+    <t>2024-06-03 23:25:24</t>
+  </si>
+  <si>
+    <t>2024-06-03 23:35:17</t>
+  </si>
+  <si>
+    <t>2024-06-03 23:45:23</t>
+  </si>
+  <si>
+    <t>2024-06-03 23:55:18</t>
+  </si>
+  <si>
+    <t>2024-06-04 00:05:16</t>
+  </si>
+  <si>
+    <t>2024-06-04 00:15:19</t>
+  </si>
+  <si>
+    <t>2024-06-04 00:25:20</t>
+  </si>
+  <si>
+    <t>2024-06-04 00:35:15</t>
+  </si>
+  <si>
+    <t>2024-06-04 00:45:19</t>
+  </si>
+  <si>
+    <t>2024-06-04 00:55:17</t>
+  </si>
+  <si>
+    <t>2024-06-04 01:05:23</t>
+  </si>
+  <si>
+    <t>2024-06-04 01:15:21</t>
+  </si>
+  <si>
+    <t>2024-06-04 01:25:23</t>
+  </si>
+  <si>
+    <t>2024-06-04 01:35:18</t>
+  </si>
+  <si>
+    <t>2024-06-04 01:45:21</t>
+  </si>
+  <si>
+    <t>2024-06-04 01:55:16</t>
+  </si>
+  <si>
+    <t>2024-06-04 02:05:20</t>
+  </si>
+  <si>
+    <t>2024-06-04 02:15:21</t>
+  </si>
+  <si>
+    <t>2024-06-04 02:25:17</t>
+  </si>
+  <si>
+    <t>2024-06-04 02:35:15</t>
+  </si>
+  <si>
+    <t>2024-06-04 02:45:19</t>
+  </si>
+  <si>
+    <t>2024-06-04 02:55:15</t>
+  </si>
+  <si>
+    <t>2024-06-04 03:05:15</t>
+  </si>
+  <si>
+    <t>2024-06-04 03:15:20</t>
+  </si>
+  <si>
+    <t>2024-06-04 03:25:18</t>
+  </si>
+  <si>
+    <t>2024-06-04 03:35:15</t>
+  </si>
+  <si>
+    <t>2024-06-04 03:45:18</t>
+  </si>
+  <si>
+    <t>2024-06-04 03:55:20</t>
+  </si>
+  <si>
+    <t>2024-06-04 04:05:16</t>
+  </si>
+  <si>
+    <t>2024-06-04 04:15:17</t>
+  </si>
+  <si>
+    <t>2024-06-04 04:25:14</t>
+  </si>
+  <si>
+    <t>2024-06-04 04:35:17</t>
+  </si>
+  <si>
+    <t>2024-06-04 04:45:15</t>
+  </si>
+  <si>
+    <t>2024-06-04 04:55:17</t>
+  </si>
+  <si>
+    <t>2024-06-04 05:05:15</t>
+  </si>
+  <si>
+    <t>2024-06-04 05:15:15</t>
+  </si>
+  <si>
+    <t>2024-06-04 05:25:20</t>
+  </si>
+  <si>
+    <t>2024-06-04 05:35:14</t>
+  </si>
+  <si>
+    <t>2024-06-04 05:45:15</t>
+  </si>
+  <si>
+    <t>2024-06-04 05:55:21</t>
+  </si>
+  <si>
+    <t>2024-06-04 06:05:16</t>
+  </si>
+  <si>
+    <t>2024-06-04 06:15:14</t>
+  </si>
+  <si>
+    <t>2024-06-04 06:25:15</t>
+  </si>
+  <si>
+    <t>2024-06-04 06:35:18</t>
+  </si>
+  <si>
+    <t>2024-06-04 06:45:15</t>
+  </si>
+  <si>
+    <t>2024-06-04 06:55:15</t>
+  </si>
+  <si>
+    <t>2024-06-04 07:05:14</t>
+  </si>
+  <si>
+    <t>2024-06-04 07:15:16</t>
+  </si>
+  <si>
+    <t>2024-06-04 07:25:17</t>
+  </si>
+  <si>
+    <t>2024-06-04 07:35:13</t>
+  </si>
+  <si>
+    <t>2024-06-04 07:45:15</t>
+  </si>
+  <si>
+    <t>2024-06-04 07:55:14</t>
+  </si>
+  <si>
+    <t>2024-06-04 08:08:10</t>
+  </si>
+  <si>
+    <t>2024-06-04 08:15:16</t>
+  </si>
+  <si>
+    <t>2024-06-04 08:25:21</t>
+  </si>
+  <si>
+    <t>2024-06-04 08:35:14</t>
+  </si>
+  <si>
+    <t>2024-06-04 08:45:20</t>
+  </si>
+  <si>
+    <t>2024-06-04 10:09:30</t>
+  </si>
+  <si>
+    <t>2024-06-04 10:15:14</t>
+  </si>
+  <si>
+    <t>2024-06-04 10:25:42</t>
+  </si>
+  <si>
+    <t>2024-06-04 10:35:25</t>
+  </si>
+  <si>
+    <t>2024-06-04 10:45:21</t>
+  </si>
+  <si>
+    <t>2024-06-04 10:55:35</t>
+  </si>
+  <si>
+    <t>2024-06-04 11:05:20</t>
+  </si>
+  <si>
+    <t>2024-06-04 11:15:27</t>
+  </si>
+  <si>
+    <t>2024-06-04 11:25:35</t>
+  </si>
+  <si>
+    <t>2024-06-04 11:35:17</t>
+  </si>
+  <si>
+    <t>2024-06-04 11:45:24</t>
+  </si>
+  <si>
+    <t>2024-06-04 11:55:20</t>
+  </si>
+  <si>
+    <t>2024-06-04 12:05:30</t>
+  </si>
+  <si>
+    <t>2024-06-04 12:15:24</t>
+  </si>
+  <si>
+    <t>2024-06-04 12:25:22</t>
+  </si>
+  <si>
+    <t>2024-06-04 12:35:20</t>
+  </si>
+  <si>
+    <t>2024-06-04 12:45:24</t>
+  </si>
+  <si>
+    <t>2024-06-04 12:55:18</t>
+  </si>
+  <si>
+    <t>2024-06-04 13:05:47</t>
+  </si>
+  <si>
+    <t>2024-06-04 13:15:18</t>
+  </si>
+  <si>
+    <t>2024-06-04 13:25:26</t>
+  </si>
+  <si>
+    <t>2024-06-04 13:35:25</t>
+  </si>
+  <si>
+    <t>2024-06-04 13:45:28</t>
+  </si>
+  <si>
+    <t>2024-06-04 13:55:22</t>
+  </si>
+  <si>
+    <t>2024-06-04 14:05:30</t>
+  </si>
+  <si>
+    <t>2024-06-04 14:15:25</t>
+  </si>
+  <si>
+    <t>2024-06-04 14:25:18</t>
+  </si>
+  <si>
+    <t>2024-06-04 14:35:15</t>
+  </si>
+  <si>
+    <t>2024-06-04 14:45:15</t>
+  </si>
+  <si>
+    <t>2024-06-04 14:55:22</t>
+  </si>
+  <si>
+    <t>2024-06-04 15:05:23</t>
+  </si>
+  <si>
+    <t>2024-06-04 15:15:29</t>
+  </si>
+  <si>
+    <t>2024-06-04 15:25:36</t>
+  </si>
+  <si>
+    <t>2024-06-04 15:35:25</t>
+  </si>
+  <si>
+    <t>2024-06-04 15:45:48</t>
+  </si>
+  <si>
+    <t>2024-06-04 15:55:38</t>
+  </si>
+  <si>
+    <t>2024-06-04 16:05:28</t>
+  </si>
+  <si>
+    <t>2024-06-04 16:15:23</t>
+  </si>
+  <si>
+    <t>2024-06-04 16:25:23</t>
+  </si>
+  <si>
+    <t>2024-06-04 16:35:17</t>
+  </si>
+  <si>
+    <t>2024-06-04 16:45:30</t>
+  </si>
+  <si>
+    <t>2024-06-04 16:55:27</t>
+  </si>
+  <si>
+    <t>2024-06-04 17:07:28</t>
+  </si>
+  <si>
+    <t>2024-06-04 17:28:15</t>
+  </si>
+  <si>
+    <t>5135474</t>
+  </si>
+  <si>
+    <t>2024-06-04 18:10:24</t>
   </si>
 </sst>
 </file>
@@ -3680,7 +4223,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J252"/>
+  <dimension ref="A1:J255"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
       <selection activeCell="C249" sqref="C249"/>
@@ -5724,6 +6267,30 @@
         <v>229</v>
       </c>
     </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>905</v>
+      </c>
+      <c r="B253" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>948</v>
+      </c>
+      <c r="B254" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B255" t="s">
+        <v>229</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:J2"/>
@@ -5736,7 +6303,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C643"/>
+  <dimension ref="A1:C821"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
@@ -12822,6 +13389,1964 @@
         <v>894</v>
       </c>
     </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B644" t="n">
+        <v>353.0</v>
+      </c>
+      <c r="C644" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B645" t="n">
+        <v>436.0</v>
+      </c>
+      <c r="C645" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B646" t="n">
+        <v>383.0</v>
+      </c>
+      <c r="C646" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B647" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="C647" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B648" t="n">
+        <v>424.0</v>
+      </c>
+      <c r="C648" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B649" t="n">
+        <v>326.0</v>
+      </c>
+      <c r="C649" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B650" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="C650" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B651" t="n">
+        <v>313.0</v>
+      </c>
+      <c r="C651" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B652" t="n">
+        <v>549.0</v>
+      </c>
+      <c r="C652" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B653" t="n">
+        <v>377.0</v>
+      </c>
+      <c r="C653" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B654" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="C654" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B655" t="n">
+        <v>299.0</v>
+      </c>
+      <c r="C655" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B656" t="n">
+        <v>644.0</v>
+      </c>
+      <c r="C656" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B657" t="n">
+        <v>742.0</v>
+      </c>
+      <c r="C657" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B658" t="n">
+        <v>438.0</v>
+      </c>
+      <c r="C658" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B659" t="n">
+        <v>434.0</v>
+      </c>
+      <c r="C659" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B660" t="n">
+        <v>379.0</v>
+      </c>
+      <c r="C660" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B661" t="n">
+        <v>666.0</v>
+      </c>
+      <c r="C661" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B662" t="n">
+        <v>669.0</v>
+      </c>
+      <c r="C662" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B663" t="n">
+        <v>420.0</v>
+      </c>
+      <c r="C663" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B664" t="n">
+        <v>491.0</v>
+      </c>
+      <c r="C664" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B665" t="n">
+        <v>299.0</v>
+      </c>
+      <c r="C665" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B666" t="n">
+        <v>326.0</v>
+      </c>
+      <c r="C666" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B667" t="n">
+        <v>311.0</v>
+      </c>
+      <c r="C667" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B668" t="n">
+        <v>343.0</v>
+      </c>
+      <c r="C668" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B669" t="n">
+        <v>446.0</v>
+      </c>
+      <c r="C669" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B670" t="n">
+        <v>287.0</v>
+      </c>
+      <c r="C670" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B671" t="n">
+        <v>292.0</v>
+      </c>
+      <c r="C671" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B672" t="n">
+        <v>397.0</v>
+      </c>
+      <c r="C672" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B673" t="n">
+        <v>369.0</v>
+      </c>
+      <c r="C673" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B674" t="n">
+        <v>424.0</v>
+      </c>
+      <c r="C674" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B675" t="n">
+        <v>291.0</v>
+      </c>
+      <c r="C675" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B676" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="C676" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B677" t="n">
+        <v>328.0</v>
+      </c>
+      <c r="C677" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B678" t="n">
+        <v>654.0</v>
+      </c>
+      <c r="C678" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B679" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="C679" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B680" t="n">
+        <v>744.0</v>
+      </c>
+      <c r="C680" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B681" t="n">
+        <v>1583.0</v>
+      </c>
+      <c r="C681" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B682" t="n">
+        <v>416.0</v>
+      </c>
+      <c r="C682" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B683" t="n">
+        <v>776.0</v>
+      </c>
+      <c r="C683" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B684" t="n">
+        <v>361.0</v>
+      </c>
+      <c r="C684" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B685" t="n">
+        <v>370.0</v>
+      </c>
+      <c r="C685" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B686" t="n">
+        <v>310.0</v>
+      </c>
+      <c r="C686" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B687" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="C687" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B688" t="n">
+        <v>491.0</v>
+      </c>
+      <c r="C688" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B689" t="n">
+        <v>365.0</v>
+      </c>
+      <c r="C689" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B690" t="n">
+        <v>342.0</v>
+      </c>
+      <c r="C690" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B691" t="n">
+        <v>879.0</v>
+      </c>
+      <c r="C691" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B692" t="n">
+        <v>462.0</v>
+      </c>
+      <c r="C692" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B693" t="n">
+        <v>345.0</v>
+      </c>
+      <c r="C693" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B694" t="n">
+        <v>401.0</v>
+      </c>
+      <c r="C694" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B695" t="n">
+        <v>321.0</v>
+      </c>
+      <c r="C695" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B696" t="n">
+        <v>330.0</v>
+      </c>
+      <c r="C696" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B697" t="n">
+        <v>422.0</v>
+      </c>
+      <c r="C697" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B698" t="n">
+        <v>493.0</v>
+      </c>
+      <c r="C698" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B699" t="n">
+        <v>327.0</v>
+      </c>
+      <c r="C699" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B700" t="n">
+        <v>315.0</v>
+      </c>
+      <c r="C700" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B701" t="n">
+        <v>308.0</v>
+      </c>
+      <c r="C701" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B702" t="n">
+        <v>345.0</v>
+      </c>
+      <c r="C702" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B703" t="n">
+        <v>462.0</v>
+      </c>
+      <c r="C703" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B704" t="n">
+        <v>309.0</v>
+      </c>
+      <c r="C704" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B705" t="n">
+        <v>347.0</v>
+      </c>
+      <c r="C705" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B706" t="n">
+        <v>351.0</v>
+      </c>
+      <c r="C706" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B707" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="C707" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B708" t="n">
+        <v>441.0</v>
+      </c>
+      <c r="C708" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B709" t="n">
+        <v>397.0</v>
+      </c>
+      <c r="C709" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B710" t="n">
+        <v>348.0</v>
+      </c>
+      <c r="C710" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B711" t="n">
+        <v>322.0</v>
+      </c>
+      <c r="C711" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B712" t="n">
+        <v>381.0</v>
+      </c>
+      <c r="C712" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B713" t="n">
+        <v>444.0</v>
+      </c>
+      <c r="C713" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B714" t="n">
+        <v>368.0</v>
+      </c>
+      <c r="C714" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B715" t="n">
+        <v>302.0</v>
+      </c>
+      <c r="C715" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B716" t="n">
+        <v>334.0</v>
+      </c>
+      <c r="C716" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B717" t="n">
+        <v>369.0</v>
+      </c>
+      <c r="C717" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B718" t="n">
+        <v>480.0</v>
+      </c>
+      <c r="C718" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B719" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="C719" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B720" t="n">
+        <v>487.0</v>
+      </c>
+      <c r="C720" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B721" t="n">
+        <v>303.0</v>
+      </c>
+      <c r="C721" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B722" t="n">
+        <v>303.0</v>
+      </c>
+      <c r="C722" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B723" t="n">
+        <v>313.0</v>
+      </c>
+      <c r="C723" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B724" t="n">
+        <v>333.0</v>
+      </c>
+      <c r="C724" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B725" t="n">
+        <v>482.0</v>
+      </c>
+      <c r="C725" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B726" t="n">
+        <v>293.0</v>
+      </c>
+      <c r="C726" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B727" t="n">
+        <v>319.0</v>
+      </c>
+      <c r="C727" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B728" t="n">
+        <v>332.0</v>
+      </c>
+      <c r="C728" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B729" t="n">
+        <v>330.0</v>
+      </c>
+      <c r="C729" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B730" t="n">
+        <v>476.0</v>
+      </c>
+      <c r="C730" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B731" t="n">
+        <v>326.0</v>
+      </c>
+      <c r="C731" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B732" t="n">
+        <v>318.0</v>
+      </c>
+      <c r="C732" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B733" t="n">
+        <v>284.0</v>
+      </c>
+      <c r="C733" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B734" t="n">
+        <v>311.0</v>
+      </c>
+      <c r="C734" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B735" t="n">
+        <v>446.0</v>
+      </c>
+      <c r="C735" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B736" t="n">
+        <v>341.0</v>
+      </c>
+      <c r="C736" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B737" t="n">
+        <v>304.0</v>
+      </c>
+      <c r="C737" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B738" t="n">
+        <v>345.0</v>
+      </c>
+      <c r="C738" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B739" t="n">
+        <v>367.0</v>
+      </c>
+      <c r="C739" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B740" t="n">
+        <v>444.0</v>
+      </c>
+      <c r="C740" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B741" t="n">
+        <v>873.0</v>
+      </c>
+      <c r="C741" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B742" t="n">
+        <v>291.0</v>
+      </c>
+      <c r="C742" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B743" t="n">
+        <v>309.0</v>
+      </c>
+      <c r="C743" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B744" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="C744" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B745" t="n">
+        <v>485.0</v>
+      </c>
+      <c r="C745" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B746" t="n">
+        <v>286.0</v>
+      </c>
+      <c r="C746" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B747" t="n">
+        <v>369.0</v>
+      </c>
+      <c r="C747" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B748" t="n">
+        <v>349.0</v>
+      </c>
+      <c r="C748" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B749" t="n">
+        <v>340.0</v>
+      </c>
+      <c r="C749" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B750" t="n">
+        <v>479.0</v>
+      </c>
+      <c r="C750" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B751" t="n">
+        <v>342.0</v>
+      </c>
+      <c r="C751" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B752" t="n">
+        <v>321.0</v>
+      </c>
+      <c r="C752" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B753" t="n">
+        <v>397.0</v>
+      </c>
+      <c r="C753" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B754" t="n">
+        <v>310.0</v>
+      </c>
+      <c r="C754" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B755" t="n">
+        <v>507.0</v>
+      </c>
+      <c r="C755" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B756" t="n">
+        <v>375.0</v>
+      </c>
+      <c r="C756" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B757" t="n">
+        <v>361.0</v>
+      </c>
+      <c r="C757" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B758" t="n">
+        <v>352.0</v>
+      </c>
+      <c r="C758" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B759" t="n">
+        <v>381.0</v>
+      </c>
+      <c r="C759" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B760" t="n">
+        <v>444.0</v>
+      </c>
+      <c r="C760" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B761" t="n">
+        <v>332.0</v>
+      </c>
+      <c r="C761" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B762" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="C762" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B763" t="n">
+        <v>376.0</v>
+      </c>
+      <c r="C763" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B764" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="C764" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B765" t="n">
+        <v>505.0</v>
+      </c>
+      <c r="C765" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B766" t="n">
+        <v>371.0</v>
+      </c>
+      <c r="C766" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B767" t="n">
+        <v>333.0</v>
+      </c>
+      <c r="C767" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B768" t="n">
+        <v>293.0</v>
+      </c>
+      <c r="C768" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B769" t="n">
+        <v>351.0</v>
+      </c>
+      <c r="C769" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B770" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="C770" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B771" t="n">
+        <v>354.0</v>
+      </c>
+      <c r="C771" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B772" t="n">
+        <v>368.0</v>
+      </c>
+      <c r="C772" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B773" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="C773" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B774" t="n">
+        <v>376.0</v>
+      </c>
+      <c r="C774" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B775" t="n">
+        <v>490.0</v>
+      </c>
+      <c r="C775" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B776" t="n">
+        <v>419.0</v>
+      </c>
+      <c r="C776" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B777" t="n">
+        <v>702.0</v>
+      </c>
+      <c r="C777" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B778" t="n">
+        <v>304.0</v>
+      </c>
+      <c r="C778" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B779" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="C779" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B780" t="n">
+        <v>424.0</v>
+      </c>
+      <c r="C780" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B781" t="n">
+        <v>395.0</v>
+      </c>
+      <c r="C781" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B782" t="n">
+        <v>531.0</v>
+      </c>
+      <c r="C782" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B783" t="n">
+        <v>317.0</v>
+      </c>
+      <c r="C783" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B784" t="n">
+        <v>670.0</v>
+      </c>
+      <c r="C784" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B785" t="n">
+        <v>605.0</v>
+      </c>
+      <c r="C785" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B786" t="n">
+        <v>633.0</v>
+      </c>
+      <c r="C786" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B787" t="n">
+        <v>610.0</v>
+      </c>
+      <c r="C787" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B788" t="n">
+        <v>710.0</v>
+      </c>
+      <c r="C788" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B789" t="n">
+        <v>676.0</v>
+      </c>
+      <c r="C789" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B790" t="n">
+        <v>552.0</v>
+      </c>
+      <c r="C790" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B791" t="n">
+        <v>601.0</v>
+      </c>
+      <c r="C791" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B792" t="n">
+        <v>745.0</v>
+      </c>
+      <c r="C792" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B793" t="n">
+        <v>678.0</v>
+      </c>
+      <c r="C793" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B794" t="n">
+        <v>592.0</v>
+      </c>
+      <c r="C794" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B795" t="n">
+        <v>595.0</v>
+      </c>
+      <c r="C795" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B796" t="n">
+        <v>446.0</v>
+      </c>
+      <c r="C796" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B797" t="n">
+        <v>679.0</v>
+      </c>
+      <c r="C797" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B798" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="C798" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B799" t="n">
+        <v>418.0</v>
+      </c>
+      <c r="C799" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B800" t="n">
+        <v>658.0</v>
+      </c>
+      <c r="C800" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B801" t="n">
+        <v>658.0</v>
+      </c>
+      <c r="C801" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B802" t="n">
+        <v>596.0</v>
+      </c>
+      <c r="C802" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B803" t="n">
+        <v>647.0</v>
+      </c>
+      <c r="C803" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B804" t="n">
+        <v>301.0</v>
+      </c>
+      <c r="C804" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B805" t="n">
+        <v>643.0</v>
+      </c>
+      <c r="C805" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B806" t="n">
+        <v>655.0</v>
+      </c>
+      <c r="C806" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B807" t="n">
+        <v>641.0</v>
+      </c>
+      <c r="C807" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B808" t="n">
+        <v>517.0</v>
+      </c>
+      <c r="C808" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B809" t="n">
+        <v>634.0</v>
+      </c>
+      <c r="C809" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B810" t="n">
+        <v>624.0</v>
+      </c>
+      <c r="C810" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B811" t="n">
+        <v>19882.0</v>
+      </c>
+      <c r="C811" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B812" t="n">
+        <v>543.0</v>
+      </c>
+      <c r="C812" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B813" t="n">
+        <v>403.0</v>
+      </c>
+      <c r="C813" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B814" t="n">
+        <v>354.0</v>
+      </c>
+      <c r="C814" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B815" t="n">
+        <v>413.0</v>
+      </c>
+      <c r="C815" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B816" t="n">
+        <v>310.0</v>
+      </c>
+      <c r="C816" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B817" t="n">
+        <v>534.0</v>
+      </c>
+      <c r="C817" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B818" t="n">
+        <v>504.0</v>
+      </c>
+      <c r="C818" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B819" t="n">
+        <v>555.0</v>
+      </c>
+      <c r="C819" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B820" t="n">
+        <v>511.0</v>
+      </c>
+      <c r="C820" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B821" t="n">
+        <v>425.0</v>
+      </c>
+      <c r="C821" t="s">
+        <v>1075</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/RR/excel/GenericFlow/NewsFeedDelete.xlsx
+++ b/RR/excel/GenericFlow/NewsFeedDelete.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="1076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="1678">
   <si>
     <t>NewsFeed ID</t>
   </si>
@@ -3259,6 +3259,1812 @@
   </si>
   <si>
     <t>2024-06-04 18:10:24</t>
+  </si>
+  <si>
+    <t>2024-06-04 18:15:26</t>
+  </si>
+  <si>
+    <t>2024-06-04 18:25:25</t>
+  </si>
+  <si>
+    <t>2024-06-04 18:35:20</t>
+  </si>
+  <si>
+    <t>2024-06-04 18:45:21</t>
+  </si>
+  <si>
+    <t>2024-06-04 18:55:19</t>
+  </si>
+  <si>
+    <t>2024-06-04 19:05:28</t>
+  </si>
+  <si>
+    <t>2024-06-04 19:15:22</t>
+  </si>
+  <si>
+    <t>2024-06-04 19:25:20</t>
+  </si>
+  <si>
+    <t>2024-06-04 20:42:56</t>
+  </si>
+  <si>
+    <t>2024-06-04 20:45:34</t>
+  </si>
+  <si>
+    <t>2024-06-04 20:55:27</t>
+  </si>
+  <si>
+    <t>2024-06-04 21:05:36</t>
+  </si>
+  <si>
+    <t>2024-06-04 21:15:51</t>
+  </si>
+  <si>
+    <t>2024-06-04 21:25:27</t>
+  </si>
+  <si>
+    <t>2024-06-04 21:35:22</t>
+  </si>
+  <si>
+    <t>2024-06-04 21:45:36</t>
+  </si>
+  <si>
+    <t>2024-06-04 21:55:37</t>
+  </si>
+  <si>
+    <t>2024-06-04 22:05:22</t>
+  </si>
+  <si>
+    <t>2024-06-04 22:15:21</t>
+  </si>
+  <si>
+    <t>2024-06-04 22:25:25</t>
+  </si>
+  <si>
+    <t>2024-06-04 22:35:17</t>
+  </si>
+  <si>
+    <t>2024-06-04 22:45:21</t>
+  </si>
+  <si>
+    <t>5136390</t>
+  </si>
+  <si>
+    <t>2024-06-04 22:59:10</t>
+  </si>
+  <si>
+    <t>2024-06-04 23:05:18</t>
+  </si>
+  <si>
+    <t>2024-06-04 23:15:20</t>
+  </si>
+  <si>
+    <t>2024-06-04 23:25:16</t>
+  </si>
+  <si>
+    <t>2024-06-04 23:35:14</t>
+  </si>
+  <si>
+    <t>2024-06-04 23:45:19</t>
+  </si>
+  <si>
+    <t>2024-06-04 23:55:17</t>
+  </si>
+  <si>
+    <t>2024-06-05 10:49:09</t>
+  </si>
+  <si>
+    <t>2024-06-05 10:55:13</t>
+  </si>
+  <si>
+    <t>2024-06-05 11:05:10</t>
+  </si>
+  <si>
+    <t>2024-06-05 11:15:13</t>
+  </si>
+  <si>
+    <t>2024-06-05 11:27:33</t>
+  </si>
+  <si>
+    <t>2024-06-05 11:37:12</t>
+  </si>
+  <si>
+    <t>2024-06-05 11:46:32</t>
+  </si>
+  <si>
+    <t>2024-06-05 12:15:18</t>
+  </si>
+  <si>
+    <t>2024-06-05 12:25:11</t>
+  </si>
+  <si>
+    <t>2024-06-05 12:35:14</t>
+  </si>
+  <si>
+    <t>2024-06-05 13:05:21</t>
+  </si>
+  <si>
+    <t>2024-06-05 13:15:30</t>
+  </si>
+  <si>
+    <t>2024-06-05 13:25:23</t>
+  </si>
+  <si>
+    <t>2024-06-05 13:35:19</t>
+  </si>
+  <si>
+    <t>2024-06-05 13:45:21</t>
+  </si>
+  <si>
+    <t>2024-06-05 13:55:12</t>
+  </si>
+  <si>
+    <t>2024-06-05 14:05:10</t>
+  </si>
+  <si>
+    <t>2024-06-05 14:45:13</t>
+  </si>
+  <si>
+    <t>2024-06-05 14:55:15</t>
+  </si>
+  <si>
+    <t>2024-06-05 15:05:14</t>
+  </si>
+  <si>
+    <t>2024-06-05 15:15:13</t>
+  </si>
+  <si>
+    <t>2024-06-05 15:25:11</t>
+  </si>
+  <si>
+    <t>2024-06-05 15:35:11</t>
+  </si>
+  <si>
+    <t>2024-06-05 15:45:17</t>
+  </si>
+  <si>
+    <t>2024-06-05 15:55:16</t>
+  </si>
+  <si>
+    <t>2024-06-05 16:54:37</t>
+  </si>
+  <si>
+    <t>5144449</t>
+  </si>
+  <si>
+    <t>2024-06-05 19:05:07</t>
+  </si>
+  <si>
+    <t>5150506</t>
+  </si>
+  <si>
+    <t>2024-06-06 10:26:49</t>
+  </si>
+  <si>
+    <t>2024-06-06 10:35:09</t>
+  </si>
+  <si>
+    <t>5154177</t>
+  </si>
+  <si>
+    <t>5163120</t>
+  </si>
+  <si>
+    <t>5173050</t>
+  </si>
+  <si>
+    <t>5176026</t>
+  </si>
+  <si>
+    <t>5183956</t>
+  </si>
+  <si>
+    <t>5195209</t>
+  </si>
+  <si>
+    <t>5198239</t>
+  </si>
+  <si>
+    <t>5215324</t>
+  </si>
+  <si>
+    <t>5219972</t>
+  </si>
+  <si>
+    <t>5225826</t>
+  </si>
+  <si>
+    <t>5226758</t>
+  </si>
+  <si>
+    <t>5232929</t>
+  </si>
+  <si>
+    <t>5242677</t>
+  </si>
+  <si>
+    <t>5249274</t>
+  </si>
+  <si>
+    <t>5254925</t>
+  </si>
+  <si>
+    <t>5261249</t>
+  </si>
+  <si>
+    <t>2024-06-26 20:03:38</t>
+  </si>
+  <si>
+    <t>2024-06-26 20:05:22</t>
+  </si>
+  <si>
+    <t>2024-06-26 20:07:48</t>
+  </si>
+  <si>
+    <t>2024-06-26 20:10:47</t>
+  </si>
+  <si>
+    <t>2024-06-26 20:13:42</t>
+  </si>
+  <si>
+    <t>2024-06-26 20:16:40</t>
+  </si>
+  <si>
+    <t>2024-06-26 20:19:42</t>
+  </si>
+  <si>
+    <t>2024-06-26 20:22:40</t>
+  </si>
+  <si>
+    <t>2024-06-27 03:01:26</t>
+  </si>
+  <si>
+    <t>2024-06-27 03:03:18</t>
+  </si>
+  <si>
+    <t>2024-06-27 10:29:02</t>
+  </si>
+  <si>
+    <t>2024-06-27 10:30:40</t>
+  </si>
+  <si>
+    <t>2024-06-27 10:32:41</t>
+  </si>
+  <si>
+    <t>2024-06-27 10:34:49</t>
+  </si>
+  <si>
+    <t>2024-06-27 10:37:43</t>
+  </si>
+  <si>
+    <t>2024-06-27 10:40:43</t>
+  </si>
+  <si>
+    <t>2024-06-27 10:43:44</t>
+  </si>
+  <si>
+    <t>2024-06-27 10:46:43</t>
+  </si>
+  <si>
+    <t>2024-06-27 10:49:42</t>
+  </si>
+  <si>
+    <t>2024-06-27 10:52:50</t>
+  </si>
+  <si>
+    <t>2024-06-27 10:55:43</t>
+  </si>
+  <si>
+    <t>2024-06-27 10:58:46</t>
+  </si>
+  <si>
+    <t>2024-06-27 11:01:48</t>
+  </si>
+  <si>
+    <t>2024-06-27 11:04:51</t>
+  </si>
+  <si>
+    <t>2024-06-27 11:07:50</t>
+  </si>
+  <si>
+    <t>2024-06-27 11:10:49</t>
+  </si>
+  <si>
+    <t>2024-06-27 11:14:21</t>
+  </si>
+  <si>
+    <t>2024-06-27 11:16:52</t>
+  </si>
+  <si>
+    <t>2024-06-27 11:19:52</t>
+  </si>
+  <si>
+    <t>2024-06-27 11:22:48</t>
+  </si>
+  <si>
+    <t>2024-06-27 11:25:54</t>
+  </si>
+  <si>
+    <t>2024-06-27 11:28:45</t>
+  </si>
+  <si>
+    <t>2024-06-27 11:31:57</t>
+  </si>
+  <si>
+    <t>2024-06-27 11:34:49</t>
+  </si>
+  <si>
+    <t>2024-06-27 11:37:53</t>
+  </si>
+  <si>
+    <t>2024-06-27 11:41:02</t>
+  </si>
+  <si>
+    <t>2024-06-27 11:44:00</t>
+  </si>
+  <si>
+    <t>2024-06-27 11:47:21</t>
+  </si>
+  <si>
+    <t>2024-06-27 11:49:49</t>
+  </si>
+  <si>
+    <t>2024-06-27 11:52:49</t>
+  </si>
+  <si>
+    <t>2024-06-27 11:55:49</t>
+  </si>
+  <si>
+    <t>2024-06-27 11:58:47</t>
+  </si>
+  <si>
+    <t>2024-06-27 12:01:46</t>
+  </si>
+  <si>
+    <t>2024-06-27 12:04:50</t>
+  </si>
+  <si>
+    <t>2024-06-27 12:07:50</t>
+  </si>
+  <si>
+    <t>2024-06-27 12:10:48</t>
+  </si>
+  <si>
+    <t>2024-06-27 12:13:46</t>
+  </si>
+  <si>
+    <t>2024-06-27 12:16:50</t>
+  </si>
+  <si>
+    <t>2024-06-27 12:19:54</t>
+  </si>
+  <si>
+    <t>2024-06-27 12:23:03</t>
+  </si>
+  <si>
+    <t>2024-06-27 12:26:15</t>
+  </si>
+  <si>
+    <t>2024-06-27 12:28:50</t>
+  </si>
+  <si>
+    <t>2024-06-27 12:32:09</t>
+  </si>
+  <si>
+    <t>2024-06-27 12:37:44</t>
+  </si>
+  <si>
+    <t>2024-06-27 12:39:46</t>
+  </si>
+  <si>
+    <t>2024-06-27 12:41:57</t>
+  </si>
+  <si>
+    <t>2024-06-27 12:44:23</t>
+  </si>
+  <si>
+    <t>2024-06-27 12:46:48</t>
+  </si>
+  <si>
+    <t>2024-06-27 12:49:57</t>
+  </si>
+  <si>
+    <t>2024-06-27 12:53:56</t>
+  </si>
+  <si>
+    <t>2024-06-27 12:55:50</t>
+  </si>
+  <si>
+    <t>2024-06-27 12:58:45</t>
+  </si>
+  <si>
+    <t>2024-06-27 13:01:44</t>
+  </si>
+  <si>
+    <t>2024-06-27 13:04:45</t>
+  </si>
+  <si>
+    <t>2024-06-27 13:07:47</t>
+  </si>
+  <si>
+    <t>2024-06-27 13:10:46</t>
+  </si>
+  <si>
+    <t>2024-06-27 13:13:50</t>
+  </si>
+  <si>
+    <t>2024-06-27 13:16:48</t>
+  </si>
+  <si>
+    <t>2024-06-27 13:19:47</t>
+  </si>
+  <si>
+    <t>2024-06-27 13:23:09</t>
+  </si>
+  <si>
+    <t>2024-06-27 13:26:05</t>
+  </si>
+  <si>
+    <t>2024-06-27 13:29:18</t>
+  </si>
+  <si>
+    <t>2024-06-27 13:31:55</t>
+  </si>
+  <si>
+    <t>2024-06-27 13:34:53</t>
+  </si>
+  <si>
+    <t>2024-06-27 13:37:53</t>
+  </si>
+  <si>
+    <t>2024-06-27 13:41:03</t>
+  </si>
+  <si>
+    <t>2024-06-27 13:43:49</t>
+  </si>
+  <si>
+    <t>2024-06-27 13:46:47</t>
+  </si>
+  <si>
+    <t>2024-06-27 13:49:45</t>
+  </si>
+  <si>
+    <t>2024-06-27 13:52:44</t>
+  </si>
+  <si>
+    <t>2024-06-27 13:55:51</t>
+  </si>
+  <si>
+    <t>2024-06-27 13:58:48</t>
+  </si>
+  <si>
+    <t>2024-06-27 14:01:48</t>
+  </si>
+  <si>
+    <t>2024-06-27 14:04:46</t>
+  </si>
+  <si>
+    <t>2024-06-27 14:07:49</t>
+  </si>
+  <si>
+    <t>2024-06-27 14:10:45</t>
+  </si>
+  <si>
+    <t>2024-06-27 14:13:48</t>
+  </si>
+  <si>
+    <t>2024-06-27 14:16:56</t>
+  </si>
+  <si>
+    <t>2024-06-27 14:19:49</t>
+  </si>
+  <si>
+    <t>2024-06-27 14:22:54</t>
+  </si>
+  <si>
+    <t>2024-06-27 14:25:43</t>
+  </si>
+  <si>
+    <t>2024-06-27 14:28:44</t>
+  </si>
+  <si>
+    <t>2024-06-27 14:31:56</t>
+  </si>
+  <si>
+    <t>2024-06-27 14:35:14</t>
+  </si>
+  <si>
+    <t>2024-06-27 14:38:07</t>
+  </si>
+  <si>
+    <t>2024-06-27 14:41:16</t>
+  </si>
+  <si>
+    <t>2024-06-27 14:44:20</t>
+  </si>
+  <si>
+    <t>2024-06-27 14:47:18</t>
+  </si>
+  <si>
+    <t>2024-06-27 14:49:59</t>
+  </si>
+  <si>
+    <t>2024-06-27 14:52:49</t>
+  </si>
+  <si>
+    <t>2024-06-27 14:55:41</t>
+  </si>
+  <si>
+    <t>2024-06-27 14:58:42</t>
+  </si>
+  <si>
+    <t>2024-06-27 15:01:48</t>
+  </si>
+  <si>
+    <t>2024-06-27 15:04:47</t>
+  </si>
+  <si>
+    <t>2024-06-27 15:07:53</t>
+  </si>
+  <si>
+    <t>2024-06-27 15:10:48</t>
+  </si>
+  <si>
+    <t>2024-06-27 15:13:48</t>
+  </si>
+  <si>
+    <t>2024-06-27 15:16:50</t>
+  </si>
+  <si>
+    <t>2024-06-27 15:19:42</t>
+  </si>
+  <si>
+    <t>2024-06-27 15:22:42</t>
+  </si>
+  <si>
+    <t>2024-06-27 15:25:37</t>
+  </si>
+  <si>
+    <t>2024-06-27 15:28:39</t>
+  </si>
+  <si>
+    <t>2024-06-27 15:31:41</t>
+  </si>
+  <si>
+    <t>2024-06-27 15:34:42</t>
+  </si>
+  <si>
+    <t>2024-06-27 15:37:48</t>
+  </si>
+  <si>
+    <t>2024-06-27 15:40:47</t>
+  </si>
+  <si>
+    <t>2024-06-27 15:43:56</t>
+  </si>
+  <si>
+    <t>2024-06-27 15:46:58</t>
+  </si>
+  <si>
+    <t>2024-06-27 15:49:47</t>
+  </si>
+  <si>
+    <t>2024-06-27 15:52:46</t>
+  </si>
+  <si>
+    <t>2024-06-27 15:55:54</t>
+  </si>
+  <si>
+    <t>2024-06-27 15:59:15</t>
+  </si>
+  <si>
+    <t>2024-06-27 16:01:54</t>
+  </si>
+  <si>
+    <t>2024-06-27 16:04:46</t>
+  </si>
+  <si>
+    <t>2024-06-27 16:07:43</t>
+  </si>
+  <si>
+    <t>2024-06-27 16:10:50</t>
+  </si>
+  <si>
+    <t>2024-06-27 16:13:49</t>
+  </si>
+  <si>
+    <t>2024-06-27 16:16:48</t>
+  </si>
+  <si>
+    <t>2024-06-27 16:19:48</t>
+  </si>
+  <si>
+    <t>2024-06-27 16:22:46</t>
+  </si>
+  <si>
+    <t>2024-06-27 16:25:50</t>
+  </si>
+  <si>
+    <t>2024-06-27 16:28:54</t>
+  </si>
+  <si>
+    <t>2024-06-27 16:31:48</t>
+  </si>
+  <si>
+    <t>2024-06-27 16:34:52</t>
+  </si>
+  <si>
+    <t>2024-06-27 16:37:46</t>
+  </si>
+  <si>
+    <t>2024-06-27 16:40:49</t>
+  </si>
+  <si>
+    <t>2024-06-27 16:43:48</t>
+  </si>
+  <si>
+    <t>2024-06-27 16:46:41</t>
+  </si>
+  <si>
+    <t>2024-06-27 16:49:42</t>
+  </si>
+  <si>
+    <t>2024-06-27 16:52:53</t>
+  </si>
+  <si>
+    <t>2024-06-27 16:55:53</t>
+  </si>
+  <si>
+    <t>2024-06-27 16:59:15</t>
+  </si>
+  <si>
+    <t>2024-06-27 17:01:50</t>
+  </si>
+  <si>
+    <t>2024-06-27 17:04:45</t>
+  </si>
+  <si>
+    <t>2024-06-27 17:07:41</t>
+  </si>
+  <si>
+    <t>2024-06-27 17:10:46</t>
+  </si>
+  <si>
+    <t>2024-06-27 17:13:45</t>
+  </si>
+  <si>
+    <t>2024-06-27 17:16:40</t>
+  </si>
+  <si>
+    <t>2024-06-27 17:19:42</t>
+  </si>
+  <si>
+    <t>2024-06-27 17:22:46</t>
+  </si>
+  <si>
+    <t>2024-06-27 17:25:41</t>
+  </si>
+  <si>
+    <t>2024-06-27 17:29:00</t>
+  </si>
+  <si>
+    <t>5269328</t>
+  </si>
+  <si>
+    <t>2024-06-27 18:28:34</t>
+  </si>
+  <si>
+    <t>2024-06-27 18:30:54</t>
+  </si>
+  <si>
+    <t>2024-06-27 18:33:24</t>
+  </si>
+  <si>
+    <t>2024-06-27 18:35:48</t>
+  </si>
+  <si>
+    <t>2024-06-27 18:38:14</t>
+  </si>
+  <si>
+    <t>2024-06-27 18:40:50</t>
+  </si>
+  <si>
+    <t>2024-06-27 18:43:53</t>
+  </si>
+  <si>
+    <t>2024-06-27 18:47:14</t>
+  </si>
+  <si>
+    <t>2024-06-27 18:49:53</t>
+  </si>
+  <si>
+    <t>2024-06-27 18:56:43</t>
+  </si>
+  <si>
+    <t>2024-06-27 18:59:54</t>
+  </si>
+  <si>
+    <t>2024-06-27 19:01:56</t>
+  </si>
+  <si>
+    <t>2024-06-27 19:05:06</t>
+  </si>
+  <si>
+    <t>2024-06-27 19:07:42</t>
+  </si>
+  <si>
+    <t>2024-06-27 19:10:48</t>
+  </si>
+  <si>
+    <t>2024-06-27 19:16:36</t>
+  </si>
+  <si>
+    <t>2024-06-27 19:17:59</t>
+  </si>
+  <si>
+    <t>2024-06-27 19:19:39</t>
+  </si>
+  <si>
+    <t>2024-06-27 19:26:29</t>
+  </si>
+  <si>
+    <t>2024-06-27 19:28:45</t>
+  </si>
+  <si>
+    <t>2024-06-27 19:31:59</t>
+  </si>
+  <si>
+    <t>2024-06-28 11:15:41</t>
+  </si>
+  <si>
+    <t>2024-06-28 11:18:10</t>
+  </si>
+  <si>
+    <t>2024-06-28 11:19:44</t>
+  </si>
+  <si>
+    <t>2024-06-28 11:22:48</t>
+  </si>
+  <si>
+    <t>2024-06-28 11:25:41</t>
+  </si>
+  <si>
+    <t>2024-06-28 11:28:50</t>
+  </si>
+  <si>
+    <t>2024-06-28 11:33:21</t>
+  </si>
+  <si>
+    <t>2024-06-28 11:35:33</t>
+  </si>
+  <si>
+    <t>2024-06-28 11:39:23</t>
+  </si>
+  <si>
+    <t>2024-06-28 11:42:04</t>
+  </si>
+  <si>
+    <t>2024-06-28 11:44:54</t>
+  </si>
+  <si>
+    <t>2024-06-28 11:47:07</t>
+  </si>
+  <si>
+    <t>2024-06-28 11:49:36</t>
+  </si>
+  <si>
+    <t>2024-06-28 11:52:40</t>
+  </si>
+  <si>
+    <t>2024-06-28 11:55:45</t>
+  </si>
+  <si>
+    <t>2024-06-28 11:58:54</t>
+  </si>
+  <si>
+    <t>2024-06-28 12:01:52</t>
+  </si>
+  <si>
+    <t>2024-06-28 12:04:46</t>
+  </si>
+  <si>
+    <t>2024-06-28 12:07:51</t>
+  </si>
+  <si>
+    <t>2024-06-28 12:11:14</t>
+  </si>
+  <si>
+    <t>2024-06-28 12:13:39</t>
+  </si>
+  <si>
+    <t>2024-06-28 12:16:44</t>
+  </si>
+  <si>
+    <t>2024-06-28 12:19:48</t>
+  </si>
+  <si>
+    <t>2024-06-28 12:22:42</t>
+  </si>
+  <si>
+    <t>2024-06-28 12:25:48</t>
+  </si>
+  <si>
+    <t>2024-06-28 12:29:58</t>
+  </si>
+  <si>
+    <t>2024-06-28 12:36:34</t>
+  </si>
+  <si>
+    <t>2024-06-28 12:38:30</t>
+  </si>
+  <si>
+    <t>2024-06-28 12:40:48</t>
+  </si>
+  <si>
+    <t>2024-06-28 12:44:08</t>
+  </si>
+  <si>
+    <t>2024-06-28 12:46:50</t>
+  </si>
+  <si>
+    <t>2024-06-28 12:49:54</t>
+  </si>
+  <si>
+    <t>2024-06-28 12:52:43</t>
+  </si>
+  <si>
+    <t>2024-06-28 12:55:45</t>
+  </si>
+  <si>
+    <t>2024-06-28 12:58:51</t>
+  </si>
+  <si>
+    <t>2024-06-28 13:01:44</t>
+  </si>
+  <si>
+    <t>2024-06-28 13:04:42</t>
+  </si>
+  <si>
+    <t>2024-06-28 13:07:48</t>
+  </si>
+  <si>
+    <t>2024-06-28 13:10:49</t>
+  </si>
+  <si>
+    <t>2024-06-28 13:13:46</t>
+  </si>
+  <si>
+    <t>2024-06-28 13:16:48</t>
+  </si>
+  <si>
+    <t>2024-06-28 13:19:53</t>
+  </si>
+  <si>
+    <t>2024-06-28 13:22:41</t>
+  </si>
+  <si>
+    <t>2024-06-28 13:25:43</t>
+  </si>
+  <si>
+    <t>2024-06-28 13:29:17</t>
+  </si>
+  <si>
+    <t>2024-06-28 13:31:44</t>
+  </si>
+  <si>
+    <t>2024-06-28 13:34:50</t>
+  </si>
+  <si>
+    <t>2024-06-28 13:38:02</t>
+  </si>
+  <si>
+    <t>2024-06-28 13:40:41</t>
+  </si>
+  <si>
+    <t>2024-06-28 13:43:58</t>
+  </si>
+  <si>
+    <t>2024-06-28 13:46:48</t>
+  </si>
+  <si>
+    <t>2024-06-28 13:49:48</t>
+  </si>
+  <si>
+    <t>2024-06-28 13:52:47</t>
+  </si>
+  <si>
+    <t>2024-06-28 13:55:45</t>
+  </si>
+  <si>
+    <t>2024-06-28 13:59:06</t>
+  </si>
+  <si>
+    <t>2024-06-28 14:01:40</t>
+  </si>
+  <si>
+    <t>2024-06-28 14:04:49</t>
+  </si>
+  <si>
+    <t>2024-06-28 14:07:47</t>
+  </si>
+  <si>
+    <t>2024-06-28 14:10:48</t>
+  </si>
+  <si>
+    <t>2024-06-28 14:13:49</t>
+  </si>
+  <si>
+    <t>2024-06-28 14:16:47</t>
+  </si>
+  <si>
+    <t>2024-06-28 14:19:41</t>
+  </si>
+  <si>
+    <t>2024-06-28 14:22:40</t>
+  </si>
+  <si>
+    <t>2024-06-28 14:25:43</t>
+  </si>
+  <si>
+    <t>2024-06-28 14:28:38</t>
+  </si>
+  <si>
+    <t>2024-06-28 14:31:41</t>
+  </si>
+  <si>
+    <t>2024-06-28 14:34:38</t>
+  </si>
+  <si>
+    <t>2024-06-28 14:37:38</t>
+  </si>
+  <si>
+    <t>2024-06-28 14:40:40</t>
+  </si>
+  <si>
+    <t>2024-06-28 14:43:37</t>
+  </si>
+  <si>
+    <t>2024-06-28 14:47:04</t>
+  </si>
+  <si>
+    <t>2024-06-28 14:49:39</t>
+  </si>
+  <si>
+    <t>2024-06-28 14:52:38</t>
+  </si>
+  <si>
+    <t>2024-06-28 14:56:07</t>
+  </si>
+  <si>
+    <t>2024-06-28 14:58:44</t>
+  </si>
+  <si>
+    <t>2024-06-28 15:01:49</t>
+  </si>
+  <si>
+    <t>2024-06-28 15:05:05</t>
+  </si>
+  <si>
+    <t>2024-06-28 15:07:46</t>
+  </si>
+  <si>
+    <t>2024-06-28 15:11:06</t>
+  </si>
+  <si>
+    <t>2024-06-28 15:13:46</t>
+  </si>
+  <si>
+    <t>2024-06-28 15:16:45</t>
+  </si>
+  <si>
+    <t>2024-06-28 15:19:45</t>
+  </si>
+  <si>
+    <t>2024-06-28 15:22:49</t>
+  </si>
+  <si>
+    <t>2024-06-28 15:26:00</t>
+  </si>
+  <si>
+    <t>2024-06-28 15:28:47</t>
+  </si>
+  <si>
+    <t>2024-06-28 15:31:46</t>
+  </si>
+  <si>
+    <t>2024-06-28 15:34:44</t>
+  </si>
+  <si>
+    <t>2024-06-28 15:37:48</t>
+  </si>
+  <si>
+    <t>2024-06-28 15:40:49</t>
+  </si>
+  <si>
+    <t>2024-06-28 15:43:49</t>
+  </si>
+  <si>
+    <t>2024-06-28 15:46:44</t>
+  </si>
+  <si>
+    <t>2024-06-28 15:49:42</t>
+  </si>
+  <si>
+    <t>2024-06-28 15:52:46</t>
+  </si>
+  <si>
+    <t>2024-06-28 15:55:48</t>
+  </si>
+  <si>
+    <t>2024-06-28 15:58:50</t>
+  </si>
+  <si>
+    <t>2024-06-28 16:01:46</t>
+  </si>
+  <si>
+    <t>2024-06-28 16:04:45</t>
+  </si>
+  <si>
+    <t>2024-06-28 16:07:45</t>
+  </si>
+  <si>
+    <t>2024-06-28 16:10:50</t>
+  </si>
+  <si>
+    <t>2024-06-28 16:14:03</t>
+  </si>
+  <si>
+    <t>2024-06-28 16:16:56</t>
+  </si>
+  <si>
+    <t>2024-06-28 16:19:54</t>
+  </si>
+  <si>
+    <t>2024-06-28 16:22:48</t>
+  </si>
+  <si>
+    <t>2024-06-28 16:25:57</t>
+  </si>
+  <si>
+    <t>2024-06-28 16:28:48</t>
+  </si>
+  <si>
+    <t>2024-06-28 16:31:48</t>
+  </si>
+  <si>
+    <t>2024-06-28 16:34:50</t>
+  </si>
+  <si>
+    <t>2024-06-28 16:37:53</t>
+  </si>
+  <si>
+    <t>2024-06-28 16:41:01</t>
+  </si>
+  <si>
+    <t>2024-06-28 16:43:51</t>
+  </si>
+  <si>
+    <t>2024-06-28 16:46:52</t>
+  </si>
+  <si>
+    <t>2024-06-28 16:49:47</t>
+  </si>
+  <si>
+    <t>2024-06-28 16:52:51</t>
+  </si>
+  <si>
+    <t>2024-06-28 16:56:00</t>
+  </si>
+  <si>
+    <t>2024-06-28 17:03:03</t>
+  </si>
+  <si>
+    <t>2024-06-28 17:05:17</t>
+  </si>
+  <si>
+    <t>2024-06-28 17:07:57</t>
+  </si>
+  <si>
+    <t>2024-06-28 17:12:22</t>
+  </si>
+  <si>
+    <t>2024-06-28 17:15:25</t>
+  </si>
+  <si>
+    <t>2024-06-28 17:19:34</t>
+  </si>
+  <si>
+    <t>2024-06-28 17:23:28</t>
+  </si>
+  <si>
+    <t>2024-06-28 17:27:38</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2024-06-28 18:19:19</t>
+  </si>
+  <si>
+    <t>2024-06-28 18:20:49</t>
+  </si>
+  <si>
+    <t>2024-06-28 18:22:39</t>
+  </si>
+  <si>
+    <t>2024-06-28 18:25:41</t>
+  </si>
+  <si>
+    <t>2024-06-28 18:29:00</t>
+  </si>
+  <si>
+    <t>2024-06-28 18:46:57</t>
+  </si>
+  <si>
+    <t>2024-06-28 18:49:41</t>
+  </si>
+  <si>
+    <t>2024-06-28 18:52:50</t>
+  </si>
+  <si>
+    <t>2024-06-28 18:55:47</t>
+  </si>
+  <si>
+    <t>2024-06-28 18:58:50</t>
+  </si>
+  <si>
+    <t>2024-06-28 19:01:51</t>
+  </si>
+  <si>
+    <t>2024-06-28 19:04:48</t>
+  </si>
+  <si>
+    <t>2024-06-28 19:07:48</t>
+  </si>
+  <si>
+    <t>2024-06-28 19:10:48</t>
+  </si>
+  <si>
+    <t>2024-06-28 19:13:55</t>
+  </si>
+  <si>
+    <t>2024-06-28 19:16:48</t>
+  </si>
+  <si>
+    <t>2024-06-28 19:19:45</t>
+  </si>
+  <si>
+    <t>2024-06-28 19:22:50</t>
+  </si>
+  <si>
+    <t>2024-06-28 19:25:46</t>
+  </si>
+  <si>
+    <t>2024-06-28 19:28:49</t>
+  </si>
+  <si>
+    <t>2024-06-28 19:31:49</t>
+  </si>
+  <si>
+    <t>2024-06-28 19:34:48</t>
+  </si>
+  <si>
+    <t>2024-06-28 19:37:48</t>
+  </si>
+  <si>
+    <t>2024-06-28 19:40:45</t>
+  </si>
+  <si>
+    <t>2024-06-28 19:43:47</t>
+  </si>
+  <si>
+    <t>2024-06-28 19:46:52</t>
+  </si>
+  <si>
+    <t>2024-06-28 19:49:45</t>
+  </si>
+  <si>
+    <t>2024-06-28 19:52:47</t>
+  </si>
+  <si>
+    <t>2024-06-28 19:55:50</t>
+  </si>
+  <si>
+    <t>2024-06-28 19:58:50</t>
+  </si>
+  <si>
+    <t>2024-06-28 20:01:48</t>
+  </si>
+  <si>
+    <t>2024-06-28 20:04:47</t>
+  </si>
+  <si>
+    <t>2024-06-28 20:07:45</t>
+  </si>
+  <si>
+    <t>2024-06-28 20:10:42</t>
+  </si>
+  <si>
+    <t>2024-06-28 20:13:48</t>
+  </si>
+  <si>
+    <t>2024-06-28 20:16:47</t>
+  </si>
+  <si>
+    <t>2024-06-28 20:19:46</t>
+  </si>
+  <si>
+    <t>2024-06-28 20:22:47</t>
+  </si>
+  <si>
+    <t>2024-06-28 20:25:49</t>
+  </si>
+  <si>
+    <t>2024-06-28 20:28:47</t>
+  </si>
+  <si>
+    <t>2024-06-28 20:31:46</t>
+  </si>
+  <si>
+    <t>2024-06-28 20:34:49</t>
+  </si>
+  <si>
+    <t>2024-06-28 20:37:46</t>
+  </si>
+  <si>
+    <t>2024-06-28 20:40:46</t>
+  </si>
+  <si>
+    <t>2024-06-28 20:43:49</t>
+  </si>
+  <si>
+    <t>2024-06-28 20:46:48</t>
+  </si>
+  <si>
+    <t>2024-06-28 20:49:47</t>
+  </si>
+  <si>
+    <t>2024-06-28 20:52:52</t>
+  </si>
+  <si>
+    <t>2024-06-28 20:55:50</t>
+  </si>
+  <si>
+    <t>2024-06-28 20:58:48</t>
+  </si>
+  <si>
+    <t>2024-06-28 21:01:48</t>
+  </si>
+  <si>
+    <t>2024-06-28 21:04:45</t>
+  </si>
+  <si>
+    <t>2024-06-28 21:07:46</t>
+  </si>
+  <si>
+    <t>2024-06-28 21:10:47</t>
+  </si>
+  <si>
+    <t>2024-06-28 21:13:47</t>
+  </si>
+  <si>
+    <t>2024-06-28 21:16:48</t>
+  </si>
+  <si>
+    <t>2024-06-28 21:19:47</t>
+  </si>
+  <si>
+    <t>2024-06-28 21:22:49</t>
+  </si>
+  <si>
+    <t>2024-06-28 21:25:49</t>
+  </si>
+  <si>
+    <t>2024-06-28 21:28:46</t>
+  </si>
+  <si>
+    <t>2024-06-28 21:31:48</t>
+  </si>
+  <si>
+    <t>2024-06-28 21:34:47</t>
+  </si>
+  <si>
+    <t>2024-06-28 21:37:44</t>
+  </si>
+  <si>
+    <t>2024-06-28 21:40:49</t>
+  </si>
+  <si>
+    <t>2024-06-28 21:43:46</t>
+  </si>
+  <si>
+    <t>2024-06-28 21:46:49</t>
+  </si>
+  <si>
+    <t>2024-06-28 21:49:45</t>
+  </si>
+  <si>
+    <t>2024-06-28 21:52:50</t>
+  </si>
+  <si>
+    <t>2024-06-28 21:55:44</t>
+  </si>
+  <si>
+    <t>2024-06-28 21:58:44</t>
+  </si>
+  <si>
+    <t>2024-06-28 22:01:43</t>
+  </si>
+  <si>
+    <t>2024-06-28 22:15:24</t>
+  </si>
+  <si>
+    <t>2024-06-28 22:17:31</t>
+  </si>
+  <si>
+    <t>2024-06-28 22:19:44</t>
+  </si>
+  <si>
+    <t>2024-06-28 22:22:43</t>
+  </si>
+  <si>
+    <t>2024-07-01 10:40:54</t>
+  </si>
+  <si>
+    <t>2024-07-01 10:44:01</t>
+  </si>
+  <si>
+    <t>2024-07-01 10:47:00</t>
+  </si>
+  <si>
+    <t>2024-07-01 10:51:14</t>
+  </si>
+  <si>
+    <t>2024-07-01 10:56:03</t>
+  </si>
+  <si>
+    <t>2024-07-01 10:59:56</t>
+  </si>
+  <si>
+    <t>2024-07-01 11:01:36</t>
+  </si>
+  <si>
+    <t>2024-07-01 11:03:25</t>
+  </si>
+  <si>
+    <t>2024-07-01 11:05:12</t>
+  </si>
+  <si>
+    <t>2024-07-01 11:08:29</t>
+  </si>
+  <si>
+    <t>2024-07-01 11:10:54</t>
+  </si>
+  <si>
+    <t>2024-07-01 11:13:55</t>
+  </si>
+  <si>
+    <t>2024-07-01 11:16:46</t>
+  </si>
+  <si>
+    <t>2024-07-01 11:19:54</t>
+  </si>
+  <si>
+    <t>2024-07-01 11:22:46</t>
+  </si>
+  <si>
+    <t>2024-07-01 11:25:46</t>
+  </si>
+  <si>
+    <t>2024-07-01 11:31:27</t>
+  </si>
+  <si>
+    <t>2024-07-01 11:36:58</t>
+  </si>
+  <si>
+    <t>2024-07-01 11:40:31</t>
+  </si>
+  <si>
+    <t>2024-07-01 11:44:57</t>
+  </si>
+  <si>
+    <t>2024-07-01 11:50:32</t>
+  </si>
+  <si>
+    <t>2024-07-01 11:55:27</t>
+  </si>
+  <si>
+    <t>2024-07-01 11:59:15</t>
+  </si>
+  <si>
+    <t>2024-07-01 12:02:12</t>
+  </si>
+  <si>
+    <t>2024-07-01 12:04:04</t>
+  </si>
+  <si>
+    <t>2024-07-01 12:06:00</t>
+  </si>
+  <si>
+    <t>2024-07-01 12:08:17</t>
+  </si>
+  <si>
+    <t>2024-07-01 12:10:44</t>
+  </si>
+  <si>
+    <t>2024-07-01 12:14:10</t>
+  </si>
+  <si>
+    <t>2024-07-01 12:16:54</t>
+  </si>
+  <si>
+    <t>2024-07-01 12:19:51</t>
+  </si>
+  <si>
+    <t>2024-07-01 12:22:52</t>
+  </si>
+  <si>
+    <t>2024-07-01 12:26:10</t>
+  </si>
+  <si>
+    <t>2024-07-01 12:28:54</t>
+  </si>
+  <si>
+    <t>2024-07-01 12:32:04</t>
+  </si>
+  <si>
+    <t>2024-07-01 12:34:53</t>
+  </si>
+  <si>
+    <t>2024-07-01 12:37:43</t>
+  </si>
+  <si>
+    <t>2024-07-01 12:40:50</t>
+  </si>
+  <si>
+    <t>2024-07-01 12:43:51</t>
+  </si>
+  <si>
+    <t>2024-07-01 12:47:08</t>
+  </si>
+  <si>
+    <t>2024-07-01 12:50:12</t>
+  </si>
+  <si>
+    <t>2024-07-01 12:53:10</t>
+  </si>
+  <si>
+    <t>2024-07-01 12:55:58</t>
+  </si>
+  <si>
+    <t>2024-07-01 12:58:55</t>
+  </si>
+  <si>
+    <t>2024-07-01 13:01:46</t>
+  </si>
+  <si>
+    <t>2024-07-01 13:04:53</t>
+  </si>
+  <si>
+    <t>2024-07-01 13:07:48</t>
+  </si>
+  <si>
+    <t>2024-07-01 13:10:52</t>
+  </si>
+  <si>
+    <t>2024-07-01 13:13:58</t>
+  </si>
+  <si>
+    <t>2024-07-01 13:16:44</t>
+  </si>
+  <si>
+    <t>2024-07-01 13:19:48</t>
+  </si>
+  <si>
+    <t>2024-07-01 13:22:56</t>
+  </si>
+  <si>
+    <t>2024-07-01 13:28:34</t>
+  </si>
+  <si>
+    <t>2024-07-01 13:31:26</t>
+  </si>
+  <si>
+    <t>2024-07-01 13:33:23</t>
+  </si>
+  <si>
+    <t>2024-07-01 13:35:26</t>
+  </si>
+  <si>
+    <t>2024-07-01 13:37:49</t>
+  </si>
+  <si>
+    <t>2024-07-01 13:40:51</t>
+  </si>
+  <si>
+    <t>2024-07-01 13:43:44</t>
+  </si>
+  <si>
+    <t>2024-07-01 13:46:45</t>
+  </si>
+  <si>
+    <t>2024-07-01 13:50:05</t>
+  </si>
+  <si>
+    <t>2024-07-01 13:52:48</t>
+  </si>
+  <si>
+    <t>2024-07-01 13:56:10</t>
+  </si>
+  <si>
+    <t>2024-07-01 13:59:35</t>
+  </si>
+  <si>
+    <t>2024-07-01 14:07:08</t>
+  </si>
+  <si>
+    <t>2024-07-01 14:16:16</t>
+  </si>
+  <si>
+    <t>2024-07-01 14:21:28</t>
+  </si>
+  <si>
+    <t>2024-07-01 14:24:19</t>
+  </si>
+  <si>
+    <t>2024-07-01 14:27:15</t>
+  </si>
+  <si>
+    <t>2024-07-01 14:30:10</t>
+  </si>
+  <si>
+    <t>2024-07-01 14:33:04</t>
+  </si>
+  <si>
+    <t>2024-07-01 14:35:56</t>
+  </si>
+  <si>
+    <t>2024-07-01 14:39:21</t>
+  </si>
+  <si>
+    <t>2024-07-01 14:42:10</t>
+  </si>
+  <si>
+    <t>2024-07-01 14:45:02</t>
+  </si>
+  <si>
+    <t>2024-07-01 14:47:55</t>
+  </si>
+  <si>
+    <t>2024-07-01 14:51:15</t>
+  </si>
+  <si>
+    <t>2024-07-01 14:54:41</t>
+  </si>
+  <si>
+    <t>2024-07-01 14:56:52</t>
+  </si>
+  <si>
+    <t>2024-07-01 14:58:45</t>
+  </si>
+  <si>
+    <t>2024-07-01 15:01:55</t>
+  </si>
+  <si>
+    <t>2024-07-01 15:05:04</t>
+  </si>
+  <si>
+    <t>2024-07-01 15:07:45</t>
+  </si>
+  <si>
+    <t>2024-07-01 15:10:48</t>
+  </si>
+  <si>
+    <t>2024-07-01 15:17:20</t>
+  </si>
+  <si>
+    <t>2024-07-01 15:26:10</t>
+  </si>
+  <si>
+    <t>2024-07-01 15:29:53</t>
+  </si>
+  <si>
+    <t>2024-07-01 15:35:07</t>
+  </si>
+  <si>
+    <t>2024-07-01 15:38:30</t>
+  </si>
+  <si>
+    <t>2024-07-01 15:41:42</t>
+  </si>
+  <si>
+    <t>2024-07-01 15:44:47</t>
+  </si>
+  <si>
+    <t>2024-07-01 15:47:47</t>
+  </si>
+  <si>
+    <t>2024-07-01 15:50:42</t>
+  </si>
+  <si>
+    <t>2024-07-01 15:53:35</t>
+  </si>
+  <si>
+    <t>2024-07-01 15:56:27</t>
+  </si>
+  <si>
+    <t>2024-07-01 15:59:44</t>
+  </si>
+  <si>
+    <t>2024-07-01 16:02:34</t>
+  </si>
+  <si>
+    <t>2024-07-01 16:05:24</t>
+  </si>
+  <si>
+    <t>2024-07-01 16:08:21</t>
+  </si>
+  <si>
+    <t>2024-07-01 16:11:26</t>
+  </si>
+  <si>
+    <t>2024-07-01 16:14:29</t>
+  </si>
+  <si>
+    <t>2024-07-01 16:17:37</t>
+  </si>
+  <si>
+    <t>2024-07-01 16:21:00</t>
+  </si>
+  <si>
+    <t>2024-07-01 16:24:23</t>
+  </si>
+  <si>
+    <t>2024-07-01 16:26:13</t>
+  </si>
+  <si>
+    <t>2024-07-01 16:28:44</t>
+  </si>
+  <si>
+    <t>2024-07-01 16:31:48</t>
+  </si>
+  <si>
+    <t>2024-07-01 16:35:07</t>
+  </si>
+  <si>
+    <t>2024-07-01 16:37:56</t>
+  </si>
+  <si>
+    <t>2024-07-01 16:44:12</t>
+  </si>
+  <si>
+    <t>2024-07-01 16:46:44</t>
+  </si>
+  <si>
+    <t>2024-07-01 16:49:39</t>
+  </si>
+  <si>
+    <t>2024-07-01 16:55:37</t>
+  </si>
+  <si>
+    <t>2024-07-01 16:58:43</t>
+  </si>
+  <si>
+    <t>2024-07-01 17:01:39</t>
+  </si>
+  <si>
+    <t>2024-07-01 17:07:47</t>
+  </si>
+  <si>
+    <t>2024-07-01 17:10:40</t>
+  </si>
+  <si>
+    <t>2024-07-01 17:13:42</t>
+  </si>
+  <si>
+    <t>2024-07-01 17:16:57</t>
+  </si>
+  <si>
+    <t>2024-07-01 17:20:01</t>
+  </si>
+  <si>
+    <t>2024-07-01 17:22:45</t>
+  </si>
+  <si>
+    <t>2024-07-01 17:25:38</t>
+  </si>
+  <si>
+    <t>2024-07-01 17:29:00</t>
+  </si>
+  <si>
+    <t>2024-07-01 17:31:44</t>
+  </si>
+  <si>
+    <t>2024-07-01 17:34:45</t>
+  </si>
+  <si>
+    <t>2024-07-01 17:37:43</t>
+  </si>
+  <si>
+    <t>2024-07-01 17:41:01</t>
+  </si>
+  <si>
+    <t>2024-07-01 17:43:37</t>
+  </si>
+  <si>
+    <t>2024-07-01 17:47:01</t>
+  </si>
+  <si>
+    <t>2024-07-01 17:49:39</t>
+  </si>
+  <si>
+    <t>2024-07-01 17:52:41</t>
+  </si>
+  <si>
+    <t>2024-07-01 17:55:39</t>
+  </si>
+  <si>
+    <t>2024-07-01 17:59:01</t>
+  </si>
+  <si>
+    <t>2024-07-01 18:01:39</t>
+  </si>
+  <si>
+    <t>2024-07-01 18:04:37</t>
+  </si>
+  <si>
+    <t>2024-07-01 18:07:57</t>
+  </si>
+  <si>
+    <t>2024-07-01 18:11:02</t>
+  </si>
+  <si>
+    <t>2024-07-01 18:13:58</t>
+  </si>
+  <si>
+    <t>2024-07-01 18:16:37</t>
+  </si>
+  <si>
+    <t>2024-07-01 18:19:36</t>
+  </si>
+  <si>
+    <t>2024-07-01 18:22:39</t>
+  </si>
+  <si>
+    <t>2024-07-01 18:25:42</t>
+  </si>
+  <si>
+    <t>2024-07-01 18:28:39</t>
+  </si>
+  <si>
+    <t>2024-07-01 18:31:39</t>
+  </si>
+  <si>
+    <t>2024-07-01 18:34:50</t>
+  </si>
+  <si>
+    <t>2024-07-01 18:40:48</t>
+  </si>
+  <si>
+    <t>2024-07-01 18:43:48</t>
+  </si>
+  <si>
+    <t>2024-07-01 18:46:42</t>
+  </si>
+  <si>
+    <t>2024-07-01 18:49:47</t>
+  </si>
+  <si>
+    <t>2024-07-01 18:53:10</t>
+  </si>
+  <si>
+    <t>2024-07-01 18:59:16</t>
+  </si>
+  <si>
+    <t>2024-07-01 19:01:43</t>
+  </si>
+  <si>
+    <t>2024-07-01 19:04:45</t>
   </si>
 </sst>
 </file>
@@ -4223,7 +6029,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J255"/>
+  <dimension ref="A1:J277"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
       <selection activeCell="C249" sqref="C249"/>
@@ -6291,6 +8097,182 @@
         <v>229</v>
       </c>
     </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B256" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B257" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B258" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B259" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B260" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B261" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B262" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B263" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B264" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B265" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B266" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B267" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B268" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B269" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B270" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B271" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B272" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B273" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B274" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B275" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B276" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B277" t="s">
+        <v>229</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:J2"/>
@@ -6303,7 +8285,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C821"/>
+  <dimension ref="A1:C1402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
@@ -15347,6 +17329,6397 @@
         <v>1075</v>
       </c>
     </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B822" t="n">
+        <v>345.0</v>
+      </c>
+      <c r="C822" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B823" t="n">
+        <v>453.0</v>
+      </c>
+      <c r="C823" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B824" t="n">
+        <v>347.0</v>
+      </c>
+      <c r="C824" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B825" t="n">
+        <v>627.0</v>
+      </c>
+      <c r="C825" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B826" t="n">
+        <v>297.0</v>
+      </c>
+      <c r="C826" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B827" t="n">
+        <v>375.0</v>
+      </c>
+      <c r="C827" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B828" t="n">
+        <v>530.0</v>
+      </c>
+      <c r="C828" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B829" t="n">
+        <v>289.0</v>
+      </c>
+      <c r="C829" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B830" t="n">
+        <v>562.0</v>
+      </c>
+      <c r="C830" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B831" t="n">
+        <v>441.0</v>
+      </c>
+      <c r="C831" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B832" t="n">
+        <v>382.0</v>
+      </c>
+      <c r="C832" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B833" t="n">
+        <v>494.0</v>
+      </c>
+      <c r="C833" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B834" t="n">
+        <v>442.0</v>
+      </c>
+      <c r="C834" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B835" t="n">
+        <v>428.0</v>
+      </c>
+      <c r="C835" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B836" t="n">
+        <v>622.0</v>
+      </c>
+      <c r="C836" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B837" t="n">
+        <v>478.0</v>
+      </c>
+      <c r="C837" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B838" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="C838" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B839" t="n">
+        <v>529.0</v>
+      </c>
+      <c r="C839" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B840" t="n">
+        <v>470.0</v>
+      </c>
+      <c r="C840" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B841" t="n">
+        <v>512.0</v>
+      </c>
+      <c r="C841" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B842" t="n">
+        <v>1072.0</v>
+      </c>
+      <c r="C842" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B843" t="n">
+        <v>456.0</v>
+      </c>
+      <c r="C843" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B844" t="n">
+        <v>496.0</v>
+      </c>
+      <c r="C844" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B845" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="C845" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B846" t="n">
+        <v>443.0</v>
+      </c>
+      <c r="C846" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B847" t="n">
+        <v>282.0</v>
+      </c>
+      <c r="C847" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B848" t="n">
+        <v>299.0</v>
+      </c>
+      <c r="C848" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B849" t="n">
+        <v>269.0</v>
+      </c>
+      <c r="C849" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B850" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="C850" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B851" t="n">
+        <v>823.0</v>
+      </c>
+      <c r="C851" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B852" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="C852" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B853" t="n">
+        <v>293.0</v>
+      </c>
+      <c r="C853" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B854" t="n">
+        <v>338.0</v>
+      </c>
+      <c r="C854" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B855" t="n">
+        <v>1128.0</v>
+      </c>
+      <c r="C855" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B856" t="n">
+        <v>1182.0</v>
+      </c>
+      <c r="C856" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B857" t="n">
+        <v>1152.0</v>
+      </c>
+      <c r="C857" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B858" t="n">
+        <v>337.0</v>
+      </c>
+      <c r="C858" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B859" t="n">
+        <v>502.0</v>
+      </c>
+      <c r="C859" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B860" t="n">
+        <v>331.0</v>
+      </c>
+      <c r="C860" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B861" t="n">
+        <v>364.0</v>
+      </c>
+      <c r="C861" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B862" t="n">
+        <v>988.0</v>
+      </c>
+      <c r="C862" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B863" t="n">
+        <v>511.0</v>
+      </c>
+      <c r="C863" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B864" t="n">
+        <v>315.0</v>
+      </c>
+      <c r="C864" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B865" t="n">
+        <v>323.0</v>
+      </c>
+      <c r="C865" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B866" t="n">
+        <v>319.0</v>
+      </c>
+      <c r="C866" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B867" t="n">
+        <v>448.0</v>
+      </c>
+      <c r="C867" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B868" t="n">
+        <v>311.0</v>
+      </c>
+      <c r="C868" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B869" t="n">
+        <v>922.0</v>
+      </c>
+      <c r="C869" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B870" t="n">
+        <v>355.0</v>
+      </c>
+      <c r="C870" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B871" t="n">
+        <v>332.0</v>
+      </c>
+      <c r="C871" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B872" t="n">
+        <v>323.0</v>
+      </c>
+      <c r="C872" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B873" t="n">
+        <v>401.0</v>
+      </c>
+      <c r="C873" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B874" t="n">
+        <v>477.0</v>
+      </c>
+      <c r="C874" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B875" t="n">
+        <v>413.0</v>
+      </c>
+      <c r="C875" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B876" t="n">
+        <v>601.0</v>
+      </c>
+      <c r="C876" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B877" t="n">
+        <v>532.0</v>
+      </c>
+      <c r="C877" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B878" t="n">
+        <v>508.0</v>
+      </c>
+      <c r="C878" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B879" t="n">
+        <v>344.0</v>
+      </c>
+      <c r="C879" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B880" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="C880" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B881" t="n">
+        <v>882.0</v>
+      </c>
+      <c r="C881" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B882" t="n">
+        <v>470.0</v>
+      </c>
+      <c r="C882" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B883" t="n">
+        <v>294.0</v>
+      </c>
+      <c r="C883" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B884" t="n">
+        <v>306.0</v>
+      </c>
+      <c r="C884" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B885" t="n">
+        <v>277.0</v>
+      </c>
+      <c r="C885" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B886" t="n">
+        <v>264.0</v>
+      </c>
+      <c r="C886" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B887" t="n">
+        <v>361.0</v>
+      </c>
+      <c r="C887" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B888" t="n">
+        <v>457.0</v>
+      </c>
+      <c r="C888" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B889" t="n">
+        <v>332.0</v>
+      </c>
+      <c r="C889" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B890" t="n">
+        <v>580.0</v>
+      </c>
+      <c r="C890" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B891" t="n">
+        <v>704.0</v>
+      </c>
+      <c r="C891" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B892" t="n">
+        <v>868.0</v>
+      </c>
+      <c r="C892" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B893" t="n">
+        <v>371.0</v>
+      </c>
+      <c r="C893" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B894" t="n">
+        <v>296.0</v>
+      </c>
+      <c r="C894" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B895" t="n">
+        <v>351.0</v>
+      </c>
+      <c r="C895" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B896" t="n">
+        <v>420.0</v>
+      </c>
+      <c r="C896" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B897" t="n">
+        <v>295.0</v>
+      </c>
+      <c r="C897" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B898" t="n">
+        <v>353.0</v>
+      </c>
+      <c r="C898" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B899" t="n">
+        <v>344.0</v>
+      </c>
+      <c r="C899" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B900" t="n">
+        <v>401.0</v>
+      </c>
+      <c r="C900" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B901" t="n">
+        <v>349.0</v>
+      </c>
+      <c r="C901" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B902" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="C902" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B903" t="n">
+        <v>395.0</v>
+      </c>
+      <c r="C903" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B904" t="n">
+        <v>385.0</v>
+      </c>
+      <c r="C904" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B905" t="n">
+        <v>358.0</v>
+      </c>
+      <c r="C905" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B906" t="n">
+        <v>595.0</v>
+      </c>
+      <c r="C906" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B907" t="n">
+        <v>451.0</v>
+      </c>
+      <c r="C907" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B908" t="n">
+        <v>444.0</v>
+      </c>
+      <c r="C908" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B909" t="n">
+        <v>303.0</v>
+      </c>
+      <c r="C909" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B910" t="n">
+        <v>351.0</v>
+      </c>
+      <c r="C910" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B911" t="n">
+        <v>362.0</v>
+      </c>
+      <c r="C911" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B912" t="n">
+        <v>595.0</v>
+      </c>
+      <c r="C912" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B913" t="n">
+        <v>538.0</v>
+      </c>
+      <c r="C913" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B914" t="n">
+        <v>353.0</v>
+      </c>
+      <c r="C914" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B915" t="n">
+        <v>429.0</v>
+      </c>
+      <c r="C915" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B916" t="n">
+        <v>559.0</v>
+      </c>
+      <c r="C916" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B917" t="n">
+        <v>485.0</v>
+      </c>
+      <c r="C917" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B918" t="n">
+        <v>459.0</v>
+      </c>
+      <c r="C918" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B919" t="n">
+        <v>493.0</v>
+      </c>
+      <c r="C919" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B920" t="n">
+        <v>383.0</v>
+      </c>
+      <c r="C920" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B921" t="n">
+        <v>498.0</v>
+      </c>
+      <c r="C921" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B922" t="n">
+        <v>718.0</v>
+      </c>
+      <c r="C922" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B923" t="n">
+        <v>679.0</v>
+      </c>
+      <c r="C923" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B924" t="n">
+        <v>414.0</v>
+      </c>
+      <c r="C924" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B925" t="n">
+        <v>493.0</v>
+      </c>
+      <c r="C925" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B926" t="n">
+        <v>443.0</v>
+      </c>
+      <c r="C926" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B927" t="n">
+        <v>471.0</v>
+      </c>
+      <c r="C927" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B928" t="n">
+        <v>472.0</v>
+      </c>
+      <c r="C928" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B929" t="n">
+        <v>509.0</v>
+      </c>
+      <c r="C929" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B930" t="n">
+        <v>445.0</v>
+      </c>
+      <c r="C930" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B931" t="n">
+        <v>485.0</v>
+      </c>
+      <c r="C931" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B932" t="n">
+        <v>617.0</v>
+      </c>
+      <c r="C932" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B933" t="n">
+        <v>478.0</v>
+      </c>
+      <c r="C933" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B934" t="n">
+        <v>537.0</v>
+      </c>
+      <c r="C934" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B935" t="n">
+        <v>459.0</v>
+      </c>
+      <c r="C935" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B936" t="n">
+        <v>1044.0</v>
+      </c>
+      <c r="C936" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B937" t="n">
+        <v>763.0</v>
+      </c>
+      <c r="C937" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B938" t="n">
+        <v>502.0</v>
+      </c>
+      <c r="C938" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B939" t="n">
+        <v>304.0</v>
+      </c>
+      <c r="C939" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B940" t="n">
+        <v>321.0</v>
+      </c>
+      <c r="C940" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B941" t="n">
+        <v>353.0</v>
+      </c>
+      <c r="C941" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B942" t="n">
+        <v>331.0</v>
+      </c>
+      <c r="C942" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B943" t="n">
+        <v>302.0</v>
+      </c>
+      <c r="C943" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B944" t="n">
+        <v>345.0</v>
+      </c>
+      <c r="C944" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B945" t="n">
+        <v>347.0</v>
+      </c>
+      <c r="C945" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B946" t="n">
+        <v>444.0</v>
+      </c>
+      <c r="C946" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B947" t="n">
+        <v>351.0</v>
+      </c>
+      <c r="C947" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B948" t="n">
+        <v>433.0</v>
+      </c>
+      <c r="C948" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B949" t="n">
+        <v>501.0</v>
+      </c>
+      <c r="C949" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B950" t="n">
+        <v>470.0</v>
+      </c>
+      <c r="C950" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B951" t="n">
+        <v>378.0</v>
+      </c>
+      <c r="C951" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B952" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="C952" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B953" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="C953" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B954" t="n">
+        <v>378.0</v>
+      </c>
+      <c r="C954" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B955" t="n">
+        <v>403.0</v>
+      </c>
+      <c r="C955" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B956" t="n">
+        <v>353.0</v>
+      </c>
+      <c r="C956" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B957" t="n">
+        <v>381.0</v>
+      </c>
+      <c r="C957" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B958" t="n">
+        <v>373.0</v>
+      </c>
+      <c r="C958" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B959" t="n">
+        <v>363.0</v>
+      </c>
+      <c r="C959" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B960" t="n">
+        <v>323.0</v>
+      </c>
+      <c r="C960" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B961" t="n">
+        <v>332.0</v>
+      </c>
+      <c r="C961" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B962" t="n">
+        <v>317.0</v>
+      </c>
+      <c r="C962" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B963" t="n">
+        <v>322.0</v>
+      </c>
+      <c r="C963" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B964" t="n">
+        <v>348.0</v>
+      </c>
+      <c r="C964" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B965" t="n">
+        <v>388.0</v>
+      </c>
+      <c r="C965" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B966" t="n">
+        <v>404.0</v>
+      </c>
+      <c r="C966" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B967" t="n">
+        <v>587.0</v>
+      </c>
+      <c r="C967" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B968" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="C968" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B969" t="n">
+        <v>966.0</v>
+      </c>
+      <c r="C969" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B970" t="n">
+        <v>426.0</v>
+      </c>
+      <c r="C970" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B971" t="n">
+        <v>304.0</v>
+      </c>
+      <c r="C971" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B972" t="n">
+        <v>515.0</v>
+      </c>
+      <c r="C972" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B973" t="n">
+        <v>467.0</v>
+      </c>
+      <c r="C973" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B974" t="n">
+        <v>1318.0</v>
+      </c>
+      <c r="C974" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B975" t="n">
+        <v>687.0</v>
+      </c>
+      <c r="C975" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B976" t="n">
+        <v>455.0</v>
+      </c>
+      <c r="C976" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B977" t="n">
+        <v>373.0</v>
+      </c>
+      <c r="C977" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B978" t="n">
+        <v>378.0</v>
+      </c>
+      <c r="C978" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B979" t="n">
+        <v>335.0</v>
+      </c>
+      <c r="C979" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B980" t="n">
+        <v>326.0</v>
+      </c>
+      <c r="C980" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B981" t="n">
+        <v>334.0</v>
+      </c>
+      <c r="C981" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B982" t="n">
+        <v>293.0</v>
+      </c>
+      <c r="C982" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B983" t="n">
+        <v>489.0</v>
+      </c>
+      <c r="C983" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B984" t="n">
+        <v>304.0</v>
+      </c>
+      <c r="C984" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B985" t="n">
+        <v>364.0</v>
+      </c>
+      <c r="C985" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B986" t="n">
+        <v>319.0</v>
+      </c>
+      <c r="C986" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B987" t="n">
+        <v>331.0</v>
+      </c>
+      <c r="C987" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B988" t="n">
+        <v>342.0</v>
+      </c>
+      <c r="C988" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B989" t="n">
+        <v>366.0</v>
+      </c>
+      <c r="C989" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B990" t="n">
+        <v>328.0</v>
+      </c>
+      <c r="C990" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B991" t="n">
+        <v>349.0</v>
+      </c>
+      <c r="C991" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B992" t="n">
+        <v>339.0</v>
+      </c>
+      <c r="C992" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B993" t="n">
+        <v>352.0</v>
+      </c>
+      <c r="C993" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B994" t="n">
+        <v>387.0</v>
+      </c>
+      <c r="C994" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B995" t="n">
+        <v>401.0</v>
+      </c>
+      <c r="C995" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B996" t="n">
+        <v>431.0</v>
+      </c>
+      <c r="C996" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B997" t="n">
+        <v>443.0</v>
+      </c>
+      <c r="C997" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B998" t="n">
+        <v>361.0</v>
+      </c>
+      <c r="C998" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B999" t="n">
+        <v>462.0</v>
+      </c>
+      <c r="C999" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1000" t="n">
+        <v>352.0</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>493.0</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>456.0</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>408.0</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>1091.0</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>382.0</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>456.0</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>359.0</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>370.0</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>565.0</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>452.0</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1013" t="n">
+        <v>404.0</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>1704.0</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1015" t="n">
+        <v>521.0</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>445.0</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>349.0</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>471.0</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>526.0</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>838.0</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>505.0</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>352.0</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>359.0</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>358.0</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>345.0</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>319.0</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>367.0</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>976.0</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>672.0</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>935.0</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>630.0</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>436.0</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>609.0</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>453.0</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>467.0</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1039" t="n">
+        <v>704.0</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1040" t="n">
+        <v>560.0</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1041" t="n">
+        <v>532.0</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1042" t="n">
+        <v>499.0</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1043" t="n">
+        <v>340.0</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1044" t="n">
+        <v>429.0</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1045" t="n">
+        <v>354.0</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1046" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1047" t="n">
+        <v>465.0</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1048" t="n">
+        <v>335.0</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1049" t="n">
+        <v>582.0</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1050" t="n">
+        <v>382.0</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1051" t="n">
+        <v>444.0</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1052" t="n">
+        <v>408.0</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1053" t="n">
+        <v>625.0</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1054" t="n">
+        <v>336.0</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1055" t="n">
+        <v>364.0</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1056" t="n">
+        <v>387.0</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1057" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1058" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1059" t="n">
+        <v>333.0</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1060" t="n">
+        <v>323.0</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1061" t="n">
+        <v>319.0</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1062" t="n">
+        <v>304.0</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1063" t="n">
+        <v>311.0</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1064" t="n">
+        <v>355.0</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1065" t="n">
+        <v>415.0</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1066" t="n">
+        <v>364.0</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1067" t="n">
+        <v>516.0</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1068" t="n">
+        <v>389.0</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1069" t="n">
+        <v>716.0</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1070" t="n">
+        <v>394.0</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1071" t="n">
+        <v>318.0</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1072" t="n">
+        <v>388.0</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1073" t="n">
+        <v>336.0</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1074" t="n">
+        <v>354.0</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1075" t="n">
+        <v>412.0</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1076" t="n">
+        <v>346.0</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1077" t="n">
+        <v>368.0</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1078" t="n">
+        <v>3322.0</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1079" t="n">
+        <v>15122.0</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1080" t="n">
+        <v>438.0</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1081" t="n">
+        <v>481.0</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1082" t="n">
+        <v>432.0</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1083" t="n">
+        <v>362.0</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1084" t="n">
+        <v>488.0</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1085" t="n">
+        <v>333.0</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1086" t="n">
+        <v>472.0</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1087" t="n">
+        <v>499.0</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1088" t="n">
+        <v>374.0</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1089" t="n">
+        <v>331.0</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1090" t="n">
+        <v>369.0</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1091" t="n">
+        <v>340.0</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1092" t="n">
+        <v>368.0</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1093" t="n">
+        <v>347.0</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1094" t="n">
+        <v>411.0</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1095" t="n">
+        <v>305.0</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1096" t="n">
+        <v>359.0</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1097" t="n">
+        <v>339.0</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1098" t="n">
+        <v>964.0</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1099" t="n">
+        <v>326.0</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1100" t="n">
+        <v>592.0</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1101" t="n">
+        <v>368.0</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1102" t="n">
+        <v>345.0</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1103" t="n">
+        <v>386.0</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1104" t="n">
+        <v>407.0</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1105" t="n">
+        <v>1098.0</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1106" t="n">
+        <v>389.0</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1107" t="n">
+        <v>407.0</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1108" t="n">
+        <v>331.0</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1109" t="n">
+        <v>453.0</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1110" t="n">
+        <v>358.0</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1111" t="n">
+        <v>339.0</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1112" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1113" t="n">
+        <v>425.0</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1114" t="n">
+        <v>390.0</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1115" t="n">
+        <v>361.0</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1116" t="n">
+        <v>476.0</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1117" t="n">
+        <v>351.0</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1118" t="n">
+        <v>389.0</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1119" t="n">
+        <v>333.0</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1120" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1121" t="n">
+        <v>361.0</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1122" t="n">
+        <v>345.0</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1123" t="n">
+        <v>344.0</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1124" t="n">
+        <v>421.0</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1125" t="n">
+        <v>517.0</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1126" t="n">
+        <v>586.0</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1127" t="n">
+        <v>529.0</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1128" t="n">
+        <v>505.0</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1129" t="n">
+        <v>543.0</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1130" t="n">
+        <v>581.0</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1131" t="n">
+        <v>759.0</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1132" t="n">
+        <v>616.0</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1133" t="n">
+        <v>477.0</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1134" t="n">
+        <v>483.0</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1135" t="n">
+        <v>496.0</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1136" t="n">
+        <v>495.0</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1137" t="n">
+        <v>797.0</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1138" t="n">
+        <v>511.0</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1139" t="n">
+        <v>513.0</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1140" t="n">
+        <v>472.0</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1141" t="n">
+        <v>567.0</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1142" t="n">
+        <v>507.0</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1143" t="n">
+        <v>569.0</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>491.0</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>517.0</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>761.0</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>503.0</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>504.0</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>502.0</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>612.0</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>562.0</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>578.0</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>689.0</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>637.0</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>532.0</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>511.0</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>1352.0</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>573.0</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>503.0</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>575.0</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>553.0</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>436.0</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>322.0</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>566.0</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>622.0</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>531.0</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>719.0</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>582.0</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>605.0</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>566.0</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>568.0</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>409.0</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>326.0</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>337.0</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>409.0</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>370.0</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>619.0</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>391.0</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1183" t="n">
+        <v>345.0</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1184" t="n">
+        <v>401.0</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>474.0</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1186" t="n">
+        <v>578.0</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1187" t="n">
+        <v>462.0</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1188" t="n">
+        <v>430.0</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1189" t="n">
+        <v>429.0</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1190" t="n">
+        <v>469.0</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1191" t="n">
+        <v>465.0</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1192" t="n">
+        <v>498.0</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1193" t="n">
+        <v>551.0</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1194" t="n">
+        <v>413.0</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1195" t="n">
+        <v>411.0</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1196" t="n">
+        <v>529.0</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1197" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1198" t="n">
+        <v>435.0</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1199" t="n">
+        <v>461.0</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1200" t="n">
+        <v>514.0</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1201" t="n">
+        <v>527.0</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1202" t="n">
+        <v>668.0</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1203" t="n">
+        <v>485.0</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1204" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1205" t="n">
+        <v>466.0</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1206" t="n">
+        <v>505.0</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1207" t="n">
+        <v>561.0</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1208" t="n">
+        <v>464.0</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1209" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1210" t="n">
+        <v>524.0</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1211" t="n">
+        <v>490.0</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1212" t="n">
+        <v>490.0</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1213" t="n">
+        <v>596.0</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1214" t="n">
+        <v>571.0</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1215" t="n">
+        <v>575.0</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1216" t="n">
+        <v>538.0</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1217" t="n">
+        <v>488.0</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1218" t="n">
+        <v>737.0</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1219" t="n">
+        <v>406.0</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1220" t="n">
+        <v>469.0</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1221" t="n">
+        <v>503.0</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1222" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1223" t="n">
+        <v>431.0</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1224" t="n">
+        <v>494.0</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1225" t="n">
+        <v>518.0</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1226" t="n">
+        <v>521.0</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1227" t="n">
+        <v>459.0</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1228" t="n">
+        <v>492.0</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1229" t="n">
+        <v>462.0</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1230" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1231" t="n">
+        <v>504.0</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1232" t="n">
+        <v>475.0</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1233" t="n">
+        <v>680.0</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1234" t="n">
+        <v>466.0</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1235" t="n">
+        <v>499.0</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1236" t="n">
+        <v>422.0</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1237" t="n">
+        <v>482.0</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1238" t="n">
+        <v>677.0</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1239" t="n">
+        <v>486.0</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1240" t="n">
+        <v>558.0</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1241" t="n">
+        <v>455.0</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1242" t="n">
+        <v>558.0</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1243" t="n">
+        <v>563.0</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1244" t="n">
+        <v>433.0</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1245" t="n">
+        <v>418.0</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1246" t="n">
+        <v>622.0</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1247" t="n">
+        <v>390.0</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1248" t="n">
+        <v>510.0</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1249" t="n">
+        <v>359.0</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1250" t="n">
+        <v>548.0</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1251" t="n">
+        <v>377.0</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1252" t="n">
+        <v>667.0</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1253" t="n">
+        <v>349.0</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1254" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1255" t="n">
+        <v>418.0</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1256" t="n">
+        <v>541.0</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1257" t="n">
+        <v>294.0</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1258" t="n">
+        <v>642.0</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1259" t="n">
+        <v>453.0</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1260" t="n">
+        <v>959.0</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1261" t="n">
+        <v>347.0</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1262" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1263" t="n">
+        <v>366.0</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1264" t="n">
+        <v>353.0</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1265" t="n">
+        <v>336.0</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1266" t="n">
+        <v>651.0</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1267" t="n">
+        <v>507.0</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1268" t="n">
+        <v>475.0</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1269" t="n">
+        <v>4445.0</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1270" t="n">
+        <v>363.0</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1271" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1272" t="n">
+        <v>348.0</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1273" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1274" t="n">
+        <v>332.0</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1275" t="n">
+        <v>307.0</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1276" t="n">
+        <v>337.0</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1277" t="n">
+        <v>318.0</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1278" t="n">
+        <v>366.0</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1279" t="n">
+        <v>497.0</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1280" t="n">
+        <v>379.0</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1281" t="n">
+        <v>384.0</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1282" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1283" t="n">
+        <v>385.0</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1284" t="n">
+        <v>390.0</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1285" t="n">
+        <v>365.0</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1286" t="n">
+        <v>346.0</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1287" t="n">
+        <v>338.0</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1288" t="n">
+        <v>374.0</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1289" t="n">
+        <v>432.0</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1290" t="n">
+        <v>340.0</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1291" t="n">
+        <v>388.0</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1292" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1293" t="n">
+        <v>376.0</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1294" t="n">
+        <v>348.0</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1295" t="n">
+        <v>516.0</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1296" t="n">
+        <v>711.0</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1297" t="n">
+        <v>345.0</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1298" t="n">
+        <v>345.0</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1299" t="n">
+        <v>383.0</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1300" t="n">
+        <v>381.0</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1301" t="n">
+        <v>815.0</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1302" t="n">
+        <v>856.0</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1303" t="n">
+        <v>505.0</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1304" t="n">
+        <v>410.0</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1305" t="n">
+        <v>416.0</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1306" t="n">
+        <v>352.0</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1307" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1308" t="n">
+        <v>432.0</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1309" t="n">
+        <v>465.0</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1310" t="n">
+        <v>561.0</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1311" t="n">
+        <v>343.0</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1312" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1313" t="n">
+        <v>395.0</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1314" t="n">
+        <v>705.0</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1315" t="n">
+        <v>871.0</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1316" t="n">
+        <v>395.0</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1317" t="n">
+        <v>348.0</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1318" t="n">
+        <v>431.0</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1319" t="n">
+        <v>685.0</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1320" t="n">
+        <v>405.0</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1321" t="n">
+        <v>518.0</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1322" t="n">
+        <v>433.0</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1323" t="n">
+        <v>435.0</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1324" t="n">
+        <v>447.0</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>345.0</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1326" t="n">
+        <v>1547.0</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1327" t="n">
+        <v>786.0</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1328" t="n">
+        <v>373.0</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1329" t="n">
+        <v>313.0</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1330" t="n">
+        <v>379.0</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1331" t="n">
+        <v>341.0</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1332" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1333" t="n">
+        <v>352.0</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1334" t="n">
+        <v>2567.0</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1335" t="n">
+        <v>511.0</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1336" t="n">
+        <v>580.0</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1337" t="n">
+        <v>432.0</v>
+      </c>
+      <c r="C1337" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1338" t="n">
+        <v>448.0</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1339" t="n">
+        <v>445.0</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1340" t="n">
+        <v>433.0</v>
+      </c>
+      <c r="C1340" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1341" t="n">
+        <v>501.0</v>
+      </c>
+      <c r="C1341" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1342" t="n">
+        <v>1038.0</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1343" t="n">
+        <v>376.0</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1344" t="n">
+        <v>391.0</v>
+      </c>
+      <c r="C1344" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1345" t="n">
+        <v>479.0</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1346" t="n">
+        <v>582.0</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1347" t="n">
+        <v>550.0</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1348" t="n">
+        <v>613.0</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1349" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="C1349" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1350" t="n">
+        <v>655.0</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1351" t="n">
+        <v>823.0</v>
+      </c>
+      <c r="C1351" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1352" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1353" t="n">
+        <v>367.0</v>
+      </c>
+      <c r="C1353" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1354" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="C1354" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1355" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1356" t="n">
+        <v>404.0</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1357" t="n">
+        <v>815.0</v>
+      </c>
+      <c r="C1357" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1358" t="n">
+        <v>647.0</v>
+      </c>
+      <c r="C1358" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1359" t="n">
+        <v>448.0</v>
+      </c>
+      <c r="C1359" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1360" t="n">
+        <v>402.0</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1361" t="n">
+        <v>403.0</v>
+      </c>
+      <c r="C1361" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1362" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="C1362" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1363" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="C1363" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1364" t="n">
+        <v>1238.0</v>
+      </c>
+      <c r="C1364" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1365" t="n">
+        <v>362.0</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1366" t="n">
+        <v>492.0</v>
+      </c>
+      <c r="C1366" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1367" t="n">
+        <v>356.0</v>
+      </c>
+      <c r="C1367" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1368" t="n">
+        <v>358.0</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1369" t="n">
+        <v>417.0</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1370" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="C1370" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1371" t="n">
+        <v>341.0</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1372" t="n">
+        <v>960.0</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1373" t="n">
+        <v>542.0</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1374" t="n">
+        <v>357.0</v>
+      </c>
+      <c r="C1374" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1375" t="n">
+        <v>477.0</v>
+      </c>
+      <c r="C1375" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1376" t="n">
+        <v>393.0</v>
+      </c>
+      <c r="C1376" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1377" t="n">
+        <v>347.0</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1378" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="C1378" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1379" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="C1379" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1380" t="n">
+        <v>394.0</v>
+      </c>
+      <c r="C1380" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1381" t="n">
+        <v>313.0</v>
+      </c>
+      <c r="C1381" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1382" t="n">
+        <v>334.0</v>
+      </c>
+      <c r="C1382" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1383" t="n">
+        <v>293.0</v>
+      </c>
+      <c r="C1383" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1384" t="n">
+        <v>314.0</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1385" t="n">
+        <v>331.0</v>
+      </c>
+      <c r="C1385" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1386" t="n">
+        <v>388.0</v>
+      </c>
+      <c r="C1386" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1387" t="n">
+        <v>327.0</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1388" t="n">
+        <v>292.0</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1389" t="n">
+        <v>284.0</v>
+      </c>
+      <c r="C1389" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1390" t="n">
+        <v>309.0</v>
+      </c>
+      <c r="C1390" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1391" t="n">
+        <v>515.0</v>
+      </c>
+      <c r="C1391" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1392" t="n">
+        <v>307.0</v>
+      </c>
+      <c r="C1392" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1393" t="n">
+        <v>301.0</v>
+      </c>
+      <c r="C1393" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1394" t="n">
+        <v>329.0</v>
+      </c>
+      <c r="C1394" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1395" t="n">
+        <v>348.0</v>
+      </c>
+      <c r="C1395" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1396" t="n">
+        <v>343.0</v>
+      </c>
+      <c r="C1396" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1397" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="C1397" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1398" t="n">
+        <v>454.0</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1399" t="n">
+        <v>372.0</v>
+      </c>
+      <c r="C1399" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1400" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1401" t="n">
+        <v>351.0</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B1402" t="n">
+        <v>327.0</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>1677</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/RR/excel/GenericFlow/NewsFeedDelete.xlsx
+++ b/RR/excel/GenericFlow/NewsFeedDelete.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="1678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="1679">
   <si>
     <t>NewsFeed ID</t>
   </si>
@@ -5065,6 +5065,9 @@
   </si>
   <si>
     <t>2024-07-01 19:04:45</t>
+  </si>
+  <si>
+    <t>5298963</t>
   </si>
 </sst>
 </file>
@@ -6029,7 +6032,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J277"/>
+  <dimension ref="A1:J278"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
       <selection activeCell="C249" sqref="C249"/>
@@ -8270,6 +8273,14 @@
         <v>1449</v>
       </c>
       <c r="B277" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B278" t="s">
         <v>229</v>
       </c>
     </row>
